--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="309">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -433,13 +433,13 @@
     <t>US;;KR</t>
   </si>
   <si>
+    <t>WO;;US</t>
+  </si>
+  <si>
     <t>US;;WO</t>
   </si>
   <si>
-    <t>TW;;GB;;WO;;EP;;SG;;CA</t>
-  </si>
-  <si>
-    <t>WO;;US</t>
+    <t>GB;;WO;;TW;;CA;;SG;;EP</t>
   </si>
   <si>
     <t>EP;;FR;;WO</t>
@@ -457,118 +457,121 @@
     <t>CN;;US</t>
   </si>
   <si>
+    <t>CA;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US;;WO</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;CA;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>JP;;KR;;CN;;EP</t>
+  </si>
+  <si>
+    <t>JP;;US</t>
+  </si>
+  <si>
+    <t>CA;;AU;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;US;;TW</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;SG;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;SG;;WO</t>
+  </si>
+  <si>
+    <t>US;;CN;;DE;;JP;;WO;;GB</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>WO;;CA;;US;;EP</t>
+  </si>
+  <si>
+    <t>WO;;CA;;KR;;US</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP;;TW</t>
+  </si>
+  <si>
+    <t>KR;;AU;;EP;;US;;CA;;WO</t>
+  </si>
+  <si>
+    <t>WO;;KR;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;US;;EP;;TW;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>WO;;CN;;US;;EP</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>EP;;TW;;CA;;SG;;WO;;GB</t>
+  </si>
+  <si>
+    <t>KR;;EP;;US;;CA;;CN;;JP</t>
+  </si>
+  <si>
+    <t>WO;;EP;;FR</t>
+  </si>
+  <si>
+    <t>US;;KR;;EP</t>
+  </si>
+  <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP</t>
-  </si>
-  <si>
-    <t>CN;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>JP;;US</t>
-  </si>
-  <si>
-    <t>EP;;CA;;KR;;AU</t>
-  </si>
-  <si>
-    <t>CN;;TW;;US</t>
-  </si>
-  <si>
-    <t>AU;;CA;;CN;;KR;;JP;;US;;WO;;EP;;SG</t>
-  </si>
-  <si>
-    <t>AU;;CN;;CA;;KR;;JP;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>RU;;AU;;CA;;CN;;KR;;IL;;TW;;JP;;WO;;US;;EP;;ZA</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;AU;;EP;;US;;WO;;SG;;JP</t>
-  </si>
-  <si>
-    <t>GB;;CN;;US;;WO;;JP;;DE</t>
-  </si>
-  <si>
-    <t>US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CN;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;AU;;EP;;US;;WO;;JP</t>
-  </si>
-  <si>
-    <t>CA;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>CA;;KR;;US;;WO</t>
-  </si>
-  <si>
-    <t>US;;WO;;EP;;TW</t>
-  </si>
-  <si>
-    <t>CA;;KR;;AU;;EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>CA;;US;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;US;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;WO;;JP;;TW</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>GB;;CA;;EP;;WO;;SG;;TW</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;EP;;US;;JP</t>
-  </si>
-  <si>
-    <t>FR;;WO;;EP</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;WO</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;WO;;JP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;EP;;US;;JP</t>
-  </si>
-  <si>
-    <t>CN;;CA;;KR;;EP;;JP</t>
-  </si>
-  <si>
-    <t>AU;;CA;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CN;;US;;TW</t>
-  </si>
-  <si>
-    <t>ZA;;CN;;CA;;KR;;AU;;EP;;US;;WO;;JP;;IL;;RU;;TW</t>
+    <t>KR;;US;;EP;;CN;;JP;;WO</t>
+  </si>
+  <si>
+    <t>KR;;US;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CA;;CN;;JP</t>
+  </si>
+  <si>
+    <t>JP;;CN;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CA;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>TW;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;AU;;IL;;EP;;US;;TW;;CA;;ZA;;CN;;JP;;RU;;WO</t>
   </si>
   <si>
     <t>GB</t>
@@ -592,40 +595,37 @@
     <t>RU</t>
   </si>
   <si>
-    <t>CA;;US;;AU</t>
-  </si>
-  <si>
-    <t>US;;IB</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
+    <t>CA;;AU;;US</t>
+  </si>
+  <si>
+    <t>IB;;US</t>
   </si>
   <si>
     <t>CA;;US</t>
   </si>
   <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
   </si>
   <si>
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;구글 엘엘씨;;GOOGLE INC;;NEVEN HARTMUT;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;国际商业机器公司</t>
+    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
+  </si>
+  <si>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
     <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
@@ -643,31 +643,31 @@
     <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
   </si>
   <si>
-    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
-  </si>
-  <si>
-    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
-  </si>
-  <si>
-    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J</t>
+  </si>
+  <si>
+    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
   </si>
   <si>
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
@@ -679,19 +679,16 @@
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
-    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
-    <t>UNIV SOUTHEAST;;东南大学</t>
-  </si>
-  <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+    <t>东南大学;;UNIV SOUTHEAST</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
   </si>
   <si>
     <t>株式会社日立製作所;;HITACHI LTD</t>
@@ -700,166 +697,163 @@
     <t>한양대학교 산학협력단;;IUCF HYU</t>
   </si>
   <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE INC;;NEVEN HARTMUT;;GOOGLE LLC;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO</t>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー</t>
+  </si>
+  <si>
+    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
   </si>
   <si>
     <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
   </si>
   <si>
-    <t>NEVEN HELMUT;;ラミ・バレントス;;FARHI EDWARD HENRY;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;바엔즈 라미;;NEVEN HARTMUT;;ライアン・バブシュ;;ハルトムート・ネーヴェン;;BARENDS RAMI;;NIU YUEZHEN;;BABBUSH RYAN</t>
-  </si>
-  <si>
-    <t>DOUGLAS TEMPLETON MCCLURE III;;ANDO TAKASHI;;J·加姆贝塔;;LIU PENG;;BISHOP LEV SAMUEL;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;ガンベッタ、ジェイ;;PHAN ANNA;;MATTHIAS STEFFEN;;GAMBETTA JAY M;;PRZYBYLSKI KEVIN J;;MCCLURE III DOUGLAS T;;REZNICEK ALEXANDER;;DIAL OLIVER;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE;;LEE CHOONGHYUN;;KUCZYNSKI JOSEPH;;JAVADIABHARI ALI;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;OLIVADESE SALVATORE BERNARDO;;CORCOLES-GONZALEZ ANTONIO;;MCCLURE III DOUGLAS TEMPLETON;;MISGEN MARVIN M;;PISTOIA MARCO;;NANNICINI GIACOMO;;PHAN ANNA T;;STEFFEN MATTHIAS;;JAY GAMBETTA;;OLIVER DIAL;;CHEN RICHARD;;TEMME PAUL KRISTAN;;マクルーア ザ サード、ダグラス、テンプルトン;;ダイアル、オリバー;;M·斯蒂芬;;GREENBERG DON;;D·T·麦克鲁尔三世;;O·蒂亚尔;;GAMBETTA JAY;;BISHOP LEV;;TEMME PAUL</t>
-  </si>
-  <si>
-    <t>SMITH ROBERT STANLEY;;SETE EYOB;;ZENG WILLIAM J;;DAVIS ERIK JOSEPH;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;ALAM MUHAMMAD SOHAIB;;ZENG WILLIAM;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;JONES GLENN;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;REAGOR MATTHEW J;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;JOHNSON BLAKE ROBERT</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;HENRY H ADAMSON;;ZHANG YANBO;;ZHU HUILONG;;RADAMSON HENRY H;;王桂磊;;亨利·H·阿达姆松;;朱正勇;;张严波;;ZHU ZHENGYONG</t>
-  </si>
-  <si>
-    <t>XUE YANBO;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ROLFE JASON;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;AMIN MOHAMMAD H S;;YARKONI SHEIR</t>
+    <t>NEVEN HELMUT;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
+  </si>
+  <si>
+    <t>LEE CHOONGHYUN;;TEMME PAUL;;NANNICINI GIACOMO;;GAMBETTA JAY M;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVADESE SALVATORE;;MATTHIAS STEFFEN;;KUCZYNSKI JOSEPH;;MARTIN FERNANDEZ FRANCISCO JOSE;;DIAL OLIVER;;CHEN RICHARD;;ガンベッタ、ジェイ;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;JAVADIABHARI ALI;;M·斯蒂芬;;OLIVER DIAL;;ダイアル、オリバー;;PHAN ANNA;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;STEFFEN MATTHIAS;;REZNICEK ALEXANDER;;DOUGLAS TEMPLETON MCCLURE III;;ステファン、マティアス;;LIU PENG;;BISHOP LEV;;D·T·麦克鲁尔三世;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;JAY GAMBETTA;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;BISHOP LEV SAMUEL</t>
+  </si>
+  <si>
+    <t>REAGOR MATTHEW J;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;DESAI ANAND;;DAVIS ERIK JOSEPH;;JONES GLENN;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;SETE EYOB;;CURTIS MICHAEL</t>
+  </si>
+  <si>
+    <t>朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;HENRY H ADAMSON;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
   </si>
   <si>
     <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
   </si>
   <si>
-    <t>EVANS RUFFIN E;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;CHOI SOONWON;;ZHOU LEO;;ZHOU LEO XIANGYU;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR;;LUKIN MIKHAIL D;;SUKACHEV DENIS D;;WANG SHENGTAO;;PICHLER HANNES;;EVANS RUFFIN;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;NGUYEN CHRISTIAN</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT A;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;CROSHAW JEREMIAH;;VINE WYATT;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT;;DIENEL THOMAS</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR;;YAROSLAVSKY IGOR YEHUDA</t>
-  </si>
-  <si>
-    <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW;;MASILAMANI ASHOK;;GOULD MATTHEW V;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;PARK HYUNJUN</t>
-  </si>
-  <si>
-    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+    <t>SIPAHIGIL ALP;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;EVANS RUFFIN E;;EVANS RUFFIN;;CHOI SOONWON;;SUKACHEV DENIS D;;PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS;;BHASKAR MIHIR;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN</t>
+  </si>
+  <si>
+    <t>DIENEL THOMAS;;WALUS KONRAD;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WOLKOW ROBERT A;;RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS CONRAD;;VINE WYATT</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM</t>
+  </si>
+  <si>
+    <t>GOULD MATTHEW;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V</t>
+  </si>
+  <si>
+    <t>PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>LIM DOO-HYEOK;;CHO JIN SUN;;KIM SANG SIG;;WOO SOL A;;PARK YOUNG SOO;;PARK YOUNG-SOO;;CHO JIN-SUN;;WOO SOL-A;;SOHN IL KWON;;HEO JUN;;CHO KYOUNG-AH;;KIM SANG-SIK;;LIM DOO HYEOK;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;GUHA JOYDEEP;;ダウガティ・ジョン;;バヘディ・バヘド;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN</t>
-  </si>
-  <si>
-    <t>GAMBLE IV JOHN KING;;W·陈;;K·施特劳斯;;STRAUSS KARIN;;GAMBLE JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;GRASS ROBERT;;A·X·C·科尔;;WIEBE NATHAN O;;R·格拉斯</t>
-  </si>
-  <si>
-    <t>NAGLER ACHIYA;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;SUCHOWSKI HAIM</t>
+    <t>WOO SOL A;;WOO SOL-A;;PARK YOUNG SOO;;CHO KYOUNG-AH;;HEO JUN;;LIM DOO-HYEOK;;KIM SANG SIG;;CHO KYOUNG AH;;CHO JIN SUN;;PARK YOUNG-SOO;;CHO JIN-SUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO HYEOK</t>
+  </si>
+  <si>
+    <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;VAHEDI VAHID;;バヘディ・バヘド;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン</t>
+  </si>
+  <si>
+    <t>WIEBE NATHAN O;;STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GAMBLE IV JOHN KING;;GRASS ROBERT;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;MALKIEL ITZIK;;ARIELI URI;;WOLF LIOR</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;CAO YUDONG</t>
   </si>
   <si>
     <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
   </si>
   <si>
-    <t>PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID;;SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
-  </si>
-  <si>
-    <t>MCFARLAND KIRSTY;;HUANG HAIYAO;;MARKOVIC STACEY;;MAGYAR ANDREW;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;FRANK IAN;;ROSENBERGER ERIN;;SPRACHMAN MELISSA;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;DUBAY RYAN;;FAVALORA GREGG;;FRANK IAN WARD;;BYRNES STEVEN;;VARGO EMMA;;MAGYAR ANDREW P;;DUBAY RYAN A</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;ROLFE JASON;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
-  </si>
-  <si>
-    <t>LIANG RENRONG;;ZHAO LINYUAN;;LIU YU;;XU JUN</t>
+    <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
+  </si>
+  <si>
+    <t>MAGYAR ANDREW;;KOTZ KENNETH;;ROSENBERGER ERIN;;BYRNES STEVEN J;;KOTZ KENNETH T;;FAVALORA GREGG E;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;SPRACHMAN MELISSA M;;HUANG HAIYAO;;FAVALORA GREGG;;FRANK IAN;;DUBAY RYAN;;SPRACHMAN MELISSA;;DUBAY RYAN A;;BYRNES STEVEN;;FRANK IAN WARD;;CAVANAGH PETER;;VARGO EMMA;;MARKOVIC STACEY</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;STAKENBORG TIM;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;CAI QING;;FAUVART MAARTEN</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
   </si>
   <si>
     <t>TRESP VOLKER;;MA YUNPU</t>
   </si>
   <si>
-    <t>CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG</t>
+    <t>CHOI YONG SOO;;LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG-SOO</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
   </si>
   <si>
-    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
+    <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
   </si>
   <si>
     <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
   </si>
   <si>
-    <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
-  </si>
-  <si>
-    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
-  </si>
-  <si>
-    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
-  </si>
-  <si>
-    <t>WANG ZEHONG;;CHEN YIXIANG;;WANG WEI;;YU DAN</t>
-  </si>
-  <si>
-    <t>YANG JIANHUA;;MCLEAN MARK;;XIA QIANGFEI;;WU QING</t>
-  </si>
-  <si>
-    <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
-  </si>
-  <si>
-    <t>WANG YUNBO;;ZHU YU;;CHENG RUNHONG;;GAO JUNXIONG;;ZHOU WENLI;;WU SHUO;;CHEN CHANGSHENG</t>
-  </si>
-  <si>
-    <t>KONDASH COREY R;;SLINKER KEITH;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;REICH GREGORY W;;DICKINSON BENJAMIN T</t>
-  </si>
-  <si>
-    <t>Huilong Zhu;;Zhengyong Zhu</t>
+    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+  </si>
+  <si>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF</t>
+  </si>
+  <si>
+    <t>WANG ZEHONG;;WANG WEI;;CHEN YIXIANG;;YU DAN</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
+  </si>
+  <si>
+    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>WANG YUNBO;;ZHOU WENLI;;ZHU YU;;CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;GAO JUNXIONG</t>
+  </si>
+  <si>
+    <t>BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;REICH GREGORY W</t>
+  </si>
+  <si>
+    <t>Zhengyong Zhu;;Huilong Zhu</t>
   </si>
   <si>
     <t>TAN WEE CHONG;;ANG KAH-WEE</t>
@@ -868,10 +862,10 @@
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>WANG GANG;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;KOUL RAMAN</t>
+    <t>CORBO CLAUDIA;;FAROKHZAD OMID;;MAHMOUDI MORTEZA</t>
+  </si>
+  <si>
+    <t>KOUL RAMAN;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;BHAT SUMRITA;;WANG GANG;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -880,79 +874,73 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
+    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
     <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
   </si>
   <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
-  </si>
-  <si>
-    <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+  </si>
+  <si>
+    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン</t>
-  </si>
-  <si>
-    <t>GU DE'EN;;钟豪;;CHEN YICHENG;;蒋亚东;;LI WEI;;李东阳;;李伟;;ZHONG HAO;;顾德恩;;GU DEEN;;LI DONGYANG;;陈奕丞;;JIANG YADONG</t>
+    <t>ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;フォスナー ショーン;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>JIANG YADONG;;顾德恩;;GU DEEN;;钟豪;;ZHONG HAO;;陈奕丞;;LI DONGYANG;;CHEN YICHENG;;GU DE'EN;;蒋亚东;;LI WEI;;李伟;;李东阳</t>
   </si>
   <si>
     <t>JIANG WEINAN;;YU XING</t>
   </si>
   <si>
-    <t>정용호;;최정우;;CHOI JEONG WOO;;CHUNG YONG HO</t>
-  </si>
-  <si>
-    <t>신현동;;SHIN HYUN DONG;;파쿼 아마드;;정영민;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
-  </si>
-  <si>
-    <t>ZHANG HUI;;李源;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;XING YAN</t>
-  </si>
-  <si>
-    <t>W·陈;;K·施特劳斯;;STRAUSS KARIN;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;A·X·C·科尔;;R·格拉斯</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ</t>
+    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;SHIN HYUN DONG;;신현동</t>
+  </si>
+  <si>
+    <t>XING YAN;;幸研;;张辉;;李源;;ZHANG HUI;;张晋;;ZHANG JIN;;LI YUAN</t>
+  </si>
+  <si>
+    <t>STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;A·X·C·科尔;;K·施特劳斯;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
   </si>
   <si>
     <t>新海 剛;;SHINKAI GOU</t>
   </si>
   <si>
-    <t>하키우;;KIM JIN BAE;;김진배;;YOON TAE HYUN;;HA KIEU MY;;TRINH XUAN TUNG;;트린수안텅;;윤태현</t>
+    <t>YOON TAE HYUN;;하키우;;HA KIEU MY;;김진배;;윤태현;;트린수안텅;;TRINH XUAN TUNG;;KIM JIN BAE</t>
   </si>
   <si>
     <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
   </si>
   <si>
-    <t>MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+    <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
     <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>ラミ・バレントス;;BARENDS RAMI;;바엔즈 라미</t>
   </si>
   <si>
-    <t>BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;NIU YUEZHEN</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1440,7 @@
         <v>198</v>
       </c>
       <c r="R2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1505,7 +1493,7 @@
         <v>0.9426490861574633</v>
       </c>
       <c r="F3">
-        <v>0.9763528843592768</v>
+        <v>0.9763528843592769</v>
       </c>
       <c r="G3">
         <v>1.611316708653388</v>
@@ -1523,13 +1511,13 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3">
         <v>0.8333333333333336</v>
       </c>
       <c r="N3">
-        <v>5.833333333333334</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1541,7 +1529,7 @@
         <v>199</v>
       </c>
       <c r="R3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1612,7 +1600,7 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1630,7 +1618,7 @@
         <v>200</v>
       </c>
       <c r="R4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1719,7 +1707,7 @@
         <v>201</v>
       </c>
       <c r="R5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1808,7 +1796,7 @@
         <v>202</v>
       </c>
       <c r="R6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1897,7 +1885,7 @@
         <v>203</v>
       </c>
       <c r="R7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1968,7 +1956,7 @@
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1986,7 +1974,7 @@
         <v>204</v>
       </c>
       <c r="R8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2069,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2152,7 +2140,7 @@
         <v>205</v>
       </c>
       <c r="R10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2241,7 +2229,7 @@
         <v>206</v>
       </c>
       <c r="R11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2306,7 +2294,7 @@
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2324,7 +2312,7 @@
         <v>207</v>
       </c>
       <c r="R12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2407,7 +2395,7 @@
         <v>208</v>
       </c>
       <c r="R13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2496,7 +2484,7 @@
         <v>209</v>
       </c>
       <c r="R14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2644,7 +2632,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2668,7 +2656,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2733,7 +2721,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2757,7 +2745,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2822,7 +2810,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2846,7 +2834,7 @@
         <v>210</v>
       </c>
       <c r="R18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2896,7 +2884,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>1.047526829268292</v>
+        <v>1.047526829268293</v>
       </c>
       <c r="H19">
         <v>4.666666666666667</v>
@@ -2905,7 +2893,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2929,7 +2917,7 @@
         <v>211</v>
       </c>
       <c r="R19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2991,7 +2979,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J20" t="s">
         <v>139</v>
@@ -3018,7 +3006,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3107,7 +3095,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3163,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
         <v>139</v>
@@ -3190,7 +3178,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3273,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3335,16 +3323,16 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J24" t="s">
         <v>174</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3362,7 +3350,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3451,7 +3439,7 @@
         <v>212</v>
       </c>
       <c r="R25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3513,7 +3501,7 @@
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
         <v>139</v>
@@ -3540,7 +3528,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3608,7 +3596,7 @@
         <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
         <v>197</v>
@@ -3629,7 +3617,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3685,7 +3673,7 @@
         <v>10.5</v>
       </c>
       <c r="I28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
         <v>139</v>
@@ -3712,7 +3700,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3774,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J29" t="s">
         <v>139</v>
@@ -3801,7 +3789,7 @@
         <v>213</v>
       </c>
       <c r="R29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3890,7 +3878,7 @@
         <v>214</v>
       </c>
       <c r="R30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3952,10 +3940,10 @@
         <v>177</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3973,7 +3961,7 @@
         <v>215</v>
       </c>
       <c r="R31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4056,7 +4044,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4139,7 +4127,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4222,7 +4210,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4305,7 +4293,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4394,7 +4382,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4483,7 +4471,7 @@
         <v>216</v>
       </c>
       <c r="R37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4566,7 +4554,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4649,7 +4637,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4732,7 +4720,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4815,7 +4803,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4883,10 +4871,10 @@
         <v>136</v>
       </c>
       <c r="K42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4904,7 +4892,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4987,7 +4975,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5070,7 +5058,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5153,7 +5141,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5236,7 +5224,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5319,7 +5307,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5402,7 +5390,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5464,10 +5452,10 @@
         <v>136</v>
       </c>
       <c r="K49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5485,7 +5473,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5568,7 +5556,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5657,7 +5645,7 @@
         <v>216</v>
       </c>
       <c r="R51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5740,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5823,7 +5811,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5885,10 +5873,10 @@
         <v>148</v>
       </c>
       <c r="K54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5906,7 +5894,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5989,7 +5977,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6072,7 +6060,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6155,7 +6143,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6238,7 +6226,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6327,7 +6315,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6410,7 +6398,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6478,10 +6466,10 @@
         <v>179</v>
       </c>
       <c r="K61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6499,7 +6487,7 @@
         <v>217</v>
       </c>
       <c r="R61" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6588,7 +6576,7 @@
         <v>218</v>
       </c>
       <c r="R62" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6671,7 +6659,7 @@
         <v>219</v>
       </c>
       <c r="R63" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6760,7 +6748,7 @@
         <v>220</v>
       </c>
       <c r="R64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6843,7 +6831,7 @@
         <v>221</v>
       </c>
       <c r="R65" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6911,10 +6899,10 @@
         <v>180</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6932,7 +6920,7 @@
         <v>222</v>
       </c>
       <c r="R66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7021,7 +7009,7 @@
         <v>223</v>
       </c>
       <c r="R67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7101,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="R68" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7190,10 +7178,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R69" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7282,7 +7270,7 @@
         <v>223</v>
       </c>
       <c r="R70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7341,7 +7329,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7365,7 +7353,7 @@
         <v>210</v>
       </c>
       <c r="R71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7454,7 +7442,7 @@
         <v>220</v>
       </c>
       <c r="R72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7516,10 +7504,10 @@
         <v>155</v>
       </c>
       <c r="K73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7534,10 +7522,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R73" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7623,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7709,7 +7697,7 @@
         <v>221</v>
       </c>
       <c r="R75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7795,10 +7783,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R76" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7887,7 +7875,7 @@
         <v>218</v>
       </c>
       <c r="R77" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7946,7 +7934,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7970,7 +7958,7 @@
         <v>208</v>
       </c>
       <c r="R78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8029,7 +8017,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8050,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8112,7 +8100,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8133,10 +8121,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R80" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8198,10 +8186,10 @@
         <v>155</v>
       </c>
       <c r="K81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8216,10 +8204,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R81" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8302,7 +8290,7 @@
         <v>219</v>
       </c>
       <c r="R82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8367,13 +8355,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8388,10 +8376,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R83" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8456,13 +8444,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8477,10 +8465,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R84" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8542,10 +8530,10 @@
         <v>173</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8563,7 +8551,7 @@
         <v>215</v>
       </c>
       <c r="R85" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8625,10 +8613,10 @@
         <v>173</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8646,7 +8634,7 @@
         <v>215</v>
       </c>
       <c r="R86" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8708,10 +8696,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8726,10 +8714,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R87" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8797,10 +8785,10 @@
         <v>136</v>
       </c>
       <c r="K88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8815,10 +8803,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8886,10 +8874,10 @@
         <v>136</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8904,10 +8892,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R89" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8969,10 +8957,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8987,10 +8975,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="R90" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9058,10 +9046,10 @@
         <v>136</v>
       </c>
       <c r="K91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9076,10 +9064,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9165,10 +9153,10 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R92" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9257,7 +9245,7 @@
         <v>209</v>
       </c>
       <c r="R93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9346,7 +9334,7 @@
         <v>209</v>
       </c>
       <c r="R94" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9435,7 +9423,7 @@
         <v>209</v>
       </c>
       <c r="R95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9524,7 +9512,7 @@
         <v>209</v>
       </c>
       <c r="R96" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9613,7 +9601,7 @@
         <v>209</v>
       </c>
       <c r="R97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9693,10 +9681,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R98" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9776,10 +9764,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R99" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9844,13 +9832,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9865,10 +9853,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R100" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9933,13 +9921,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9954,10 +9942,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R101" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10022,13 +10010,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L102" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10043,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R102" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10126,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R103" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10209,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R104" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10277,13 +10265,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10298,10 +10286,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R105" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10366,13 +10354,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L106" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10387,10 +10375,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R106" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="313">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -106,12 +106,12 @@
     <t>Equal1 Labs Inc</t>
   </si>
   <si>
+    <t>Ibm</t>
+  </si>
+  <si>
     <t>Google Llc</t>
   </si>
   <si>
-    <t>Ibm</t>
-  </si>
-  <si>
     <t>Rigetti &amp; Co Inc</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>US</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>AU;;US</t>
   </si>
   <si>
-    <t>WO</t>
-  </si>
-  <si>
     <t>WO;;CA;;US</t>
   </si>
   <si>
@@ -499,79 +499,82 @@
     <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
   </si>
   <si>
-    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;SG;;WO</t>
-  </si>
-  <si>
-    <t>US;;CN;;DE;;JP;;WO;;GB</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP</t>
-  </si>
-  <si>
-    <t>WO;;US;;CN;;EP</t>
-  </si>
-  <si>
-    <t>KR;;AU;;EP;;US;;CA;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>WO;;CA;;US;;EP</t>
-  </si>
-  <si>
-    <t>WO;;CA;;KR;;US</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP;;TW</t>
-  </si>
-  <si>
-    <t>KR;;AU;;EP;;US;;CA;;WO</t>
-  </si>
-  <si>
-    <t>WO;;KR;;CN;;US</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP;;TW;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>WO;;CN;;US;;EP</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>EP;;TW;;CA;;SG;;WO;;GB</t>
-  </si>
-  <si>
-    <t>KR;;EP;;US;;CA;;CN;;JP</t>
-  </si>
-  <si>
-    <t>WO;;EP;;FR</t>
-  </si>
-  <si>
-    <t>US;;KR;;EP</t>
+    <t>JP;;WO;;GB;;US;;DE;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;AU;;EP;;US;;KR;;SG;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>US;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;AU;;EP;;US;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>US;;KR;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;TW</t>
+  </si>
+  <si>
+    <t>WO;;AU;;EP;;US;;KR;;CA</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>JP;;WO;;TW;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>WO;;GB;;TW;;EP;;SG;;CA</t>
+  </si>
+  <si>
+    <t>JP;;EP;;US;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>KR;;US;;EP;;CN;;JP;;WO</t>
-  </si>
-  <si>
-    <t>KR;;US;;EP;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CA;;CN;;JP</t>
-  </si>
-  <si>
-    <t>JP;;CN;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CA;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>TW;;CN;;US</t>
-  </si>
-  <si>
-    <t>KR;;AU;;IL;;EP;;US;;TW;;CA;;ZA;;CN;;JP;;RU;;WO</t>
+    <t>JP;;US;;CN</t>
+  </si>
+  <si>
+    <t>JP;;WO;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>JP;;EP;;US;;KR;;CN</t>
+  </si>
+  <si>
+    <t>EP;;CN</t>
+  </si>
+  <si>
+    <t>JP;;EP;;KR;;CA;;CN</t>
+  </si>
+  <si>
+    <t>EP;;JP;;KR;;CN</t>
+  </si>
+  <si>
+    <t>EP;;KR;;AU;;CA</t>
+  </si>
+  <si>
+    <t>US;;TW;;CN</t>
+  </si>
+  <si>
+    <t>IL;;JP;;WO;;AU;;RU;;TW;;EP;;US;;KR;;CA;;ZA;;CN</t>
   </si>
   <si>
     <t>GB</t>
@@ -595,16 +598,19 @@
     <t>RU</t>
   </si>
   <si>
-    <t>CA;;AU;;US</t>
-  </si>
-  <si>
-    <t>IB;;US</t>
-  </si>
-  <si>
-    <t>CA;;US</t>
-  </si>
-  <si>
-    <t>US;;IL</t>
+    <t>US;;IB</t>
+  </si>
+  <si>
+    <t>US;;AU;;CA</t>
+  </si>
+  <si>
+    <t>US;;AU</t>
+  </si>
+  <si>
+    <t>US;;CA</t>
+  </si>
+  <si>
+    <t>IL;;US</t>
   </si>
   <si>
     <t>EP;;FR</t>
@@ -613,22 +619,22 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
+    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
-  </si>
-  <si>
-    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
   </si>
   <si>
     <t>QUANTUM SILICON INC</t>
@@ -640,37 +646,37 @@
     <t>STRATUSCENT INC</t>
   </si>
   <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;DUNST MICHAEL J</t>
-  </si>
-  <si>
-    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
-  </si>
-  <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
-  </si>
-  <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+  </si>
+  <si>
+    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+  </si>
+  <si>
+    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
   </si>
   <si>
     <t>DODO OMNIDATA INC;;IRIDIA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW;;UNIV LEUVEN KATH</t>
-  </si>
-  <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
+  </si>
+  <si>
+    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
   </si>
   <si>
     <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
@@ -679,7 +685,7 @@
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
-    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
@@ -694,82 +700,85 @@
     <t>株式会社日立製作所;;HITACHI LTD</t>
   </si>
   <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>GOOGLE INC;;ラミ・バレントス;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;グーグル エルエルシー</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
-  </si>
-  <si>
-    <t>NEVEN HELMUT;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;바엔즈 라미;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ</t>
-  </si>
-  <si>
-    <t>LEE CHOONGHYUN;;TEMME PAUL;;NANNICINI GIACOMO;;GAMBETTA JAY M;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVADESE SALVATORE;;MATTHIAS STEFFEN;;KUCZYNSKI JOSEPH;;MARTIN FERNANDEZ FRANCISCO JOSE;;DIAL OLIVER;;CHEN RICHARD;;ガンベッタ、ジェイ;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ANDO TAKASHI;;ZHANG JINGYUN;;MCCLURE III DOUGLAS TEMPLETON;;O·蒂亚尔;;GAMBETTA JAY;;OLIVADESE SALVATORE BERNARDO;;PHAN ANNA T;;TEMME PAUL KRISTAN;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;JAVADIABHARI ALI;;M·斯蒂芬;;OLIVER DIAL;;ダイアル、オリバー;;PHAN ANNA;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;STEFFEN MATTHIAS;;REZNICEK ALEXANDER;;DOUGLAS TEMPLETON MCCLURE III;;ステファン、マティアス;;LIU PENG;;BISHOP LEV;;D·T·麦克鲁尔三世;;GREENBERG DON;;CORCOLES-GONZALEZ ANTONIO;;JAY GAMBETTA;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;BISHOP LEV SAMUEL</t>
-  </si>
-  <si>
-    <t>REAGOR MATTHEW J;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;DESAI ANAND;;DAVIS ERIK JOSEPH;;JONES GLENN;;SETE EYOB A;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL J;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;OSBORN CHRISTOPHER BUTLER;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;SETE EYOB;;CURTIS MICHAEL</t>
-  </si>
-  <si>
-    <t>朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;HENRY H ADAMSON;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;王桂磊;;张严波;;朱慧珑;;ZHU ZHENGYONG</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;BOOTHBY KELLY T R;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
-  </si>
-  <si>
-    <t>SIPAHIGIL ALP;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO;;EVANS RUFFIN E;;EVANS RUFFIN;;CHOI SOONWON;;SUKACHEV DENIS D;;PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS;;BHASKAR MIHIR;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN</t>
-  </si>
-  <si>
-    <t>DIENEL THOMAS;;WALUS KONRAD;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WOLKOW ROBERT A;;RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS CONRAD;;VINE WYATT</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM</t>
-  </si>
-  <si>
-    <t>GOULD MATTHEW;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V</t>
-  </si>
-  <si>
-    <t>PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+    <t>IUCF HYU;;한양대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;M·斯蒂芬;;GREENBERG DON;;OLIVADESE SALVATORE;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;J·加姆贝塔;;JAVADIABHARI ALI;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;LEE CHOONGHYUN;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;HEKMATSHOARTABARI BAHMAN;;OLIVADESE SALVATORE BERNARDO;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MARTIN FERNANDEZ FRANCISCO JOSE;;BISHOP LEV;;ZHANG JINGYUN;;DOUGLAS TEMPLETON MCCLURE III;;STEFFEN MATTHIAS;;ガンベッタ、ジェイ;;GAMBETTA JAY;;BISHOP LEV SAMUEL;;PHAN ANNA;;TEMME PAUL;;PRISCO JOSEPH F;;MATTHIAS STEFFEN;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;CHEN RICHARD;;OLIVER DIAL;;GAMBETTA JAY M;;ダイアル、オリバー;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRZYBYLSKI KEVIN J;;NANNICINI GIACOMO;;LIU PENG</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;바엔즈 라미;;ライアン・バブシュ;;NIU YUEZHEN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>LYNCH ADAM DAVID;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SETE EYOB A;;KARALEKAS PETER JONATHAN;;HEIDEL STEVEN;;ZENG WILLIAM J;;RIGETTI CHAD TYLER;;RUST MICHAEL;;OSBORN CHRISTOPHER BUTLER;;CURTIS MICHAEL J;;JONES GLENN;;TEZAK NIKOLAS ANTON;;DESAI ANAND;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;JOHNSON BLAKE ROBERT;;SETE EYOB</t>
+  </si>
+  <si>
+    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
+  </si>
+  <si>
+    <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;EVANS RUFFIN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;ZHOU LEO;;EVANS RUFFIN E;;SUKACHEV DENIS D;;BHASKAR MIHIR;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;WANG SHENGTAO;;PICHLER HANNES;;NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
+  </si>
+  <si>
+    <t>WALUS CONRAD;;WOLKOW ROBERT;;WALUS KONRAD;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;WOLKOW ROBERT A</t>
+  </si>
+  <si>
+    <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
+  </si>
+  <si>
+    <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW;;GOULD MATTHEW V;;GAHROOSI AMIR</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>WOO SOL A;;WOO SOL-A;;PARK YOUNG SOO;;CHO KYOUNG-AH;;HEO JUN;;LIM DOO-HYEOK;;KIM SANG SIG;;CHO KYOUNG AH;;CHO JIN SUN;;PARK YOUNG-SOO;;CHO JIN-SUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO HYEOK</t>
-  </si>
-  <si>
-    <t>GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;VAHEDI VAHID;;バヘディ・バヘド;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン</t>
-  </si>
-  <si>
-    <t>WIEBE NATHAN O;;STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GAMBLE IV JOHN KING;;GRASS ROBERT;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
-  </si>
-  <si>
-    <t>NAGLER ACHIYA;;SUCHOWSKI HAIM;;MREJEN MICHAEL;;MALKIEL ITZIK;;ARIELI URI;;WOLF LIOR</t>
+    <t>HEO JUN;;WOO SOL A;;CHO KYOUNG AH;;CHO JIN SUN;;CHO KYOUNG-AH;;CHO JIN-SUN;;LIM DOO HYEOK;;WOO SOL-A;;KIM SANG SIG;;SOHN IL KWON;;PARK YOUNG-SOO;;LIM DOO-HYEOK;;KIM SANG-SIK;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;バヘディ・バヘド;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
+  </si>
+  <si>
+    <t>GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;GAMBLE IV JOHN KING;;K·施特劳斯;;WIEBE NATHAN O;;CHEN WEIDA;;B·H·阮;;A·X·C·科尔;;W·陈;;GAMBLE JOHN KING;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+  </si>
+  <si>
+    <t>MALKIEL ITZIK;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
@@ -778,94 +787,94 @@
     <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
   </si>
   <si>
-    <t>KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;CAO YUDONG</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ</t>
+    <t>GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;CAO YUDONG;;JOHNSON PETER D</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ;;PREDKI PAUL F</t>
   </si>
   <si>
     <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
   </si>
   <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>MAGYAR ANDREW;;KOTZ KENNETH;;ROSENBERGER ERIN;;BYRNES STEVEN J;;KOTZ KENNETH T;;FAVALORA GREGG E;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;SPRACHMAN MELISSA M;;HUANG HAIYAO;;FAVALORA GREGG;;FRANK IAN;;DUBAY RYAN;;SPRACHMAN MELISSA;;DUBAY RYAN A;;BYRNES STEVEN;;FRANK IAN WARD;;CAVANAGH PETER;;VARGO EMMA;;MARKOVIC STACEY</t>
+    <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+  </si>
+  <si>
+    <t>HUANG HAIYAO;;DUBAY RYAN;;MAGYAR ANDREW P;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;MARKOVIC STACEY;;FRANK IAN;;MCFARLAND KIRSTY A;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;FAVALORA GREGG;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;FAVALORA GREGG E;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH</t>
   </si>
   <si>
     <t>CASSIDY MAJA;;PREDKI PAUL F</t>
   </si>
   <si>
-    <t>ROLFE JASON;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;YARKONI SHEIR;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;STAKENBORG TIM;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;CAI QING;;FAUVART MAARTEN</t>
-  </si>
-  <si>
-    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
+  </si>
+  <si>
+    <t>CAI QING;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COVENS KRIS;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN;;CHEN CHANG</t>
+  </si>
+  <si>
+    <t>LIU YU;;XU JUN;;ZHAO LINYUAN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
+    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
   </si>
   <si>
     <t>TRESP VOLKER;;MA YUNPU</t>
   </si>
   <si>
-    <t>CHOI YONG SOO;;LEE HYUNG DONG;;LEE HYUNG-DONG;;HEO KEUN;;CHOI YONG-SOO</t>
+    <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;CHOI YONG SOO;;LEE HYUNG-DONG</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
   </si>
   <si>
-    <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
-  </si>
-  <si>
-    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
-  </si>
-  <si>
-    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
-  </si>
-  <si>
-    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
-  </si>
-  <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF</t>
-  </si>
-  <si>
-    <t>WANG ZEHONG;;WANG WEI;;CHEN YIXIANG;;YU DAN</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
+    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+  </si>
+  <si>
+    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+  </si>
+  <si>
+    <t>DIEZ STEFAN;;TAKATSUKI HIDEYO;;KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>WANG WEI;;WANG ZEHONG;;YU DAN;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK;;WU QING</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>WANG YUNBO;;ZHOU WENLI;;ZHU YU;;CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;GAO JUNXIONG</t>
-  </si>
-  <si>
-    <t>BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;REICH GREGORY W</t>
+    <t>WANG YUNBO;;CHEN CHANGSHENG;;GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;WU SHUO;;CHENG RUNHONG</t>
+  </si>
+  <si>
+    <t>DICKINSON BENJAMIN T;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;KONDASH COREY R;;SLINKER KEITH</t>
   </si>
   <si>
     <t>Zhengyong Zhu;;Huilong Zhu</t>
   </si>
   <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>CORBO CLAUDIA;;FAROKHZAD OMID;;MAHMOUDI MORTEZA</t>
-  </si>
-  <si>
-    <t>KOUL RAMAN;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;BHAT SUMRITA;;WANG GANG;;WANG GANG (A K A JOSEPH)</t>
+    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>WANG GANG (A K A JOSEPH);;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -874,70 +883,73 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
-  </si>
-  <si>
-    <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
-  </si>
-  <si>
-    <t>ZHANG XIANGCHENG;;WU JIAN</t>
-  </si>
-  <si>
-    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
+    <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
+  </si>
+  <si>
+    <t>GABRYS RYAN;;MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI</t>
+  </si>
+  <si>
+    <t>WU JIAN;;ZHANG XIANGCHENG</t>
+  </si>
+  <si>
+    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;フォスナー ショーン;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>JIANG YADONG;;顾德恩;;GU DEEN;;钟豪;;ZHONG HAO;;陈奕丞;;LI DONGYANG;;CHEN YICHENG;;GU DE'EN;;蒋亚东;;LI WEI;;李伟;;李东阳</t>
+    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>陈奕丞;;JIANG YADONG;;GU DEEN;;LI WEI;;ZHONG HAO;;顾德恩;;钟豪;;蒋亚东;;李东阳;;LI DONGYANG;;李伟;;GU DE'EN;;CHEN YICHENG</t>
   </si>
   <si>
     <t>JIANG WEINAN;;YU XING</t>
   </si>
   <si>
-    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;SHIN HYUN DONG;;신현동</t>
-  </si>
-  <si>
-    <t>XING YAN;;幸研;;张辉;;李源;;ZHANG HUI;;张晋;;ZHANG JIN;;LI YUAN</t>
-  </si>
-  <si>
-    <t>STRAUSS KARIN;;CHEN WEIDA;;R·格拉斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;A·X·C·科尔;;K·施特劳斯;;NGUYEN BICHLIEN HOANG;;B·H·阮</t>
-  </si>
-  <si>
-    <t>新海 剛;;SHINKAI GOU</t>
-  </si>
-  <si>
-    <t>YOON TAE HYUN;;하키우;;HA KIEU MY;;김진배;;윤태현;;트린수안텅;;TRINH XUAN TUNG;;KIM JIN BAE</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;ROQUET NATHANIEL;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;BARENDS RAMI;;바엔즈 라미</t>
-  </si>
-  <si>
-    <t>NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ</t>
+    <t>최정우;;CHUNG YONG HO;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>FAROOQ AHMAD;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드</t>
+  </si>
+  <si>
+    <t>李源;;XING YAN;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;ZHANG HUI</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;W·陈;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
+  </si>
+  <si>
+    <t>SHINKAI GOU;;新海 剛</t>
+  </si>
+  <si>
+    <t>하키우;;트린수안텅;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;TRINH XUAN TUNG;;KIM JIN BAE;;김진배</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO;;DOORNBOS GERBEN;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+  </si>
+  <si>
+    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
   </si>
   <si>
     <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
@@ -1416,7 +1428,7 @@
         <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
@@ -1437,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1481,28 +1493,28 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>15.26190476190476</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.9426490861574633</v>
+        <v>0.767296193239003</v>
       </c>
       <c r="F3">
-        <v>0.9763528843592769</v>
+        <v>0.9800699186991868</v>
       </c>
       <c r="G3">
-        <v>1.611316708653388</v>
+        <v>0.8395350735201745</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
         <v>161</v>
@@ -1511,58 +1523,58 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M3">
-        <v>0.8333333333333336</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.833333333333333</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R3" t="s">
+        <v>238</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
-        <v>199</v>
-      </c>
-      <c r="R3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>4.833333333333334</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>1.428571428571428</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1570,25 +1582,25 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>14.26190476190476</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.767296193239003</v>
+        <v>0.9426490861574633</v>
       </c>
       <c r="F4">
-        <v>0.9800699186991868</v>
+        <v>1.039920605637288</v>
       </c>
       <c r="G4">
-        <v>0.8395350735201745</v>
+        <v>1.611316708653388</v>
       </c>
       <c r="H4">
-        <v>3.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
         <v>134</v>
@@ -1600,58 +1612,58 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8333333333333336</v>
       </c>
       <c r="N4">
-        <v>4.999999999999999</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="U4">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>200</v>
-      </c>
-      <c r="R4" t="s">
-        <v>236</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>5.999999999999999</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>1.428571428571428</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1680,7 +1692,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" t="s">
         <v>163</v>
@@ -1704,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1772,13 +1784,13 @@
         <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
         <v>144</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1793,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1861,7 +1873,7 @@
         <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
         <v>134</v>
@@ -1882,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1947,16 +1959,16 @@
         <v>0.6</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1971,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2030,10 +2042,10 @@
         <v>4.25</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
         <v>134</v>
@@ -2057,7 +2069,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2113,16 +2125,16 @@
         <v>2.75</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2137,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2205,7 +2217,7 @@
         <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
         <v>134</v>
@@ -2226,10 +2238,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2288,7 +2300,7 @@
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
@@ -2309,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2371,7 +2383,7 @@
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
         <v>134</v>
@@ -2392,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2481,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2632,7 +2644,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2656,7 +2668,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2721,7 +2733,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2745,7 +2757,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2810,7 +2822,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2831,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2893,7 +2905,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2914,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2982,13 +2994,13 @@
         <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3006,7 +3018,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3071,7 +3083,7 @@
         <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
         <v>134</v>
@@ -3095,7 +3107,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3154,13 +3166,13 @@
         <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s">
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3178,7 +3190,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3234,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K23" t="s">
         <v>134</v>
@@ -3261,7 +3273,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3329,10 +3341,10 @@
         <v>174</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3350,7 +3362,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3436,10 +3448,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3504,7 +3516,7 @@
         <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3528,7 +3540,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3593,13 +3605,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3617,7 +3629,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3676,7 +3688,7 @@
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3700,7 +3712,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3765,7 +3777,7 @@
         <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3786,10 +3798,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3851,10 +3863,10 @@
         <v>4.5</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s">
         <v>134</v>
@@ -3875,10 +3887,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R30" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3937,13 +3949,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3958,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R31" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4044,7 +4056,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4100,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s">
         <v>134</v>
@@ -4127,7 +4139,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4210,7 +4222,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4293,7 +4305,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4358,7 +4370,7 @@
         <v>145</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K36" t="s">
         <v>150</v>
@@ -4382,7 +4394,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4447,7 +4459,7 @@
         <v>145</v>
       </c>
       <c r="J37" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K37" t="s">
         <v>150</v>
@@ -4468,10 +4480,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4554,7 +4566,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4637,7 +4649,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4720,7 +4732,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4776,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
         <v>134</v>
@@ -4803,7 +4815,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4865,16 +4877,16 @@
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4892,7 +4904,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4975,7 +4987,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5058,7 +5070,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5117,7 +5129,7 @@
         <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s">
         <v>144</v>
@@ -5141,7 +5153,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5224,7 +5236,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5307,7 +5319,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5390,7 +5402,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5446,16 +5458,16 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5473,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5556,7 +5568,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5621,7 +5633,7 @@
         <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K51" t="s">
         <v>150</v>
@@ -5642,10 +5654,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R51" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5728,7 +5740,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5787,7 +5799,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" t="s">
         <v>134</v>
@@ -5811,7 +5823,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5870,13 +5882,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5894,7 +5906,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5977,7 +5989,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6033,10 +6045,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s">
         <v>134</v>
@@ -6060,7 +6072,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6143,7 +6155,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6226,7 +6238,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6288,10 +6300,10 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K59" t="s">
         <v>134</v>
@@ -6315,7 +6327,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6371,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K60" t="s">
         <v>134</v>
@@ -6398,7 +6410,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6466,10 +6478,10 @@
         <v>179</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6484,10 +6496,10 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R61" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6552,7 +6564,7 @@
         <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s">
         <v>144</v>
@@ -6573,10 +6585,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R62" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6656,10 +6668,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R63" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6745,10 +6757,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R64" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6828,10 +6840,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R65" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6899,10 +6911,10 @@
         <v>180</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6917,10 +6929,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R66" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7006,10 +7018,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R67" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7068,7 +7080,7 @@
         <v>152</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="K68" t="s">
         <v>134</v>
@@ -7089,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7157,7 +7169,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7178,10 +7190,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7267,10 +7279,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="R70" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7329,7 +7341,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7350,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7439,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R72" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7504,10 +7516,10 @@
         <v>155</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7522,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R73" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7611,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R74" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7694,10 +7706,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R75" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7783,10 +7795,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R76" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7851,7 +7863,7 @@
         <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K77" t="s">
         <v>144</v>
@@ -7872,10 +7884,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R77" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7934,7 +7946,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7955,10 +7967,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R78" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8017,7 +8029,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8038,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R79" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8100,7 +8112,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8121,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R80" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8186,10 +8198,10 @@
         <v>155</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8204,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R81" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8287,10 +8299,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R82" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8355,13 +8367,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8376,10 +8388,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R83" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8444,13 +8456,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8465,10 +8477,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8527,13 +8539,13 @@
         <v>143</v>
       </c>
       <c r="J85" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8548,10 +8560,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="R85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8610,13 +8622,13 @@
         <v>143</v>
       </c>
       <c r="J86" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8631,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="R86" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8696,10 +8708,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8714,10 +8726,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R87" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8779,16 +8791,16 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8803,10 +8815,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R88" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8868,16 +8880,16 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8892,10 +8904,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R89" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8957,10 +8969,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8975,10 +8987,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R90" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9040,16 +9052,16 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9064,10 +9076,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R91" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9132,7 +9144,7 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K92" t="s">
         <v>134</v>
@@ -9153,10 +9165,10 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R92" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9242,10 +9254,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R93" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9331,10 +9343,10 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R94" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9420,10 +9432,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R95" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9509,10 +9521,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R96" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9598,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9660,7 +9672,7 @@
         <v>159</v>
       </c>
       <c r="J98" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K98" t="s">
         <v>134</v>
@@ -9681,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R98" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9743,7 +9755,7 @@
         <v>159</v>
       </c>
       <c r="J99" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K99" t="s">
         <v>134</v>
@@ -9764,10 +9776,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R99" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9832,13 +9844,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9853,10 +9865,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R100" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9921,13 +9933,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L101" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9942,10 +9954,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R101" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10010,13 +10022,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10031,10 +10043,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R102" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10093,7 +10105,7 @@
         <v>159</v>
       </c>
       <c r="J103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K103" t="s">
         <v>134</v>
@@ -10114,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R103" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10176,7 +10188,7 @@
         <v>159</v>
       </c>
       <c r="J104" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K104" t="s">
         <v>134</v>
@@ -10197,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R104" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10265,13 +10277,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10286,10 +10298,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R105" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10354,13 +10366,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L106" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10375,10 +10387,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R106" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="316">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -499,82 +499,91 @@
     <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
   </si>
   <si>
-    <t>JP;;WO;;GB;;US;;DE;;CN</t>
-  </si>
-  <si>
-    <t>JP;;WO;;AU;;EP;;US;;KR;;SG;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO</t>
+    <t>CN;;JP;;US;;WO;;GB;;DE</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU;;SG</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP</t>
   </si>
   <si>
     <t>US;;CN</t>
   </si>
   <si>
-    <t>EP;;US;;WO;;CN</t>
-  </si>
-  <si>
-    <t>JP;;WO;;AU;;EP;;US;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;CA</t>
+    <t>US;;CN;;EP;;WO</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU</t>
+  </si>
+  <si>
+    <t>WO;;US;;EP;;CA</t>
   </si>
   <si>
     <t>US;;KR;;WO;;CA</t>
   </si>
   <si>
-    <t>EP;;US;;WO;;TW</t>
-  </si>
-  <si>
-    <t>WO;;AU;;EP;;US;;KR;;CA</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;WO;;KR</t>
-  </si>
-  <si>
-    <t>JP;;WO;;TW;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>WO;;GB;;TW;;EP;;SG;;CA</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;US;;KR</t>
+    <t>WO;;US;;EP;;TW</t>
+  </si>
+  <si>
+    <t>CA;;EP;;WO;;US;;KR;;AU</t>
+  </si>
+  <si>
+    <t>WO;;US;;CA</t>
+  </si>
+  <si>
+    <t>US;;CN;;KR;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;EP;;TW;;WO;;US;;KR</t>
+  </si>
+  <si>
+    <t>WO;;US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>CA;;EP;;TW;;WO;;GB;;SG</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>WO;;FR;;EP</t>
+  </si>
+  <si>
+    <t>US;;EP;;KR</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>JP;;US;;CN</t>
-  </si>
-  <si>
-    <t>JP;;WO;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>JP;;EP;;US;;KR;;CN</t>
-  </si>
-  <si>
-    <t>EP;;CN</t>
-  </si>
-  <si>
-    <t>JP;;EP;;KR;;CA;;CN</t>
-  </si>
-  <si>
-    <t>EP;;JP;;KR;;CN</t>
-  </si>
-  <si>
-    <t>EP;;KR;;AU;;CA</t>
-  </si>
-  <si>
-    <t>US;;TW;;CN</t>
-  </si>
-  <si>
-    <t>IL;;JP;;WO;;AU;;RU;;TW;;EP;;US;;KR;;CA;;ZA;;CN</t>
+    <t>CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;JP;;EP;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>CN;;JP;;EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;EP;;KR</t>
+  </si>
+  <si>
+    <t>CN;;JP;;KR;;EP</t>
+  </si>
+  <si>
+    <t>US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;AU;;KR;;CA</t>
+  </si>
+  <si>
+    <t>US;;CN;;TW</t>
+  </si>
+  <si>
+    <t>RU;;ZA;;CA;;CN;;JP;;EP;;TW;;WO;;US;;KR;;IL;;AU</t>
   </si>
   <si>
     <t>GB</t>
@@ -610,31 +619,31 @@
     <t>US;;CA</t>
   </si>
   <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>EP;;FR</t>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>FR;;EP</t>
   </si>
   <si>
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス</t>
+    <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;SMELYANSKIY VADIM;;GOOGLE INC;;グーグル エルエルシー;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
+    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
   </si>
   <si>
     <t>QUANTUM SILICON INC</t>
@@ -646,10 +655,10 @@
     <t>STRATUSCENT INC</t>
   </si>
   <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
@@ -658,34 +667,34 @@
     <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
   </si>
   <si>
-    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;IMEC VZW</t>
-  </si>
-  <si>
-    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY</t>
+    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
+  </si>
+  <si>
+    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
   </si>
   <si>
-    <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
   </si>
   <si>
     <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
-    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
     <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
@@ -694,127 +703,124 @@
     <t>东南大学;;UNIV SOUTHEAST</t>
   </si>
   <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
-  </si>
-  <si>
-    <t>株式会社日立製作所;;HITACHI LTD</t>
-  </si>
-  <si>
-    <t>IUCF HYU;;한양대학교 산학협력단</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
-  </si>
-  <si>
-    <t>グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC;;구글 엘엘씨;;BARENDS RAMI;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;M·斯蒂芬;;GREENBERG DON;;OLIVADESE SALVATORE;;PISTOIA MARCO;;CORCOLES-GONZALEZ ANTONIO;;J·加姆贝塔;;JAVADIABHARI ALI;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;HASHEMI POUYA;;LEE CHOONGHYUN;;MISGEN MARVIN M;;マクルーア ザ サード、ダグラス、テンプルトン;;HEKMATSHOARTABARI BAHMAN;;OLIVADESE SALVATORE BERNARDO;;ステファン、マティアス;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;MARTIN FERNANDEZ FRANCISCO JOSE;;BISHOP LEV;;ZHANG JINGYUN;;DOUGLAS TEMPLETON MCCLURE III;;STEFFEN MATTHIAS;;ガンベッタ、ジェイ;;GAMBETTA JAY;;BISHOP LEV SAMUEL;;PHAN ANNA;;TEMME PAUL;;PRISCO JOSEPH F;;MATTHIAS STEFFEN;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;CHEN RICHARD;;OLIVER DIAL;;GAMBETTA JAY M;;ダイアル、オリバー;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRZYBYLSKI KEVIN J;;NANNICINI GIACOMO;;LIU PENG</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;바엔즈 라미;;ライアン・バブシュ;;NIU YUEZHEN;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーヴェン;;FARHI EDWARD HENRY;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;ユエゼン・ニウ;;ラミ・バレントス;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ</t>
-  </si>
-  <si>
-    <t>LYNCH ADAM DAVID;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;DA SILVA MARCUS PALMER;;WILSON CHRISTOPHER MOGAN;;SETE EYOB A;;KARALEKAS PETER JONATHAN;;HEIDEL STEVEN;;ZENG WILLIAM J;;RIGETTI CHAD TYLER;;RUST MICHAEL;;OSBORN CHRISTOPHER BUTLER;;CURTIS MICHAEL J;;JONES GLENN;;TEZAK NIKOLAS ANTON;;DESAI ANAND;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;JOHNSON BLAKE ROBERT;;SETE EYOB</t>
-  </si>
-  <si>
-    <t>张严波;;王桂磊;;HENRY H ADAMSON;;亨利·H·阿达姆松;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU ZHENGYONG;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
-  </si>
-  <si>
-    <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
-  </si>
-  <si>
-    <t>NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;EVANS RUFFIN;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;ZHOU LEO;;EVANS RUFFIN E;;SUKACHEV DENIS D;;BHASKAR MIHIR;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;WANG SHENGTAO;;PICHLER HANNES;;NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
-  </si>
-  <si>
-    <t>WALUS CONRAD;;WOLKOW ROBERT;;WALUS KONRAD;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;WOLKOW ROBERT A</t>
-  </si>
-  <si>
-    <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM</t>
-  </si>
-  <si>
-    <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW;;GOULD MATTHEW V;;GAHROOSI AMIR</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+  </si>
+  <si>
+    <t>HITACHI LTD;;株式会社日立製作所</t>
+  </si>
+  <si>
+    <t>한양대학교 산학협력단;;IUCF HYU</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
+  </si>
+  <si>
+    <t>PHAN ANNA T;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;HEKMATSHOARTABARI BAHMAN;;JAY GAMBETTA;;PISTOIA MARCO;;MATTHIAS STEFFEN;;HASHEMI POUYA;;PRISCO JOSEPH F;;DIAL OLIVER;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;BISHOP LEV SAMUEL;;FARO SERTAGE ISMAEL;;GREENBERG DON;;ダイアル、オリバー;;TEMME PAUL;;PHAN ANNA;;J·加姆贝塔;;CHEN RICHARD;;O·蒂亚尔;;REZNICEK ALEXANDER;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;D·T·麦克鲁尔三世;;MISGEN MARVIN M;;NANNICINI GIACOMO;;ステファン、マティアス;;PRZYBYLSKI KEVIN J;;M·斯蒂芬;;TEMME PAUL KRISTAN;;ANDO TAKASHI;;STEFFEN MATTHIAS;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;OLIVER DIAL</t>
+  </si>
+  <si>
+    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HELMUT;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ライアン・バブシュ;;ユエゼン・ニウ;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;REAGOR MATTHEW J;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;SETE EYOB;;HEIDEL STEVEN;;LYNCH ADAM DAVID;;JONES GLENN;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;SETE EYOB A</t>
+  </si>
+  <si>
+    <t>朱慧珑;;WANG GUILEI;;RADAMSON HENRY H;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+  </si>
+  <si>
+    <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;BHASKAR MIHIR;;SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO XIANGYU;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;LUKIN MIKHAIL D;;EVANS RUFFIN;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP</t>
+  </si>
+  <si>
+    <t>WOLKOW ROBERT;;CROSHAW JEREMIAH;;DIENEL THOMAS;;VINE WYATT;;HUFF TALEANA;;RETALLICK JACOB;;WOLKOW ROBERT A;;LIVADARU LUCIAN;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WALUS KONRAD</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
+  </si>
+  <si>
+    <t>MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GOULD MATTHEW</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>HEO JUN;;WOO SOL A;;CHO KYOUNG AH;;CHO JIN SUN;;CHO KYOUNG-AH;;CHO JIN-SUN;;LIM DOO HYEOK;;WOO SOL-A;;KIM SANG SIG;;SOHN IL KWON;;PARK YOUNG-SOO;;LIM DOO-HYEOK;;KIM SANG-SIK;;PARK YOUNG SOO</t>
-  </si>
-  <si>
-    <t>GUHA JOYDEEP;;DAUGHERTY JOHN;;バヘディ・バヘド;;グーハ・ジョイディープ;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID</t>
-  </si>
-  <si>
-    <t>GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;GAMBLE IV JOHN KING;;K·施特劳斯;;WIEBE NATHAN O;;CHEN WEIDA;;B·H·阮;;A·X·C·科尔;;W·陈;;GAMBLE JOHN KING;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
-  </si>
-  <si>
-    <t>MALKIEL ITZIK;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
+    <t>PARK YOUNG-SOO;;CHO JIN SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;LIM DOO HYEOK;;KIM SANG-SIK;;CHO KYOUNG-AH;;WOO SOL A;;WOO SOL-A;;HEO JUN;;CHO JIN-SUN;;SOHN IL KWON;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;バヘディ・バヘド</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GAMBLE JOHN KING;;B·H·阮</t>
+  </si>
+  <si>
+    <t>ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;WOLF LIOR</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
-  </si>
-  <si>
-    <t>GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;CAO YUDONG;;JOHNSON PETER D</t>
-  </si>
-  <si>
-    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>HUANG HAIYAO;;DUBAY RYAN;;MAGYAR ANDREW P;;BYRNES STEVEN J;;CAVANAGH PETER;;KOTZ KENNETH T;;MARKOVIC STACEY;;FRANK IAN;;MCFARLAND KIRSTY A;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;FAVALORA GREGG;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;FAVALORA GREGG E;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY</t>
-  </si>
-  <si>
-    <t>CAI QING;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COVENS KRIS;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN;;CHEN CHANG</t>
-  </si>
-  <si>
-    <t>LIU YU;;XU JUN;;ZHAO LINYUAN;;LIANG RENRONG</t>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;SPRACHMAN MELISSA;;FRANK IAN WARD;;KOTZ KENNETH T;;BYRNES STEVEN;;HUANG HAIYAO;;FRANK IAN;;MAGYAR ANDREW;;DUBAY RYAN A;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;CAVANAGH PETER;;FAVALORA GREGG;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;DUBAY RYAN;;KOTZ KENNETH;;BYRNES STEVEN J</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+  </si>
+  <si>
+    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;COVENS KRIS;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;CIUBOTARU FLORIN</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
@@ -826,7 +832,7 @@
     <t>TRESP VOLKER;;MA YUNPU</t>
   </si>
   <si>
-    <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;CHOI YONG SOO;;LEE HYUNG-DONG</t>
+    <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
@@ -838,31 +844,31 @@
     <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
   </si>
   <si>
-    <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+    <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
   </si>
   <si>
     <t>DANIEL RAMEZ;;RIZIK LUNA</t>
   </si>
   <si>
-    <t>DIEZ STEFAN;;TAKATSUKI HIDEYO;;KORTEN TILL;;MANSSON ALF;;REUTHER CORDULA</t>
-  </si>
-  <si>
-    <t>WANG WEI;;WANG ZEHONG;;YU DAN;;CHEN YIXIANG</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK;;WU QING</t>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
+  </si>
+  <si>
+    <t>WANG WEI;;CHEN YIXIANG;;WANG ZEHONG;;YU DAN</t>
+  </si>
+  <si>
+    <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>WANG YUNBO;;CHEN CHANGSHENG;;GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;WU SHUO;;CHENG RUNHONG</t>
-  </si>
-  <si>
-    <t>DICKINSON BENJAMIN T;;REICH GREGORY W;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;KONDASH COREY R;;SLINKER KEITH</t>
-  </si>
-  <si>
-    <t>Zhengyong Zhu;;Huilong Zhu</t>
+    <t>WANG YUNBO;;ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;ZHU YU</t>
+  </si>
+  <si>
+    <t>SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M</t>
+  </si>
+  <si>
+    <t>Huilong Zhu;;Zhengyong Zhu</t>
   </si>
   <si>
     <t>ANG KAH-WEE;;TAN WEE CHONG</t>
@@ -871,10 +877,10 @@
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>WANG GANG (A K A JOSEPH);;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;VASTAREY NIKHIL SURESH</t>
+    <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
+  </si>
+  <si>
+    <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -886,73 +892,76 @@
     <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
-    <t>GABRYS RYAN;;MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
-  </si>
-  <si>
-    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+    <t>GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+  </si>
+  <si>
+    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>ボーズ サウラブ クマー;;FOSTNER SHAWN;;フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>陈奕丞;;JIANG YADONG;;GU DEEN;;LI WEI;;ZHONG HAO;;顾德恩;;钟豪;;蒋亚东;;李东阳;;LI DONGYANG;;李伟;;GU DE'EN;;CHEN YICHENG</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>최정우;;CHUNG YONG HO;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>FAROOQ AHMAD;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드</t>
-  </si>
-  <si>
-    <t>李源;;XING YAN;;LI YUAN;;张辉;;张晋;;ZHANG JIN;;幸研;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;STRAUSS KARIN;;K·施特劳斯;;CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;W·陈;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
+    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>LI DONGYANG;;JIANG YADONG;;顾德恩;;蒋亚东;;LI WEI;;李伟;;钟豪;;CHEN YICHENG;;李东阳;;GU DEEN;;陈奕丞;;ZHONG HAO;;GU DE'EN</t>
+  </si>
+  <si>
+    <t>YU XING;;JIANG WEINAN</t>
+  </si>
+  <si>
+    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동</t>
+  </si>
+  <si>
+    <t>张辉;;ZHANG HUI;;ZHANG JIN;;幸研;;XING YAN;;李源;;张晋;;LI YUAN</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;ダウガティ・ジョン;;ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;バヘディ・バヘド</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>하키우;;트린수안텅;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;TRINH XUAN TUNG;;KIM JIN BAE;;김진배</t>
+    <t>트린수안텅;;HA KIEU MY;;하키우;;YOON TAE HYUN;;윤태현;;KIM JIN BAE;;김진배;;TRINH XUAN TUNG</t>
   </si>
   <si>
     <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
   </si>
   <si>
-    <t>MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO;;DOORNBOS GERBEN;;GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+    <t>MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
   </si>
   <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ユエゼン・ニウ;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
   </si>
 </sst>
 </file>
@@ -1449,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1523,7 +1532,7 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1538,10 +1547,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="R3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1591,7 +1600,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>0.9426490861574633</v>
+        <v>0.9426490861574631</v>
       </c>
       <c r="F4">
         <v>1.039920605637288</v>
@@ -1612,7 +1621,7 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4">
         <v>0.8333333333333336</v>
@@ -1627,10 +1636,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1716,10 +1725,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1805,10 +1814,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1894,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="R7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1968,7 +1977,7 @@
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1983,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="R8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2069,7 +2078,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2134,7 +2143,7 @@
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2149,10 +2158,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2238,10 +2247,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2306,7 +2315,7 @@
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2321,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2404,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2493,10 +2502,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2668,7 +2677,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2757,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2843,10 +2852,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2905,7 +2914,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2926,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3000,7 +3009,7 @@
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3018,7 +3027,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3083,7 +3092,7 @@
         <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
         <v>134</v>
@@ -3107,7 +3116,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3172,7 +3181,7 @@
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3190,7 +3199,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3273,7 +3282,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3338,13 +3347,13 @@
         <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3362,7 +3371,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3427,7 +3436,7 @@
         <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s">
         <v>134</v>
@@ -3448,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3516,7 +3525,7 @@
         <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3540,7 +3549,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3605,13 +3614,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3629,7 +3638,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3688,7 +3697,7 @@
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3712,7 +3721,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3777,7 +3786,7 @@
         <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3798,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3887,10 +3896,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3949,13 +3958,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3970,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4056,7 +4065,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4139,7 +4148,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4222,7 +4231,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4305,7 +4314,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4394,7 +4403,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4480,10 +4489,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R37" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4566,7 +4575,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4649,7 +4658,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4732,7 +4741,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4815,7 +4824,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4883,10 +4892,10 @@
         <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4904,7 +4913,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4987,7 +4996,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5070,7 +5079,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5153,7 +5162,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5236,7 +5245,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5319,7 +5328,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5402,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5464,10 +5473,10 @@
         <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5485,7 +5494,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5568,7 +5577,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5654,10 +5663,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5740,7 +5749,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5799,7 +5808,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s">
         <v>134</v>
@@ -5823,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5882,13 +5891,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5906,7 +5915,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5989,7 +5998,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6072,7 +6081,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6155,7 +6164,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6238,7 +6247,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6327,7 +6336,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6410,7 +6419,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6475,13 +6484,13 @@
         <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6496,10 +6505,10 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="R61" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6585,10 +6594,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R62" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6668,10 +6677,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6757,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R64" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6840,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R65" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6908,13 +6917,13 @@
         <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6929,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="R66" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7018,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R67" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7080,7 +7089,7 @@
         <v>152</v>
       </c>
       <c r="J68" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s">
         <v>134</v>
@@ -7101,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7169,7 +7178,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7190,10 +7199,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7279,10 +7288,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R70" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7341,7 +7350,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7362,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R71" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7451,10 +7460,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R72" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7513,13 +7522,13 @@
         <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7534,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R73" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7623,10 +7632,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R74" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7706,10 +7715,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R75" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7795,10 +7804,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R76" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7884,10 +7893,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R77" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7946,7 +7955,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7967,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R78" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8029,7 +8038,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8050,10 +8059,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R79" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8112,7 +8121,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8133,10 +8142,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R80" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8195,13 +8204,13 @@
         <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L81" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8216,10 +8225,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R81" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8299,10 +8308,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8367,13 +8376,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8388,10 +8397,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R83" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8456,13 +8465,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8477,10 +8486,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R84" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8539,13 +8548,13 @@
         <v>143</v>
       </c>
       <c r="J85" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K85" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L85" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8560,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="R85" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8622,13 +8631,13 @@
         <v>143</v>
       </c>
       <c r="J86" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K86" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L86" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8643,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="R86" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8708,10 +8717,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8726,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R87" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8797,10 +8806,10 @@
         <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L88" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8815,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R88" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8886,10 +8895,10 @@
         <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L89" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8904,10 +8913,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R89" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8969,10 +8978,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L90" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8987,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="R90" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9058,10 +9067,10 @@
         <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L91" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9076,10 +9085,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R91" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9165,10 +9174,10 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R92" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9254,10 +9263,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9343,10 +9352,10 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9432,10 +9441,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9521,10 +9530,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9610,10 +9619,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9693,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R98" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9776,10 +9785,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R99" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9844,13 +9853,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K100" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L100" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9865,10 +9874,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R100" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9933,13 +9942,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L101" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9954,10 +9963,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R101" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10022,13 +10031,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K102" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L102" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10043,10 +10052,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10126,10 +10135,10 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R103" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10209,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R104" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10277,13 +10286,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K105" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L105" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10298,10 +10307,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R105" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10366,13 +10375,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K106" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L106" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10387,10 +10396,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R106" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="311">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -499,91 +499,79 @@
     <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
   </si>
   <si>
-    <t>CN;;JP;;US;;WO;;GB;;DE</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU;;SG</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP</t>
-  </si>
-  <si>
-    <t>US;;CN</t>
-  </si>
-  <si>
-    <t>US;;CN;;EP;;WO</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;WO;;US;;KR;;AU</t>
-  </si>
-  <si>
-    <t>WO;;US;;EP;;CA</t>
+    <t>GB;;WO;;CN;;JP;;US;;DE</t>
+  </si>
+  <si>
+    <t>WO;;SG;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>CN;;EP;;US;;WO</t>
+  </si>
+  <si>
+    <t>WO;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>EP;;US;;WO;;CA</t>
   </si>
   <si>
     <t>US;;KR;;WO;;CA</t>
   </si>
   <si>
-    <t>WO;;US;;EP;;TW</t>
-  </si>
-  <si>
-    <t>CA;;EP;;WO;;US;;KR;;AU</t>
-  </si>
-  <si>
-    <t>WO;;US;;CA</t>
-  </si>
-  <si>
-    <t>US;;CN;;KR;;WO</t>
-  </si>
-  <si>
-    <t>JP;;CN;;EP;;TW;;WO;;US;;KR</t>
-  </si>
-  <si>
-    <t>WO;;US;;CN;;EP</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;EP;;TW;;WO;;GB;;SG</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>WO;;FR;;EP</t>
-  </si>
-  <si>
-    <t>US;;EP;;KR</t>
+    <t>EP;;US;;WO;;TW</t>
+  </si>
+  <si>
+    <t>WO;;CA;;US;;KR;;AU;;EP</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;US;;KR;;WO</t>
+  </si>
+  <si>
+    <t>WO;;TW;;CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>GB;;WO;;SG;;CA;;TW;;EP</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>EP;;WO;;FR</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;JP;;EP;;US;;WO;;KR</t>
-  </si>
-  <si>
-    <t>CN;;JP;;EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;EP;;KR</t>
-  </si>
-  <si>
-    <t>CN;;JP;;KR;;EP</t>
+    <t>CN;;US;;JP</t>
+  </si>
+  <si>
+    <t>WO;;CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;JP;;US;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CA;;CN;;JP;;KR;;EP</t>
+  </si>
+  <si>
+    <t>CN;;EP;;KR;;JP</t>
   </si>
   <si>
     <t>US;;JP</t>
   </si>
   <si>
-    <t>EP;;AU;;KR;;CA</t>
-  </si>
-  <si>
-    <t>US;;CN;;TW</t>
-  </si>
-  <si>
-    <t>RU;;ZA;;CA;;CN;;JP;;EP;;TW;;WO;;US;;KR;;IL;;AU</t>
+    <t>EP;;KR;;CA;;AU</t>
+  </si>
+  <si>
+    <t>WO;;CA;;TW;;CN;;RU;;JP;;ZA;;IL;;KR;;US;;AU;;EP</t>
   </si>
   <si>
     <t>GB</t>
@@ -607,10 +595,10 @@
     <t>RU</t>
   </si>
   <si>
-    <t>US;;IB</t>
-  </si>
-  <si>
-    <t>US;;AU;;CA</t>
+    <t>IB;;US</t>
+  </si>
+  <si>
+    <t>US;;CA;;AU</t>
   </si>
   <si>
     <t>US;;AU</t>
@@ -619,31 +607,31 @@
     <t>US;;CA</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
   </si>
   <si>
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>国际商业机器公司;;IBM (CHINA) INVEST COMPANY LTD;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM UK</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;SMELYANSKIY VADIM;;GOOGLE INC;;グーグル エルエルシー;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI</t>
+    <t>国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;SMELYANSKIY VADIM;;BARENDS RAMI</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
   </si>
   <si>
     <t>QUANTUM SILICON INC</t>
@@ -655,232 +643,235 @@
     <t>STRATUSCENT INC</t>
   </si>
   <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
   </si>
   <si>
-    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
+    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
     <t>IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+  </si>
+  <si>
+    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+  </si>
+  <si>
+    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+  </si>
+  <si>
+    <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>UNIV SOUTHEAST;;东南大学</t>
+  </si>
+  <si>
+    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>HITACHI LTD;;株式会社日立製作所</t>
+  </si>
+  <si>
+    <t>한양대학교 산학협력단;;IUCF HYU</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
   </si>
   <si>
     <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
   </si>
   <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
-  </si>
-  <si>
-    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
-  </si>
-  <si>
-    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
-  </si>
-  <si>
-    <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
-  </si>
-  <si>
-    <t>东南大学;;UNIV SOUTHEAST</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
-  </si>
-  <si>
-    <t>HITACHI LTD;;株式会社日立製作所</t>
-  </si>
-  <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;GOOGLE LLC;;구글 엘엘씨;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE LLC;;SMELYANSKIY VADIM;;GOOGLE INC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
-  </si>
-  <si>
-    <t>PHAN ANNA T;;MARTIN FERNANDEZ FRANCISCO JOSE;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;ZHANG JINGYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;HEKMATSHOARTABARI BAHMAN;;JAY GAMBETTA;;PISTOIA MARCO;;MATTHIAS STEFFEN;;HASHEMI POUYA;;PRISCO JOSEPH F;;DIAL OLIVER;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;MCCLURE III DOUGLAS T;;BISHOP LEV SAMUEL;;FARO SERTAGE ISMAEL;;GREENBERG DON;;ダイアル、オリバー;;TEMME PAUL;;PHAN ANNA;;J·加姆贝塔;;CHEN RICHARD;;O·蒂亚尔;;REZNICEK ALEXANDER;;BISHOP LEV;;CORCOLES-GONZALEZ ANTONIO;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;D·T·麦克鲁尔三世;;MISGEN MARVIN M;;NANNICINI GIACOMO;;ステファン、マティアス;;PRZYBYLSKI KEVIN J;;M·斯蒂芬;;TEMME PAUL KRISTAN;;ANDO TAKASHI;;STEFFEN MATTHIAS;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;OLIVER DIAL</t>
-  </si>
-  <si>
-    <t>BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;ラミ・バレントス;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HELMUT;;FARHI EDWARD HENRY;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;NIU YUEZHEN;;NEVEN HARTMUT;;ライアン・バブシュ;;ユエゼン・ニウ;;바엔즈 라미;;ハルトムート・ネーヴェン;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;JOHNSON BLAKE ROBERT;;REAGOR MATTHEW J;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;RIGETTI CHAD TYLER;;SETE EYOB;;HEIDEL STEVEN;;LYNCH ADAM DAVID;;JONES GLENN;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;SETE EYOB A</t>
-  </si>
-  <si>
-    <t>朱慧珑;;WANG GUILEI;;RADAMSON HENRY H;;ZHU ZHENGYONG;;朱正勇;;亨利·H·阿达姆松;;ZHU HUILONG;;ZHANG YANBO;;HENRY H ADAMSON;;王桂磊;;张严波</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;BOOTHBY KELLY T R;;XUE YANBO;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+  </si>
+  <si>
+    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;HASHEMI POUYA;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;M·斯蒂芬;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;ステファン、マティアス;;PRISCO JOSEPH F;;GREENBERG DON;;KUCZYNSKI JOSEPH;;MATTHIAS STEFFEN;;NANNICINI GIACOMO;;D·T·麦克鲁尔三世;;JAY GAMBETTA;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;O·蒂亚尔;;BISHOP LEV;;BISHOP LEV SAMUEL;;マクルーア ザ サード、ダグラス、テンプルトン;;GAMBETTA JAY;;OLIVER DIAL;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;STEFFEN MATTHIAS;;ダイアル、オリバー;;PISTOIA MARCO;;PHAN ANNA;;NEUMAN-HORN DEBRA A;;JAVADIABHARI ALI;;ANDO TAKASHI;;MARTIN FERNANDEZ FRANCISCO JOSE;;CORCOLES-GONZALEZ ANTONIO;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;TEMME PAUL;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;PHAN ANNA T;;DOUGLAS TEMPLETON MCCLURE III;;MISGEN MARVIN M</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;NEVEN HELMUT;;ユエゼン・ニウ;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
+  </si>
+  <si>
+    <t>DAVIS ERIK JOSEPH;;DESAI ANAND;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER;;ZENG WILLIAM;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;KARALEKAS PETER JONATHAN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;JONES GLENN;;RUST MICHAEL;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;SETE EYOB;;ZENG WILLIAM J</t>
+  </si>
+  <si>
+    <t>ZHU ZHENGYONG;;RADAMSON HENRY H;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
+  </si>
+  <si>
+    <t>AMIN MOHAMMAD H;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;ROLFE JASON;;AMIN MOHAMMAD H S;;XUE YANBO;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
   </si>
   <si>
     <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
   </si>
   <si>
-    <t>NGUYEN CHRISTIAN;;LUNKIN MIKHAIL;;BHASKAR MIHIR;;SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL;;ZHOU LEO XIANGYU;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;LUKIN MIKHAIL D;;EVANS RUFFIN;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT;;CROSHAW JEREMIAH;;DIENEL THOMAS;;VINE WYATT;;HUFF TALEANA;;RETALLICK JACOB;;WOLKOW ROBERT A;;LIVADARU LUCIAN;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WALUS KONRAD</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
-  </si>
-  <si>
-    <t>MASILAMANI ASHOK PRABHU;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GOULD MATTHEW</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
-  </si>
-  <si>
-    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
+    <t>NGUYEN CHRISTIAN;;EVANS RUFFIN;;LUKIN MIKHAIL D;;EVANS RUFFIN E;;WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;LUKIN MIKHAIL;;SUKACHEV DENIS;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV</t>
+  </si>
+  <si>
+    <t>RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
+  </si>
+  <si>
+    <t>GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
+  </si>
+  <si>
+    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>PARK YOUNG-SOO;;CHO JIN SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;LIM DOO HYEOK;;KIM SANG-SIK;;CHO KYOUNG-AH;;WOO SOL A;;WOO SOL-A;;HEO JUN;;CHO JIN-SUN;;SOHN IL KWON;;PARK YOUNG SOO</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;ダウガティ・ジョン;;バヘディ・バヘド</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GAMBLE JOHN KING;;B·H·阮</t>
-  </si>
-  <si>
-    <t>ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;WOLF LIOR</t>
+    <t>PARK YOUNG SOO;;CHO JIN-SUN;;CHO JIN SUN;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;SOHN IL KWON;;LIM DOO HYEOK;;PARK YOUNG-SOO;;WOO SOL-A;;CHO KYOUNG AH;;LIM DOO-HYEOK;;KIM SANG-SIK;;HEO JUN</t>
+  </si>
+  <si>
+    <t>GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID</t>
+  </si>
+  <si>
+    <t>CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;W·陈;;R·格拉斯;;K·施特劳斯;;STRAUSS KARIN</t>
+  </si>
+  <si>
+    <t>WOLF LIOR;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC</t>
-  </si>
-  <si>
-    <t>MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA</t>
-  </si>
-  <si>
-    <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;SPRACHMAN MELISSA;;FRANK IAN WARD;;KOTZ KENNETH T;;BYRNES STEVEN;;HUANG HAIYAO;;FRANK IAN;;MAGYAR ANDREW;;DUBAY RYAN A;;ROSENBERGER ERIN;;MCFARLAND KIRSTY A;;CAVANAGH PETER;;FAVALORA GREGG;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;DUBAY RYAN;;KOTZ KENNETH;;BYRNES STEVEN J</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H S;;BOOTHBY THOMAS J;;ANDRIYASH EVGENY;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;COVENS KRIS;;STAKENBORG TIM;;FAUVART MAARTEN;;CAI QING;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FRANK IAN WARD;;HUANG HAIYAO;;SPRACHMAN MELISSA;;DUBAY RYAN A;;ROSENBERGER ERIN;;KOTZ KENNETH;;FRANK IAN;;BYRNES STEVEN J;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MCFARLAND KIRSTY;;DUBAY RYAN;;FAVALORA GREGG;;MAGYAR ANDREW P;;MAGYAR ANDREW;;CAVANAGH PETER;;BYRNES STEVEN;;KOTZ KENNETH T</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIANG RENRONG;;XU JUN;;LIU YU</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO</t>
+    <t>SIU MAN-HUNG;;FONG KIN CHUNG;;JIANG ZHUOLIN</t>
+  </si>
+  <si>
+    <t>MA YUNPU;;TRESP VOLKER</t>
+  </si>
+  <si>
+    <t>LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
   </si>
   <si>
-    <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
-  </si>
-  <si>
-    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
-  </si>
-  <si>
-    <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
+    <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+  </si>
+  <si>
+    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
   </si>
   <si>
     <t>DANIEL RAMEZ;;RIZIK LUNA</t>
   </si>
   <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
-  </si>
-  <si>
-    <t>WANG WEI;;CHEN YIXIANG;;WANG ZEHONG;;YU DAN</t>
-  </si>
-  <si>
-    <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
+    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>YU DAN;;WANG WEI;;WANG ZEHONG;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA;;WU QING</t>
   </si>
   <si>
     <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
   </si>
   <si>
-    <t>WANG YUNBO;;ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;ZHU YU</t>
-  </si>
-  <si>
-    <t>SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;BAUR JEFFREY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M</t>
+    <t>WU SHUO;;GAO JUNXIONG;;CHENG RUNHONG;;ZHOU WENLI;;CHEN CHANGSHENG;;WANG YUNBO;;ZHU YU</t>
+  </si>
+  <si>
+    <t>REICH GREGORY W;;KONDASH COREY R;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;MAGAR KAMAN THAPA</t>
   </si>
   <si>
     <t>Huilong Zhu;;Zhengyong Zhu</t>
   </si>
   <si>
-    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
-  </si>
-  <si>
-    <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH</t>
+    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;WANG GANG;;VASTAREY NIKHIL SURESH</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -889,10 +880,10 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
-  </si>
-  <si>
-    <t>GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA</t>
+    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
+  </si>
+  <si>
+    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
   </si>
   <si>
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
@@ -904,49 +895,43 @@
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>LI DONGYANG;;JIANG YADONG;;顾德恩;;蒋亚东;;LI WEI;;李伟;;钟豪;;CHEN YICHENG;;李东阳;;GU DEEN;;陈奕丞;;ZHONG HAO;;GU DE'EN</t>
+    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー</t>
+  </si>
+  <si>
+    <t>ZHONG HAO;;陈奕丞;;蒋亚东;;李伟;;李东阳;;LI WEI;;LI DONGYANG;;GU DEEN;;钟豪;;顾德恩;;CHEN YICHENG;;JIANG YADONG;;GU DE'EN</t>
   </si>
   <si>
     <t>YU XING;;JIANG WEINAN</t>
   </si>
   <si>
-    <t>CHUNG YONG HO;;최정우;;CHOI JEONG WOO;;정용호</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동</t>
-  </si>
-  <si>
-    <t>张辉;;ZHANG HUI;;ZHANG JIN;;幸研;;XING YAN;;李源;;张晋;;LI YUAN</t>
-  </si>
-  <si>
-    <t>GRASS ROBERT;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;CHEN WEIDA;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>グーハ・ジョイディープ;;VAHEDI VAHID;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;ダウガティ・ジョン;;ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;バヘディ・バヘド</t>
+    <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+  </si>
+  <si>
+    <t>JEONG YOUNG MIN;;파쿼 아마드;;신현동;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD</t>
+  </si>
+  <si>
+    <t>XING YAN;;LI YUAN;;ZHANG JIN;;ZHANG HUI;;张辉;;幸研;;张晋;;李源</t>
+  </si>
+  <si>
+    <t>CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;R·格拉斯;;STRAUSS KARIN;;K·施特劳斯</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>트린수안텅;;HA KIEU MY;;하키우;;YOON TAE HYUN;;윤태현;;KIM JIN BAE;;김진배;;TRINH XUAN TUNG</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P</t>
-  </si>
-  <si>
-    <t>MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN</t>
+    <t>YOON TAE HYUN;;트린수안텅;;KIM JIN BAE;;TRINH XUAN TUNG;;하키우;;윤태현;;HA KIEU MY;;김진배</t>
+  </si>
+  <si>
+    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
+  </si>
+  <si>
+    <t>GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
   </si>
   <si>
     <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
@@ -958,10 +943,10 @@
     <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
   </si>
   <si>
-    <t>CASTRILLO SERGIO BOIXO;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;NEVEN HARTMUT;;ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1532,7 +1517,7 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1547,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1621,7 +1606,7 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M4">
         <v>0.8333333333333336</v>
@@ -1636,10 +1621,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1725,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1793,13 +1778,13 @@
         <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
         <v>144</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1814,10 +1799,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1882,7 +1867,7 @@
         <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" t="s">
         <v>134</v>
@@ -1903,10 +1888,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="R7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1971,13 +1956,13 @@
         <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" t="s">
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1992,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="R8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2054,7 +2039,7 @@
         <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
         <v>134</v>
@@ -2078,7 +2063,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2137,13 +2122,13 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" t="s">
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2158,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="R10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2226,7 +2211,7 @@
         <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" t="s">
         <v>134</v>
@@ -2247,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2309,13 +2294,13 @@
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2330,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="R12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2392,7 +2377,7 @@
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
         <v>134</v>
@@ -2413,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2502,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2653,7 +2638,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2677,7 +2662,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2742,7 +2727,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2766,7 +2751,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2831,7 +2816,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2852,10 +2837,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2914,7 +2899,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2935,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3009,7 +2994,7 @@
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3027,7 +3012,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3092,7 +3077,7 @@
         <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s">
         <v>134</v>
@@ -3116,7 +3101,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3181,7 +3166,7 @@
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3199,7 +3184,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3282,7 +3267,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3347,13 +3332,13 @@
         <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3371,7 +3356,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3436,7 +3421,7 @@
         <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K25" t="s">
         <v>134</v>
@@ -3457,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="R25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3525,7 +3510,7 @@
         <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3549,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3614,13 +3599,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3638,7 +3623,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3697,7 +3682,7 @@
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3721,7 +3706,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3786,7 +3771,7 @@
         <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3807,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="R29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3896,10 +3881,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3958,13 +3943,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3979,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="R31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4065,7 +4050,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4148,7 +4133,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4231,7 +4216,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4314,7 +4299,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4403,7 +4388,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4489,10 +4474,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4575,7 +4560,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4658,7 +4643,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4741,7 +4726,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4824,7 +4809,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4892,10 +4877,10 @@
         <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4913,7 +4898,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4996,7 +4981,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5079,7 +5064,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5138,7 +5123,7 @@
         <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K45" t="s">
         <v>144</v>
@@ -5162,7 +5147,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5245,7 +5230,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5328,7 +5313,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5411,7 +5396,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5473,10 +5458,10 @@
         <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5494,7 +5479,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5577,7 +5562,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5663,10 +5648,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="R51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5749,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5808,7 +5793,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K53" t="s">
         <v>134</v>
@@ -5832,7 +5817,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5891,13 +5876,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5915,7 +5900,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5998,7 +5983,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6081,7 +6066,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6164,7 +6149,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6247,7 +6232,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6336,7 +6321,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6419,7 +6404,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6484,13 +6469,13 @@
         <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L61" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6505,10 +6490,10 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="R61" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6573,7 +6558,7 @@
         <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
         <v>144</v>
@@ -6594,10 +6579,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R62" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6677,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R63" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6766,10 +6751,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R64" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6849,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R65" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6917,13 +6902,13 @@
         <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6938,10 +6923,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R66" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7027,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7110,10 +7095,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="R68" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7178,7 +7163,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7199,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="R69" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7288,10 +7273,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7350,7 +7335,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7371,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="R71" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7460,10 +7445,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="R72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7522,13 +7507,13 @@
         <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K73" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7543,10 +7528,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R73" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7632,10 +7617,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R74" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7715,10 +7700,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="R75" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7804,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="R76" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7872,7 +7857,7 @@
         <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K77" t="s">
         <v>144</v>
@@ -7893,10 +7878,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="R77" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7955,7 +7940,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7976,10 +7961,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="R78" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8038,7 +8023,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8059,10 +8044,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R79" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8121,7 +8106,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8142,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="R80" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8204,13 +8189,13 @@
         <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8225,10 +8210,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="R81" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8308,10 +8293,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="R82" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8376,13 +8361,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8397,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R83" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8465,13 +8450,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K84" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L84" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8486,10 +8471,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="R84" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8548,13 +8533,13 @@
         <v>143</v>
       </c>
       <c r="J85" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="K85" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8569,10 +8554,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="R85" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8631,13 +8616,13 @@
         <v>143</v>
       </c>
       <c r="J86" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="K86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8652,10 +8637,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="R86" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8717,10 +8702,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L87" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8735,10 +8720,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R87" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8806,10 +8791,10 @@
         <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L88" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8824,10 +8809,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R88" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8895,10 +8880,10 @@
         <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L89" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8913,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R89" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8978,10 +8963,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L90" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8996,10 +8981,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9067,10 +9052,10 @@
         <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L91" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9085,10 +9070,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R91" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9174,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R92" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9263,10 +9248,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R93" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9352,10 +9337,10 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R94" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9441,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9530,10 +9515,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R96" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9619,10 +9604,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="R97" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9681,7 +9666,7 @@
         <v>159</v>
       </c>
       <c r="J98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K98" t="s">
         <v>134</v>
@@ -9702,10 +9687,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R98" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9764,7 +9749,7 @@
         <v>159</v>
       </c>
       <c r="J99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K99" t="s">
         <v>134</v>
@@ -9785,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R99" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9853,13 +9838,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9874,10 +9859,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R100" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9942,13 +9927,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L101" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9963,10 +9948,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R101" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10031,13 +10016,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L102" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10052,10 +10037,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R102" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10114,7 +10099,7 @@
         <v>159</v>
       </c>
       <c r="J103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K103" t="s">
         <v>134</v>
@@ -10135,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R103" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10197,7 +10182,7 @@
         <v>159</v>
       </c>
       <c r="J104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K104" t="s">
         <v>134</v>
@@ -10218,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R104" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10286,13 +10271,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L105" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10307,10 +10292,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R105" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10375,13 +10360,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L106" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10396,10 +10381,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R106" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="312">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -499,79 +499,85 @@
     <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
   </si>
   <si>
-    <t>GB;;WO;;CN;;JP;;US;;DE</t>
-  </si>
-  <si>
-    <t>WO;;SG;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>CN;;EP;;US;;WO</t>
-  </si>
-  <si>
-    <t>WO;;CA;;CN;;JP;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CA</t>
-  </si>
-  <si>
-    <t>EP;;US;;WO;;TW</t>
-  </si>
-  <si>
-    <t>WO;;CA;;US;;KR;;AU;;EP</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;KR;;WO</t>
-  </si>
-  <si>
-    <t>WO;;TW;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>GB;;WO;;SG;;CA;;TW;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>EP;;WO;;FR</t>
-  </si>
-  <si>
-    <t>EP;;US;;KR</t>
-  </si>
-  <si>
-    <t>WO;;CA</t>
-  </si>
-  <si>
-    <t>CN;;US;;JP</t>
-  </si>
-  <si>
-    <t>WO;;CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CN;;JP;;US;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;JP;;KR;;EP</t>
-  </si>
-  <si>
-    <t>CN;;EP;;KR;;JP</t>
-  </si>
-  <si>
-    <t>US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;KR;;CA;;AU</t>
-  </si>
-  <si>
-    <t>WO;;CA;;TW;;CN;;RU;;JP;;ZA;;IL;;KR;;US;;AU;;EP</t>
+    <t>CN;;WO;;US;;GB;;DE;;JP</t>
+  </si>
+  <si>
+    <t>AU;;SG;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US</t>
+  </si>
+  <si>
+    <t>WO;;CN;;EP;;US</t>
+  </si>
+  <si>
+    <t>AU;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CA;;WO;;US</t>
+  </si>
+  <si>
+    <t>US;;CA;;WO;;KR</t>
+  </si>
+  <si>
+    <t>US;;EP;;WO;;TW</t>
+  </si>
+  <si>
+    <t>WO;;CA;;EP;;US</t>
+  </si>
+  <si>
+    <t>AU;;EP;;WO;;KR;;US;;CA</t>
+  </si>
+  <si>
+    <t>CA;;WO;;US</t>
+  </si>
+  <si>
+    <t>KR;;CN;;WO;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;TW;;CN;;WO;;US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;WO;;US</t>
+  </si>
+  <si>
+    <t>SG;;EP;;TW;;WO;;GB;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;KR;;US;;CA;;JP</t>
+  </si>
+  <si>
+    <t>WO;;FR;;EP</t>
+  </si>
+  <si>
+    <t>US;;EP;;KR</t>
+  </si>
+  <si>
+    <t>CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;WO;;US;;JP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;US;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;KR;;CA;;JP</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR</t>
+  </si>
+  <si>
+    <t>AU;;CA;;EP;;KR</t>
+  </si>
+  <si>
+    <t>TW;;CN;;US</t>
+  </si>
+  <si>
+    <t>IL;;AU;;KR;;EP;;TW;;CN;;WO;;RU;;US;;CA;;ZA;;JP</t>
+  </si>
+  <si>
+    <t>IL;;AU;;EP;;TW;;RU;;CN;;WO;;KR;;US;;CA;;ZA;;JP</t>
   </si>
   <si>
     <t>GB</t>
@@ -598,40 +604,37 @@
     <t>IB;;US</t>
   </si>
   <si>
-    <t>US;;CA;;AU</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
-  </si>
-  <si>
-    <t>US;;CA</t>
-  </si>
-  <si>
-    <t>IL;;US</t>
-  </si>
-  <si>
-    <t>EP;;FR</t>
+    <t>AU;;CA;;US</t>
+  </si>
+  <si>
+    <t>CA;;US</t>
+  </si>
+  <si>
+    <t>US;;IL</t>
+  </si>
+  <si>
+    <t>FR;;EP</t>
   </si>
   <si>
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;NEVEN HARTMUT;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;구글 엘엘씨;;SMELYANSKIY VADIM;;BARENDS RAMI</t>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;GOOGLE INC;;ラミ・バレントス</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+    <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
   </si>
   <si>
     <t>QUANTUM SILICON INC</t>
@@ -643,13 +646,13 @@
     <t>STRATUSCENT INC</t>
   </si>
   <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP</t>
-  </si>
-  <si>
-    <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+  </si>
+  <si>
+    <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
   </si>
   <si>
     <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
@@ -664,13 +667,13 @@
     <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
-    <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
   </si>
   <si>
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
   </si>
   <si>
     <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
@@ -679,13 +682,13 @@
     <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
   </si>
   <si>
-    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
     <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>UNIV SOUTHEAST;;东南大学</t>
@@ -697,166 +700,163 @@
     <t>HITACHI LTD;;株式会社日立製作所</t>
   </si>
   <si>
-    <t>한양대학교 산학협력단;;IUCF HYU</t>
-  </si>
-  <si>
-    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;ラミ・バレントス;;구글 엘엘씨;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
-  </si>
-  <si>
-    <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
-  </si>
-  <si>
-    <t>CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;DIAL OLIVER;;HASHEMI POUYA;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;M·斯蒂芬;;LEE CHOONGHYUN;;REZNICEK ALEXANDER;;ステファン、マティアス;;PRISCO JOSEPH F;;GREENBERG DON;;KUCZYNSKI JOSEPH;;MATTHIAS STEFFEN;;NANNICINI GIACOMO;;D·T·麦克鲁尔三世;;JAY GAMBETTA;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;O·蒂亚尔;;BISHOP LEV;;BISHOP LEV SAMUEL;;マクルーア ザ サード、ダグラス、テンプルトン;;GAMBETTA JAY;;OLIVER DIAL;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;ZHANG JINGYUN;;HEKMATSHOARTABARI BAHMAN;;STEFFEN MATTHIAS;;ダイアル、オリバー;;PISTOIA MARCO;;PHAN ANNA;;NEUMAN-HORN DEBRA A;;JAVADIABHARI ALI;;ANDO TAKASHI;;MARTIN FERNANDEZ FRANCISCO JOSE;;CORCOLES-GONZALEZ ANTONIO;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;TEMME PAUL;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;PHAN ANNA T;;DOUGLAS TEMPLETON MCCLURE III;;MISGEN MARVIN M</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;FARHI EDWARD HENRY;;NIU YUEZHEN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;NEVEN HARTMUT;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーヴェン;;ラミ・バレントス;;NEVEN HELMUT;;ユエゼン・ニウ;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO;;바엔즈 라미;;SMELYANSKIY VADIM;;BARENDS RAMI;;ハルトムート・ネーフェン</t>
-  </si>
-  <si>
-    <t>DAVIS ERIK JOSEPH;;DESAI ANAND;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;RIGETTI CHAD TYLER;;ZENG WILLIAM;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;KARALEKAS PETER JONATHAN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;JONES GLENN;;RUST MICHAEL;;CURTIS MICHAEL;;MCKIERNAN KERI ANN;;SETE EYOB;;ZENG WILLIAM J</t>
-  </si>
-  <si>
-    <t>ZHU ZHENGYONG;;RADAMSON HENRY H;;ZHU HUILONG;;朱正勇;;张严波;;王桂磊;;朱慧珑;;ZHANG YANBO;;HENRY H ADAMSON;;亨利·H·阿达姆松;;WANG GUILEI</t>
-  </si>
-  <si>
-    <t>AMIN MOHAMMAD H;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R;;ROLFE JASON;;AMIN MOHAMMAD H S;;XUE YANBO;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
+    <t>IUCF HYU;;한양대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>GOOGLE LLC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
+  </si>
+  <si>
+    <t>GAMBETTA JAY;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PHAN ANNA;;KUCZYNSKI JOSEPH;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;JAVADIABHARI ALI;;OLIVADESE SALVATORE BERNARDO;;J·加姆贝塔;;CHEN RICHARD;;HEKMATSHOARTABARI BAHMAN;;HASHEMI POUYA;;JAY GAMBETTA;;MARTIN FERNANDEZ FRANCISCO JOSE;;STEFFEN MATTHIAS;;ステファン、マティアス;;ダイアル、オリバー;;GREENBERG DON;;NANNICINI GIACOMO;;FARO SERTAGE ISMAEL;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;LIU PENG;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;REZNICEK ALEXANDER;;MISGEN MARVIN M;;PHAN ANNA T;;TEMME PAUL KRISTAN;;PRZYBYLSKI KEVIN J;;OLIVER DIAL;;ANDO TAKASHI;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;ZHANG JINGYUN;;BISHOP LEV</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>JONES GLENN;;DA SILVA MARCUS PALMER;;REAGOR MATTHEW J;;HEIDEL STEVEN;;DAVIS ERIK JOSEPH;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;RUST MICHAEL;;ZENG WILLIAM;;CURTIS MICHAEL;;SMITH ROBERT STANLEY;;JOHNSON BLAKE ROBERT;;DESAI ANAND;;SETE EYOB;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J</t>
+  </si>
+  <si>
+    <t>张严波;;HENRY H ADAMSON;;ZHANG YANBO;;RADAMSON HENRY H;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;ZHU HUILONG;;朱正勇</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;MACREADY WILLIAM G;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
   </si>
   <si>
     <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
   </si>
   <si>
-    <t>NGUYEN CHRISTIAN;;EVANS RUFFIN;;LUKIN MIKHAIL D;;EVANS RUFFIN E;;WANG SHENGTAO;;PICHLER HANNES;;ZHOU LEO;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;SIPAHIGIL ALP;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;LUKIN MIKHAIL;;SUKACHEV DENIS;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV</t>
-  </si>
-  <si>
-    <t>RETALLICK JACOB;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;LIVADARU LUCIAN</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
-  </si>
-  <si>
-    <t>GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
-  </si>
-  <si>
-    <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;CARROLL WILLIAM JOSEPH;;TIPTON THOMAS ANDREW;;BATTAGLINI JOSEPH S</t>
+    <t>BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN;;CHOI SOONWON;;EVANS RUFFIN;;LUNKIN MIKHAIL;;WANG SHENGTAO;;EVANS RUFFIN E;;ZHOU LEO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;SUKACHEV DENIS</t>
+  </si>
+  <si>
+    <t>HUFF TALEANA;;RETALLICK JACOB;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN</t>
+  </si>
+  <si>
+    <t>YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
+  </si>
+  <si>
+    <t>GOULD MATTHEW V;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL</t>
+  </si>
+  <si>
+    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>PARK YOUNG SOO;;CHO JIN-SUN;;CHO JIN SUN;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;SOHN IL KWON;;LIM DOO HYEOK;;PARK YOUNG-SOO;;WOO SOL-A;;CHO KYOUNG AH;;LIM DOO-HYEOK;;KIM SANG-SIK;;HEO JUN</t>
-  </si>
-  <si>
-    <t>GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;VAHEDI VAHID</t>
-  </si>
-  <si>
-    <t>CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;WIEBE NATHAN O;;GAMBLE IV JOHN KING;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;W·陈;;R·格拉斯;;K·施特劳斯;;STRAUSS KARIN</t>
-  </si>
-  <si>
-    <t>WOLF LIOR;;MALKIEL ITZIK;;ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;SUCHOWSKI HAIM</t>
+    <t>KIM SANG-SIK;;CHO JIN-SUN;;SOHN IL KWON;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;LIM DOO-HYEOK;;HEO JUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;CHO KYOUNG AH</t>
+  </si>
+  <si>
+    <t>VAHEDI VAHID;;バヘディ・バヘド;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN</t>
+  </si>
+  <si>
+    <t>WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;GAMBLE JOHN KING;;STRAUSS KARIN;;GAMBLE IV JOHN KING;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
+  </si>
+  <si>
+    <t>ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
-  </si>
-  <si>
-    <t>CAO YUDONG;;JOHNSON PETER D;;DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R</t>
-  </si>
-  <si>
-    <t>HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
-  </si>
-  <si>
-    <t>マジャ・キャシディ;;CASSIDY MAJA;;ポール・エフ・プレドキ;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FRANK IAN WARD;;HUANG HAIYAO;;SPRACHMAN MELISSA;;DUBAY RYAN A;;ROSENBERGER ERIN;;KOTZ KENNETH;;FRANK IAN;;BYRNES STEVEN J;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MCFARLAND KIRSTY;;DUBAY RYAN;;FAVALORA GREGG;;MAGYAR ANDREW P;;MAGYAR ANDREW;;CAVANAGH PETER;;BYRNES STEVEN;;KOTZ KENNETH T</t>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
+  </si>
+  <si>
+    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>VARGO EMMA;;MARKOVIC STACEY;;HUANG HAIYAO;;FRANK IAN WARD;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FAVALORA GREGG;;KOTZ KENNETH;;MCFARLAND KIRSTY;;MAGYAR ANDREW P;;ROSENBERGER ERIN;;KOTZ KENNETH T;;BYRNES STEVEN;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;BYRNES STEVEN J;;CAVANAGH PETER;;DUBAY RYAN A;;FRANK IAN;;DUBAY RYAN</t>
   </si>
   <si>
     <t>CASSIDY MAJA;;PREDKI PAUL F</t>
   </si>
   <si>
-    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL;;ROLFE JASON;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;STAKENBORG TIM;;CAI QING</t>
-  </si>
-  <si>
-    <t>ZHAO LINYUAN;;LIANG RENRONG;;XU JUN;;LIU YU</t>
+    <t>ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>FAUVART MAARTEN;;COVENS KRIS;;CAI QING;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>SIU MAN-HUNG;;FONG KIN CHUNG;;JIANG ZHUOLIN</t>
-  </si>
-  <si>
-    <t>MA YUNPU;;TRESP VOLKER</t>
-  </si>
-  <si>
-    <t>LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
+    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
+  </si>
+  <si>
+    <t>TRESP VOLKER;;MA YUNPU</t>
+  </si>
+  <si>
+    <t>HEO KEUN;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
   </si>
   <si>
-    <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
-  </si>
-  <si>
-    <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
-  </si>
-  <si>
-    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
-  </si>
-  <si>
-    <t>DANIEL RAMEZ;;RIZIK LUNA</t>
-  </si>
-  <si>
-    <t>KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA</t>
-  </si>
-  <si>
-    <t>YU DAN;;WANG WEI;;WANG ZEHONG;;CHEN YIXIANG</t>
-  </si>
-  <si>
-    <t>MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA;;WU QING</t>
-  </si>
-  <si>
-    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
-  </si>
-  <si>
-    <t>WU SHUO;;GAO JUNXIONG;;CHENG RUNHONG;;ZHOU WENLI;;CHEN CHANGSHENG;;WANG YUNBO;;ZHU YU</t>
-  </si>
-  <si>
-    <t>REICH GREGORY W;;KONDASH COREY R;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;MAGAR KAMAN THAPA</t>
+    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+  </si>
+  <si>
+    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN;;MANSSON ALF;;KORTEN TILL</t>
+  </si>
+  <si>
+    <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
+  </si>
+  <si>
+    <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
+  </si>
+  <si>
+    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;CHENG RUNHONG;;WU SHUO;;WANG YUNBO;;CHEN CHANGSHENG</t>
+  </si>
+  <si>
+    <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;KONDASH COREY R;;REICH GREGORY W;;PANKONIEN ALEXANDER M</t>
   </si>
   <si>
     <t>Huilong Zhu;;Zhengyong Zhu</t>
@@ -868,10 +868,10 @@
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
-  </si>
-  <si>
-    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH);;WANG GANG;;VASTAREY NIKHIL SURESH</t>
+    <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
+  </si>
+  <si>
+    <t>SALAHANDISH RAZIEH;;WANG GANG;;KOUL RAMAN;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -880,7 +880,7 @@
     <t>GHOSH TAPABRATA</t>
   </si>
   <si>
-    <t>RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND;;KIM CHIHO</t>
+    <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
     <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
@@ -889,64 +889,67 @@
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
   </si>
   <si>
-    <t>MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E;;YOUNG IAN A</t>
+    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー</t>
-  </si>
-  <si>
-    <t>ZHONG HAO;;陈奕丞;;蒋亚东;;李伟;;李东阳;;LI WEI;;LI DONGYANG;;GU DEEN;;钟豪;;顾德恩;;CHEN YICHENG;;JIANG YADONG;;GU DE'EN</t>
-  </si>
-  <si>
-    <t>YU XING;;JIANG WEINAN</t>
-  </si>
-  <si>
-    <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
-  </si>
-  <si>
-    <t>JEONG YOUNG MIN;;파쿼 아마드;;신현동;;SHIN HYUN DONG;;정영민;;FAROOQ AHMAD</t>
-  </si>
-  <si>
-    <t>XING YAN;;LI YUAN;;ZHANG JIN;;ZHANG HUI;;张辉;;幸研;;张晋;;李源</t>
-  </si>
-  <si>
-    <t>CHEN WEIDA;;A·X·C·科尔;;B·H·阮;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;R·格拉斯;;STRAUSS KARIN;;K·施特劳斯</t>
+    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>李伟;;LI WEI;;钟豪;;LI DONGYANG;;GU DEEN;;顾德恩;;李东阳;;CHEN YICHENG;;ZHONG HAO;;JIANG YADONG;;蒋亚东;;陈奕丞;;GU DE'EN</t>
+  </si>
+  <si>
+    <t>JIANG WEINAN;;YU XING</t>
+  </si>
+  <si>
+    <t>CHOI JEONG WOO;;최정우;;정용호;;CHUNG YONG HO</t>
+  </si>
+  <si>
+    <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드;;신현동</t>
+  </si>
+  <si>
+    <t>李源;;LI YUAN;;张辉;;ZHANG JIN;;幸研;;XING YAN;;张晋;;ZHANG HUI</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;STRAUSS KARIN;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>YOON TAE HYUN;;트린수안텅;;KIM JIN BAE;;TRINH XUAN TUNG;;하키우;;윤태현;;HA KIEU MY;;김진배</t>
-  </si>
-  <si>
-    <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>GERBEN DOORNBOS;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MANFRINI MAURICIO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+    <t>TRINH XUAN TUNG;;김진배;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;하키우;;트린수안텅;;KIM JIN BAE</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN</t>
+  </si>
+  <si>
+    <t>DOORNBOS GERBEN;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
   </si>
   <si>
     <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
   <si>
-    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NIU YUEZHEN;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;SMELYANSKIY VADIM;;ハルトムート・ネーフェン</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1425,7 @@
         <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R2" t="s">
         <v>236</v>
@@ -1517,7 +1520,7 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1532,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R3" t="s">
         <v>237</v>
@@ -1606,7 +1609,7 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M4">
         <v>0.8333333333333336</v>
@@ -1621,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R4" t="s">
         <v>238</v>
@@ -1710,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R5" t="s">
         <v>239</v>
@@ -1799,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R6" t="s">
         <v>240</v>
@@ -1888,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R7" t="s">
         <v>241</v>
@@ -1962,7 +1965,7 @@
         <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1977,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="R8" t="s">
         <v>242</v>
@@ -2128,7 +2131,7 @@
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2143,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R10" t="s">
         <v>244</v>
@@ -2232,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R11" t="s">
         <v>245</v>
@@ -2294,13 +2297,13 @@
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2315,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R12" t="s">
         <v>246</v>
@@ -2377,7 +2380,7 @@
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
         <v>134</v>
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R13" t="s">
         <v>247</v>
@@ -2487,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R14" t="s">
         <v>248</v>
@@ -2638,7 +2641,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2727,7 +2730,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2816,7 +2819,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2837,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R18" t="s">
         <v>251</v>
@@ -2899,7 +2902,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2920,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R19" t="s">
         <v>252</v>
@@ -2988,13 +2991,13 @@
         <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" t="s">
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3160,13 +3163,13 @@
         <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3332,13 +3335,13 @@
         <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3421,7 +3424,7 @@
         <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" t="s">
         <v>134</v>
@@ -3442,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R25" t="s">
         <v>258</v>
@@ -3510,7 +3513,7 @@
         <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3599,13 +3602,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3682,7 +3685,7 @@
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3771,7 +3774,7 @@
         <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3792,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R29" t="s">
         <v>262</v>
@@ -3881,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R30" t="s">
         <v>263</v>
@@ -3943,13 +3946,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3964,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R31" t="s">
         <v>264</v>
@@ -4474,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R37" t="s">
         <v>270</v>
@@ -4877,10 +4880,10 @@
         <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -5458,10 +5461,10 @@
         <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5648,7 +5651,7 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R51" t="s">
         <v>270</v>
@@ -5793,7 +5796,7 @@
         <v>147</v>
       </c>
       <c r="J53" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="K53" t="s">
         <v>134</v>
@@ -5876,13 +5879,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -6469,13 +6472,13 @@
         <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6490,7 +6493,7 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R61" t="s">
         <v>293</v>
@@ -6579,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R62" t="s">
         <v>294</v>
@@ -6662,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R63" t="s">
         <v>295</v>
@@ -6751,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R64" t="s">
         <v>296</v>
@@ -6834,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R65" t="s">
         <v>297</v>
@@ -6902,13 +6905,13 @@
         <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6923,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R66" t="s">
         <v>293</v>
@@ -7012,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R67" t="s">
         <v>298</v>
@@ -7095,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R68" t="s">
         <v>299</v>
@@ -7163,7 +7166,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7184,10 +7187,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R69" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7273,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R70" t="s">
         <v>298</v>
@@ -7335,7 +7338,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7356,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R71" t="s">
         <v>251</v>
@@ -7445,7 +7448,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R72" t="s">
         <v>296</v>
@@ -7507,13 +7510,13 @@
         <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="K73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7528,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7617,10 +7620,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7700,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R75" t="s">
         <v>297</v>
@@ -7789,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7878,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R77" t="s">
         <v>294</v>
@@ -7961,10 +7964,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R78" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8023,7 +8026,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8044,10 +8047,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R79" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8106,7 +8109,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8127,10 +8130,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8189,13 +8192,13 @@
         <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="K81" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8210,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R81" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8293,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R82" t="s">
         <v>295</v>
@@ -8361,13 +8364,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8382,10 +8385,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8450,13 +8453,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8471,10 +8474,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R84" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8536,10 +8539,10 @@
         <v>143</v>
       </c>
       <c r="K85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8554,10 +8557,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="R85" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8619,10 +8622,10 @@
         <v>143</v>
       </c>
       <c r="K86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8637,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="R86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8702,10 +8705,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8723,7 +8726,7 @@
         <v>231</v>
       </c>
       <c r="R87" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8791,10 +8794,10 @@
         <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8812,7 +8815,7 @@
         <v>232</v>
       </c>
       <c r="R88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8880,10 +8883,10 @@
         <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L89" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8901,7 +8904,7 @@
         <v>232</v>
       </c>
       <c r="R89" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8963,10 +8966,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8984,7 +8987,7 @@
         <v>231</v>
       </c>
       <c r="R90" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9052,10 +9055,10 @@
         <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9073,7 +9076,7 @@
         <v>232</v>
       </c>
       <c r="R91" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9162,7 +9165,7 @@
         <v>233</v>
       </c>
       <c r="R92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9248,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R93" t="s">
         <v>248</v>
@@ -9337,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R94" t="s">
         <v>248</v>
@@ -9426,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R95" t="s">
         <v>248</v>
@@ -9515,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R96" t="s">
         <v>248</v>
@@ -9604,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R97" t="s">
         <v>248</v>
@@ -9690,7 +9693,7 @@
         <v>234</v>
       </c>
       <c r="R98" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9773,7 +9776,7 @@
         <v>234</v>
       </c>
       <c r="R99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9838,13 +9841,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L100" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9862,7 +9865,7 @@
         <v>235</v>
       </c>
       <c r="R100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9927,13 +9930,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L101" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9951,7 +9954,7 @@
         <v>235</v>
       </c>
       <c r="R101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10016,13 +10019,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K102" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L102" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10040,7 +10043,7 @@
         <v>235</v>
       </c>
       <c r="R102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10123,7 +10126,7 @@
         <v>234</v>
       </c>
       <c r="R103" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10206,7 +10209,7 @@
         <v>234</v>
       </c>
       <c r="R104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10271,13 +10274,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K105" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L105" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10295,7 +10298,7 @@
         <v>235</v>
       </c>
       <c r="R105" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10360,13 +10363,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10384,7 +10387,7 @@
         <v>235</v>
       </c>
       <c r="R106" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="314">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -499,85 +499,94 @@
     <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
   </si>
   <si>
-    <t>CN;;WO;;US;;GB;;DE;;JP</t>
-  </si>
-  <si>
-    <t>AU;;SG;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>EP;;WO;;US</t>
-  </si>
-  <si>
-    <t>WO;;CN;;EP;;US</t>
-  </si>
-  <si>
-    <t>AU;;EP;;CN;;WO;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CA;;WO;;US</t>
-  </si>
-  <si>
-    <t>US;;CA;;WO;;KR</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;TW</t>
-  </si>
-  <si>
-    <t>WO;;CA;;EP;;US</t>
-  </si>
-  <si>
-    <t>AU;;EP;;WO;;KR;;US;;CA</t>
-  </si>
-  <si>
-    <t>CA;;WO;;US</t>
-  </si>
-  <si>
-    <t>KR;;CN;;WO;;US</t>
-  </si>
-  <si>
-    <t>KR;;EP;;TW;;CN;;WO;;US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;WO;;US</t>
-  </si>
-  <si>
-    <t>SG;;EP;;TW;;WO;;GB;;CA</t>
-  </si>
-  <si>
-    <t>EP;;CN;;KR;;US;;CA;;JP</t>
-  </si>
-  <si>
-    <t>WO;;FR;;EP</t>
+    <t>US;;GB;;CN;;WO;;DE;;JP</t>
+  </si>
+  <si>
+    <t>US;;CN;;CA;;SG;;EP;;WO;;JP;;AU;;KR</t>
+  </si>
+  <si>
+    <t>US;;WO;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN</t>
+  </si>
+  <si>
+    <t>WO;;US;;CN;;EP</t>
+  </si>
+  <si>
+    <t>US;;CN;;CA;;WO;;EP;;JP;;AU;;KR</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO;;EP</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO;;KR</t>
+  </si>
+  <si>
+    <t>US;;WO;;TW;;EP</t>
+  </si>
+  <si>
+    <t>WO;;CA;;US;;EP</t>
+  </si>
+  <si>
+    <t>US;;AU;;WO;;EP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>CA;;US;;WO</t>
+  </si>
+  <si>
+    <t>US;;CN;;WO;;KR</t>
+  </si>
+  <si>
+    <t>US;;TW;;CN;;WO;;EP;;JP;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;WO;;EP</t>
+  </si>
+  <si>
+    <t>US;;EP</t>
+  </si>
+  <si>
+    <t>GB;;WO;;SG;;EP;;CA;;TW</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>WO;;EP;;FR</t>
   </si>
   <si>
     <t>US;;EP;;KR</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;WO;;US;;JP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;US;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;KR;;CA;;JP</t>
-  </si>
-  <si>
-    <t>EP;;CN;;JP;;KR</t>
-  </si>
-  <si>
-    <t>AU;;CA;;EP;;KR</t>
-  </si>
-  <si>
-    <t>TW;;CN;;US</t>
-  </si>
-  <si>
-    <t>IL;;AU;;KR;;EP;;TW;;CN;;WO;;RU;;US;;CA;;ZA;;JP</t>
-  </si>
-  <si>
-    <t>IL;;AU;;EP;;TW;;RU;;CN;;WO;;KR;;US;;CA;;ZA;;JP</t>
+    <t>US;;CN;;JP</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;WO;;JP;;KR</t>
+  </si>
+  <si>
+    <t>US;;CN;;EP;;JP;;KR</t>
+  </si>
+  <si>
+    <t>CN;;EP;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>CN;;EP;;KR;;JP</t>
+  </si>
+  <si>
+    <t>US;;JP</t>
+  </si>
+  <si>
+    <t>US;;CN;;TW</t>
+  </si>
+  <si>
+    <t>RU;;TW;;US;;AU;;CN;;EP;;WO;;IL;;JP;;CA;;ZA;;KR</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;SG;;EP;;WO;;JP;;CA;;KR</t>
+  </si>
+  <si>
+    <t>US;;AU;;CN;;WO;;EP;;JP;;CA;;KR</t>
   </si>
   <si>
     <t>GB</t>
@@ -601,40 +610,40 @@
     <t>RU</t>
   </si>
   <si>
-    <t>IB;;US</t>
-  </si>
-  <si>
-    <t>AU;;CA;;US</t>
+    <t>US;;IB</t>
+  </si>
+  <si>
+    <t>AU;;US;;CA</t>
   </si>
   <si>
     <t>CA;;US</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
   </si>
   <si>
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM;;IBM UK</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;BARENDS RAMI;;NIU YUEZHEN;;GOOGLE INC;;ラミ・バレントス</t>
+    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;GOOGLE INC;;ラミ・バレントス</t>
   </si>
   <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
-    <t>INST MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
   </si>
   <si>
     <t>QUANTUM SILICON INC</t>
@@ -646,37 +655,37 @@
     <t>STRATUSCENT INC</t>
   </si>
   <si>
-    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;MOLINSKY BRADLEY DEAN</t>
+    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
   </si>
   <si>
-    <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
-  </si>
-  <si>
-    <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IRIDIA INC;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
-  </si>
-  <si>
-    <t>IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH</t>
-  </si>
-  <si>
-    <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+    <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+  </si>
+  <si>
+    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+  </si>
+  <si>
+    <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー</t>
+  </si>
+  <si>
+    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
     <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
@@ -688,7 +697,7 @@
     <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
   </si>
   <si>
-    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
   </si>
   <si>
     <t>UNIV SOUTHEAST;;东南大学</t>
@@ -697,181 +706,181 @@
     <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
   </si>
   <si>
-    <t>HITACHI LTD;;株式会社日立製作所</t>
+    <t>株式会社日立製作所;;HITACHI LTD</t>
   </si>
   <si>
     <t>IUCF HYU;;한양대학교 산학협력단</t>
   </si>
   <si>
-    <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>GOOGLE LLC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE INC;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;GOOGLE LLC;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;GOOGLE INC;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;マクルーア ザ サード、ダグラス、テンプルトン;;ガンベッタ、ジェイ;;M·斯蒂芬;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;MATTHIAS STEFFEN;;PHAN ANNA;;KUCZYNSKI JOSEPH;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY M;;JAVADIABHARI ALI;;OLIVADESE SALVATORE BERNARDO;;J·加姆贝塔;;CHEN RICHARD;;HEKMATSHOARTABARI BAHMAN;;HASHEMI POUYA;;JAY GAMBETTA;;MARTIN FERNANDEZ FRANCISCO JOSE;;STEFFEN MATTHIAS;;ステファン、マティアス;;ダイアル、オリバー;;GREENBERG DON;;NANNICINI GIACOMO;;FARO SERTAGE ISMAEL;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;LIU PENG;;O·蒂亚尔;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;REZNICEK ALEXANDER;;MISGEN MARVIN M;;PHAN ANNA T;;TEMME PAUL KRISTAN;;PRZYBYLSKI KEVIN J;;OLIVER DIAL;;ANDO TAKASHI;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;ZHANG JINGYUN;;BISHOP LEV</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ハルトムート・ネーヴェン;;ユエゼン・ニウ;;ライアン・バブシュ;;エドワード・ヘンリー・ファーリ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;BABBUSH RYAN;;NIU YUEZHEN;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>JONES GLENN;;DA SILVA MARCUS PALMER;;REAGOR MATTHEW J;;HEIDEL STEVEN;;DAVIS ERIK JOSEPH;;ZENG WILLIAM J;;PETERSON ERIC CHRISTOPHER;;LYNCH ADAM DAVID;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;RIGETTI CHAD TYLER;;TEZAK NIKOLAS ANTON;;KARALEKAS PETER JONATHAN;;RUST MICHAEL;;ZENG WILLIAM;;CURTIS MICHAEL;;SMITH ROBERT STANLEY;;JOHNSON BLAKE ROBERT;;DESAI ANAND;;SETE EYOB;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J</t>
-  </si>
-  <si>
-    <t>张严波;;HENRY H ADAMSON;;ZHANG YANBO;;RADAMSON HENRY H;;ZHU ZHENGYONG;;WANG GUILEI;;王桂磊;;朱慧珑;;亨利·H·阿达姆松;;ZHU HUILONG;;朱正勇</t>
-  </si>
-  <si>
-    <t>BOOTHBY KELLY T R;;MACREADY WILLIAM G;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
-  </si>
-  <si>
-    <t>BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;LUKIN MIKHAIL;;LUKIN MIKHAIL D;;NGUYEN CHRISTIAN;;CHOI SOONWON;;EVANS RUFFIN;;LUNKIN MIKHAIL;;WANG SHENGTAO;;EVANS RUFFIN E;;ZHOU LEO;;PICHLER HANNES;;ZHOU LEO XIANGYU;;SUKACHEV DENIS D;;SUKACHEV DENIS</t>
-  </si>
-  <si>
-    <t>HUFF TALEANA;;RETALLICK JACOB;;WALUS CONRAD;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN</t>
-  </si>
-  <si>
-    <t>YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR YEHUDA</t>
-  </si>
-  <si>
-    <t>GOULD MATTHEW V;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL</t>
-  </si>
-  <si>
-    <t>BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN</t>
+    <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+  </si>
+  <si>
+    <t>란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシー;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE LLC;;GOOGLE INC;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+  </si>
+  <si>
+    <t>STEFFEN MATTHIAS;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;MARTIN FERNANDEZ FRANCISCO JOSE;;O·蒂亚尔;;ダイアル、オリバー;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;HASHEMI POUYA;;PHAN ANNA;;GAMBETTA JAY M;;OLIVER DIAL;;BISHOP LEV;;MATTHIAS STEFFEN;;PRISCO JOSEPH F;;ZHANG JINGYUN;;NANNICINI GIACOMO;;DIAL OLIVER;;REZNICEK ALEXANDER;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;JAY GAMBETTA;;FARO SERTAGE ISMAEL;;DOUGLAS TEMPLETON MCCLURE III;;GAMBETTA JAY;;M·斯蒂芬;;TEMME PAUL;;MISGEN MARVIN M;;OLIVADESE SALVATORE;;JAVADIABHARI ALI;;KUCZYNSKI JOSEPH;;LIU PENG;;ANDO TAKASHI;;GREENBERG DON;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;D·T·麦克鲁尔三世;;TEMME PAUL KRISTAN;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;PISTOIA MARCO;;PHAN ANNA T;;MCCLURE III DOUGLAS T;;ステファン、マティアス</t>
+  </si>
+  <si>
+    <t>ハルトムート・ネーヴェン;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;BARENDS RAMI;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NEVEN HELMUT;;ライアン・バブシュ;;FARHI EDWARD HENRY;;바엔즈 라미</t>
+  </si>
+  <si>
+    <t>JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;DA SILVA MARCUS PALMER;;DAVIS ERIK JOSEPH;;CURTIS MICHAEL;;SETE EYOB;;SMITH ROBERT STANLEY;;LYNCH ADAM DAVID;;CURTIS MICHAEL J;;DESAI ANAND;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;RUST MICHAEL;;JONES GLENN;;REAGOR MATTHEW J;;PETERSON ERIC CHRISTOPHER;;MCKIERNAN KERI ANN;;ZENG WILLIAM;;KARALEKAS PETER JONATHAN;;ALAM MUHAMMAD SOHAIB;;HEIDEL STEVEN</t>
+  </si>
+  <si>
+    <t>王桂磊;;张严波;;RADAMSON HENRY H;;ZHU HUILONG;;朱慧珑;;朱正勇;;ZHANG YANBO;;WANG GUILEI;;HENRY H ADAMSON;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+  </si>
+  <si>
+    <t>ANDRIYASH EVGENY A;;ROLFE JASON;;YARKONI SHEIR;;XUE YANBO;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;MACREADY WILLIAM G;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>마줌다 아룬;;MAJUMDAR ARUN;;アルン、マジュムダール</t>
+  </si>
+  <si>
+    <t>EVANS RUFFIN;;ZHOU LEO XIANGYU;;WANG SHENGTAO;;EVANS RUFFIN E;;CHOI SOONWON;;SUKACHEV DENIS D;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;LUKIN MIKHAIL;;SUKACHEV DENIS;;PICHLER HANNES;;BHASKAR MIHIR;;LUKIN MIKHAIL D;;ZHOU LEO;;SIPAHIGIL ALP;;NGUYEN CHRISTIAN;;NGUYEN CHRISTIAN THIEU</t>
+  </si>
+  <si>
+    <t>DIENEL THOMAS;;LIVADARU LUCIAN;;HUFF TALEANA;;VINE WYATT;;WALUS KONRAD;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;RETALLICK JACOB;;WALUS CONRAD;;WOLKOW ROBERT A</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+  </si>
+  <si>
+    <t>GAHROOSI AMIR BAHADOR;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GAHROOSI AMIR;;MASILAMANI ASHOK;;GOULD MATTHEW;;KHOMAMI ABADI MOJTABA</t>
+  </si>
+  <si>
+    <t>LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;BHATIA SWAPNIL</t>
+  </si>
+  <si>
+    <t>MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW</t>
   </si>
   <si>
     <t>KAPIT ELIOT</t>
   </si>
   <si>
-    <t>KIM SANG-SIK;;CHO JIN-SUN;;SOHN IL KWON;;CHO KYOUNG-AH;;KIM SANG SIG;;WOO SOL A;;LIM DOO-HYEOK;;HEO JUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>VAHEDI VAHID;;バヘディ・バヘド;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN</t>
-  </si>
-  <si>
-    <t>WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;GRANADE CHRISTOPHER EVAN;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;GAMBLE JOHN KING;;STRAUSS KARIN;;GAMBLE IV JOHN KING;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
-  </si>
-  <si>
-    <t>ARIELI URI;;MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM</t>
+    <t>HEO JUN;;CHO JIN-SUN;;LIM DOO-HYEOK;;CHO KYOUNG AH;;KIM SANG SIG;;KIM SANG-SIK;;CHO JIN SUN;;PARK YOUNG SOO;;WOO SOL-A;;PARK YOUNG-SOO;;LIM DOO HYEOK;;CHO KYOUNG-AH;;SOHN IL KWON;;WOO SOL A</t>
+  </si>
+  <si>
+    <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;ゴットショ・リチャード・アラン;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;グーハ・ジョイディープ;;バヘディ・バヘド</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;GAMBLE IV JOHN KING;;GAMBLE JOHN KING;;STRAUSS KARIN;;A·X·C·科尔;;GRANADE CHRISTOPHER EVAN;;B·H·阮;;R·格拉斯;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;WIEBE NATHAN O;;NGUYEN BICHLIEN HOANG;;W·陈;;K·施特劳斯</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;WOLF LIOR;;MREJEN MICHAEL;;ARIELI URI;;SUCHOWSKI HAIM;;MALKIEL ITZIK</t>
   </si>
   <si>
     <t>YOUNGNER DANIEL</t>
   </si>
   <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>DALLAIRE-DEMERS PIERRE-LUC;;KATABARWA AMARA;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;CAO YUDONG;;ANSCHUETZ ERIC R</t>
-  </si>
-  <si>
-    <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID FRANCOIS;;GUILLOU DAVID;;SINHA RAJARISHI</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
-  </si>
-  <si>
-    <t>VARGO EMMA;;MARKOVIC STACEY;;HUANG HAIYAO;;FRANK IAN WARD;;SPRACHMAN MELISSA M;;FAVALORA GREGG E;;FAVALORA GREGG;;KOTZ KENNETH;;MCFARLAND KIRSTY;;MAGYAR ANDREW P;;ROSENBERGER ERIN;;KOTZ KENNETH T;;BYRNES STEVEN;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;MAGYAR ANDREW;;BYRNES STEVEN J;;CAVANAGH PETER;;DUBAY RYAN A;;FRANK IAN;;DUBAY RYAN</t>
-  </si>
-  <si>
-    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
-  </si>
-  <si>
-    <t>ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ROLFE JASON;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H;;YARKONI SHEIR;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
-  </si>
-  <si>
-    <t>FAUVART MAARTEN;;COVENS KRIS;;CAI QING;;ADELMANN HANNS CHRISTOPH;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
+    <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+  </si>
+  <si>
+    <t>CAO YUDONG;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R</t>
+  </si>
+  <si>
+    <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>KOTZ KENNETH T;;BYRNES STEVEN J;;MCFARLAND KIRSTY A;;MARKOVIC STACEY;;ROSENBERGER ERIN;;HUANG HAIYAO;;BYRNES STEVEN;;VARGO EMMA;;FRANK IAN;;KOTZ KENNETH;;CAVANAGH PETER;;DUBAY RYAN;;MAGYAR ANDREW;;MAGYAR ANDREW P;;DUBAY RYAN A;;FAVALORA GREGG;;FAVALORA GREGG E;;SPRACHMAN MELISSA M;;SPRACHMAN MELISSA;;FRANK IAN WARD;;MCFARLAND KIRSTY</t>
+  </si>
+  <si>
+    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+  </si>
+  <si>
+    <t>ANDRIYASH EVGENY A;;ROLFE JASON;;YARKONI SHEIR;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH;;CAI QING;;FAUVART MAARTEN;;COVENS KRIS;;STAKENBORG TIM;;CHEN CHANG;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
   </si>
   <si>
     <t>NIVALA JEFFREY MATTHEW</t>
   </si>
   <si>
-    <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>HEO KEUN;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG-DONG</t>
+    <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
+  </si>
+  <si>
+    <t>MA YUNPU;;TRESP VOLKER</t>
+  </si>
+  <si>
+    <t>CHOI YONG SOO;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN</t>
   </si>
   <si>
     <t>안도열;;AHN DO YEOL</t>
   </si>
   <si>
-    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+    <t>MAKSYMOVYCH PETRO;;POOSER RAPHAEL C;;LAWRIE BENJAMIN J</t>
   </si>
   <si>
     <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
   </si>
   <si>
-    <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+    <t>HERSAM MARK C;;SANGWAN VINOD K;;LEE HONG-SUB</t>
   </si>
   <si>
     <t>RIZIK LUNA;;DANIEL RAMEZ</t>
   </si>
   <si>
-    <t>TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN;;MANSSON ALF;;KORTEN TILL</t>
-  </si>
-  <si>
-    <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
-  </si>
-  <si>
-    <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
-  </si>
-  <si>
-    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
-  </si>
-  <si>
-    <t>GAO JUNXIONG;;ZHU YU;;ZHOU WENLI;;CHENG RUNHONG;;WU SHUO;;WANG YUNBO;;CHEN CHANGSHENG</t>
-  </si>
-  <si>
-    <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;DICKINSON BENJAMIN T;;BAUR JEFFREY W;;KONDASH COREY R;;REICH GREGORY W;;PANKONIEN ALEXANDER M</t>
-  </si>
-  <si>
-    <t>Huilong Zhu;;Zhengyong Zhu</t>
-  </si>
-  <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
+    <t>REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN;;MANSSON ALF;;TAKATSUKI HIDEYO</t>
+  </si>
+  <si>
+    <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
+  </si>
+  <si>
+    <t>XIA QIANGFEI;;WU QING;;YANG JIANHUA;;MCLEAN MARK</t>
+  </si>
+  <si>
+    <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>ZHOU WENLI;;GAO JUNXIONG;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;WANG YUNBO;;CHENG RUNHONG</t>
+  </si>
+  <si>
+    <t>BAUR JEFFREY W;;KONDASH COREY R;;DICKINSON BENJAMIN T;;SLINKER KEITH;;PANKONIEN ALEXANDER M;;REICH GREGORY W;;MAGAR KAMAN THAPA</t>
+  </si>
+  <si>
+    <t>Zhengyong Zhu;;Huilong Zhu</t>
+  </si>
+  <si>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
   </si>
   <si>
     <t>ZHU HUILONG</t>
   </si>
   <si>
-    <t>FAROKHZAD OMID;;CORBO CLAUDIA;;MAHMOUDI MORTEZA</t>
-  </si>
-  <si>
-    <t>SALAHANDISH RAZIEH;;WANG GANG;;KOUL RAMAN;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH)</t>
+    <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;SALAHANDISH RAZIEH;;KOUL RAMAN;;WANG GANG (A K A JOSEPH)</t>
   </si>
   <si>
     <t>SHIMA SHOHEI</t>
@@ -883,73 +892,70 @@
     <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
   </si>
   <si>
-    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+    <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
   </si>
   <si>
     <t>ZHANG XIANGCHENG;;WU JIAN</t>
   </si>
   <si>
-    <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+    <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
   </si>
   <si>
     <t>ZORNES DAVID</t>
   </si>
   <si>
-    <t>フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>李伟;;LI WEI;;钟豪;;LI DONGYANG;;GU DEEN;;顾德恩;;李东阳;;CHEN YICHENG;;ZHONG HAO;;JIANG YADONG;;蒋亚东;;陈奕丞;;GU DE'EN</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>CHOI JEONG WOO;;최정우;;정용호;;CHUNG YONG HO</t>
-  </si>
-  <si>
-    <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;파쿼 아마드;;신현동</t>
-  </si>
-  <si>
-    <t>李源;;LI YUAN;;张辉;;ZHANG JIN;;幸研;;XING YAN;;张晋;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;B·H·阮;;STRAUSS KARIN;;A·X·C·科尔;;GRASS ROBERT;;R·格拉斯;;W·陈;;K·施特劳斯</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA;;マジャ・キャシディ</t>
+    <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;フォスナー ショーン;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+  </si>
+  <si>
+    <t>JIANG YADONG;;ZHONG HAO;;LI WEI;;钟豪;;CHEN YICHENG;;陈奕丞;;蒋亚东;;李东阳;;GU DE'EN;;李伟;;顾德恩;;GU DEEN;;LI DONGYANG</t>
+  </si>
+  <si>
+    <t>YU XING;;JIANG WEINAN</t>
+  </si>
+  <si>
+    <t>정용호;;최정우;;CHOI JEONG WOO;;CHUNG YONG HO</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;JEONG YOUNG MIN;;정영민;;SHIN HYUN DONG;;FAROOQ AHMAD;;신현동</t>
+  </si>
+  <si>
+    <t>LI YUAN;;ZHANG HUI;;张辉;;幸研;;XING YAN;;ZHANG JIN;;李源;;张晋</t>
+  </si>
+  <si>
+    <t>GRASS ROBERT;;STRAUSS KARIN;;A·X·C·科尔;;B·H·阮;;R·格拉斯;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;W·陈;;K·施特劳斯</t>
   </si>
   <si>
     <t>SHINKAI GOU;;新海 剛</t>
   </si>
   <si>
-    <t>TRINH XUAN TUNG;;김진배;;HA KIEU MY;;윤태현;;YOON TAE HYUN;;하키우;;트린수안텅;;KIM JIN BAE</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;ROQUET NATHANIEL;;PARK HYUNJUN;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>DOORNBOS GERBEN;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
-  </si>
-  <si>
-    <t>NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;セルジオ・バイショ・カストリージョ;;SMELYANSKIY VADIM;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;NIU YUEZHEN;;CASTRILLO SERGIO BOIXO</t>
-  </si>
-  <si>
-    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+    <t>윤태현;;TRINH XUAN TUNG;;하키우;;HA KIEU MY;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;트린수안텅</t>
+  </si>
+  <si>
+    <t>PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+  </si>
+  <si>
+    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+  </si>
+  <si>
+    <t>ヴァディム・スメリャンスキー;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ;;CASTRILLO SERGIO BOIXO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1431,7 @@
         <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
@@ -1446,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1520,7 +1526,7 @@
         <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1535,10 +1541,10 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="R3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -1609,7 +1615,7 @@
         <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M4">
         <v>0.8333333333333336</v>
@@ -1624,10 +1630,10 @@
         <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -1713,10 +1719,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="R5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1781,13 +1787,13 @@
         <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
         <v>144</v>
       </c>
       <c r="L6" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1802,10 +1808,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1870,7 +1876,7 @@
         <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
         <v>134</v>
@@ -1891,10 +1897,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="R7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1959,7 +1965,7 @@
         <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
         <v>134</v>
@@ -1980,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="R8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -2042,7 +2048,7 @@
         <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
         <v>134</v>
@@ -2066,7 +2072,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2125,13 +2131,13 @@
         <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
         <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2146,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="R10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2214,7 +2220,7 @@
         <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
         <v>134</v>
@@ -2235,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2297,13 +2303,13 @@
         <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
         <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2318,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="R12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2380,7 +2386,7 @@
         <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
         <v>134</v>
@@ -2401,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2490,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2641,7 +2647,7 @@
         <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
         <v>134</v>
@@ -2665,7 +2671,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2730,7 +2736,7 @@
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
         <v>150</v>
@@ -2754,7 +2760,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2819,7 +2825,7 @@
         <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
         <v>134</v>
@@ -2840,10 +2846,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2902,7 +2908,7 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
         <v>134</v>
@@ -2923,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2991,13 +2997,13 @@
         <v>140</v>
       </c>
       <c r="J20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
         <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3015,7 +3021,7 @@
         <v>47</v>
       </c>
       <c r="R20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3080,7 +3086,7 @@
         <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
         <v>134</v>
@@ -3104,7 +3110,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3163,13 +3169,13 @@
         <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s">
         <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3187,7 +3193,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3270,7 +3276,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3335,13 +3341,13 @@
         <v>141</v>
       </c>
       <c r="J24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3359,7 +3365,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3424,7 +3430,7 @@
         <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
         <v>134</v>
@@ -3445,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R25" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3513,7 +3519,7 @@
         <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>134</v>
@@ -3537,7 +3543,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3602,13 +3608,13 @@
         <v>142</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3626,7 +3632,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3685,7 +3691,7 @@
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
         <v>134</v>
@@ -3709,7 +3715,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3774,7 +3780,7 @@
         <v>139</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
         <v>134</v>
@@ -3795,10 +3801,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R29" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3884,10 +3890,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="R30" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -3946,13 +3952,13 @@
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -3967,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R31" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4053,7 +4059,7 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4136,7 +4142,7 @@
         <v>60</v>
       </c>
       <c r="R33" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4219,7 +4225,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4302,7 +4308,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4391,7 +4397,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4477,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="Q37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4563,7 +4569,7 @@
         <v>65</v>
       </c>
       <c r="R38" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4646,7 +4652,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4729,7 +4735,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4812,7 +4818,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -4880,10 +4886,10 @@
         <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4901,7 +4907,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -4984,7 +4990,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5067,7 +5073,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5126,7 +5132,7 @@
         <v>146</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s">
         <v>144</v>
@@ -5150,7 +5156,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5233,7 +5239,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5316,7 +5322,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5399,7 +5405,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5461,10 +5467,10 @@
         <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L49" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -5482,7 +5488,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5565,7 +5571,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5651,10 +5657,10 @@
         <v>2</v>
       </c>
       <c r="Q51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R51" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5737,7 +5743,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5820,7 +5826,7 @@
         <v>80</v>
       </c>
       <c r="R53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="S53" t="b">
         <v>0</v>
@@ -5879,13 +5885,13 @@
         <v>148</v>
       </c>
       <c r="J54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -5903,7 +5909,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -5986,7 +5992,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6069,7 +6075,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6152,7 +6158,7 @@
         <v>84</v>
       </c>
       <c r="R57" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6235,7 +6241,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6324,7 +6330,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6407,7 +6413,7 @@
         <v>87</v>
       </c>
       <c r="R60" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6472,13 +6478,13 @@
         <v>149</v>
       </c>
       <c r="J61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -6493,10 +6499,10 @@
         <v>2</v>
       </c>
       <c r="Q61" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="R61" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6561,7 +6567,7 @@
         <v>146</v>
       </c>
       <c r="J62" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K62" t="s">
         <v>144</v>
@@ -6582,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R62" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6665,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R63" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6754,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R64" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6837,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R65" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -6905,13 +6911,13 @@
         <v>151</v>
       </c>
       <c r="J66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -6926,10 +6932,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="R66" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7015,10 +7021,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R67" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7098,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R68" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7166,7 +7172,7 @@
         <v>153</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
         <v>134</v>
@@ -7187,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R69" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7276,10 +7282,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R70" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7338,7 +7344,7 @@
         <v>154</v>
       </c>
       <c r="J71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K71" t="s">
         <v>134</v>
@@ -7359,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7448,10 +7454,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R72" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7510,13 +7516,13 @@
         <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -7531,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R73" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7620,10 +7626,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7703,10 +7709,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="R75" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7792,10 +7798,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="R76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7860,7 +7866,7 @@
         <v>146</v>
       </c>
       <c r="J77" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K77" t="s">
         <v>144</v>
@@ -7881,10 +7887,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="R77" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -7943,7 +7949,7 @@
         <v>156</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="K78" t="s">
         <v>134</v>
@@ -7964,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="R78" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8026,7 +8032,7 @@
         <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K79" t="s">
         <v>134</v>
@@ -8047,10 +8053,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R79" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8109,7 +8115,7 @@
         <v>157</v>
       </c>
       <c r="J80" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K80" t="s">
         <v>134</v>
@@ -8130,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="R80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8192,13 +8198,13 @@
         <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="K81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -8213,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="R81" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8296,10 +8302,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R82" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8364,13 +8370,13 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -8385,10 +8391,10 @@
         <v>1</v>
       </c>
       <c r="Q83" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R83" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8453,13 +8459,13 @@
         <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -8474,10 +8480,10 @@
         <v>1</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="R84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="S84" t="b">
         <v>1</v>
@@ -8536,13 +8542,13 @@
         <v>143</v>
       </c>
       <c r="J85" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -8557,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R85" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8619,13 +8625,13 @@
         <v>143</v>
       </c>
       <c r="J86" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="K86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L86" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8640,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R86" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8705,10 +8711,10 @@
         <v>150</v>
       </c>
       <c r="K87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -8723,10 +8729,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R87" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S87" t="b">
         <v>1</v>
@@ -8794,10 +8800,10 @@
         <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L88" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -8812,10 +8818,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R88" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S88" t="b">
         <v>1</v>
@@ -8883,10 +8889,10 @@
         <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L89" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -8901,10 +8907,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R89" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S89" t="b">
         <v>1</v>
@@ -8966,10 +8972,10 @@
         <v>150</v>
       </c>
       <c r="K90" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L90" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -8984,10 +8990,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="R90" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S90" t="b">
         <v>0</v>
@@ -9055,10 +9061,10 @@
         <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L91" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -9073,10 +9079,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R91" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S91" t="b">
         <v>1</v>
@@ -9141,7 +9147,7 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="K92" t="s">
         <v>134</v>
@@ -9162,10 +9168,10 @@
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S92" t="b">
         <v>1</v>
@@ -9251,10 +9257,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S93" t="b">
         <v>1</v>
@@ -9340,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R94" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S94" t="b">
         <v>1</v>
@@ -9429,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R95" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S95" t="b">
         <v>1</v>
@@ -9518,10 +9524,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R96" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S96" t="b">
         <v>1</v>
@@ -9607,10 +9613,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="R97" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="S97" t="b">
         <v>1</v>
@@ -9669,7 +9675,7 @@
         <v>159</v>
       </c>
       <c r="J98" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="K98" t="s">
         <v>134</v>
@@ -9690,10 +9696,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R98" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S98" t="b">
         <v>1</v>
@@ -9752,7 +9758,7 @@
         <v>159</v>
       </c>
       <c r="J99" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="K99" t="s">
         <v>134</v>
@@ -9773,10 +9779,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R99" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9841,13 +9847,13 @@
         <v>160</v>
       </c>
       <c r="J100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K100" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L100" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9862,10 +9868,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R100" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S100" t="b">
         <v>0</v>
@@ -9930,13 +9936,13 @@
         <v>160</v>
       </c>
       <c r="J101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K101" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L101" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -9951,10 +9957,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R101" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S101" t="b">
         <v>0</v>
@@ -10019,13 +10025,13 @@
         <v>160</v>
       </c>
       <c r="J102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K102" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L102" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10040,10 +10046,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R102" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10102,7 +10108,7 @@
         <v>159</v>
       </c>
       <c r="J103" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="K103" t="s">
         <v>134</v>
@@ -10123,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="Q103" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R103" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10185,7 +10191,7 @@
         <v>159</v>
       </c>
       <c r="J104" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="K104" t="s">
         <v>134</v>
@@ -10206,10 +10212,10 @@
         <v>0</v>
       </c>
       <c r="Q104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R104" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10274,13 +10280,13 @@
         <v>160</v>
       </c>
       <c r="J105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K105" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L105" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10295,10 +10301,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R105" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S105" t="b">
         <v>0</v>
@@ -10363,13 +10369,13 @@
         <v>160</v>
       </c>
       <c r="J106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K106" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L106" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10384,10 +10390,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="R106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER;;MAXIM GEORGE ADRIAN</t>
+          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>GB;;US;;WO;;DE;;CN;;JP</t>
+          <t>CN;;US;;WO;;DE;;JP;;GB</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;国际商业机器公司;;IBM</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NEUMAN-HORN DEBRA A;;TEMME PAUL;;NANNICINI GIACOMO;;PHAN ANNA T;;PRISCO JOSEPH F;;BISHOP LEV SAMUEL;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;ダイアル、オリバー;;O·蒂亚尔;;MATTHIAS STEFFEN;;GREENBERG DON;;MISGEN MARVIN M;;GAMBETTA JAY M;;ステファン、マティアス;;HEKMATSHOARTABARI BAHMAN;;KUCZYNSKI JOSEPH;;REZNICEK ALEXANDER;;JAY GAMBETTA;;TEMME PAUL KRISTAN;;HASHEMI POUYA;;BISHOP LEV;;DOUGLAS TEMPLETON MCCLURE III;;MARTIN FERNANDEZ FRANCISCO JOSE;;PRZYBYLSKI KEVIN J;;OLIVER DIAL;;LIU PENG;;PHAN ANNA;;ZHANG JINGYUN;;STEFFEN MATTHIAS;;CHEN RICHARD;;DIAL OLIVER;;OLIVADESE SALVATORE;;ガンベッタ、ジェイ;;J·加姆贝塔;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI;;M·斯蒂芬;;PISTOIA MARCO;;LEE CHOONGHYUN;;GAMBETTA JAY;;D·T·麦克鲁尔三世;;ANDO TAKASHI;;CORCOLES-GONZALEZ ANTONIO;;マクルーア ザ サード、ダグラス、テンプルトン;;MCCLURE III DOUGLAS T</t>
+          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;BISHOP LEV;;GREENBERG DON;;M·斯蒂芬;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;O·蒂亚尔;;OLIVER DIAL;;REZNICEK ALEXANDER;;PHAN ANNA;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;ダイアル、オリバー;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;D·T·麦克鲁尔三世;;MISGEN MARVIN M;;JAY GAMBETTA;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;ガンベッタ、ジェイ;;KUCZYNSKI JOSEPH;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL;;DIAL OLIVER;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;LEE CHOONGHYUN;;PISTOIA MARCO;;DOUGLAS TEMPLETON MCCLURE III;;J·加姆贝塔;;ANDO TAKASHI;;CORCOLES-GONZALEZ ANTONIO;;HEKMATSHOARTABARI BAHMAN;;MATTHIAS STEFFEN;;BISHOP LEV SAMUEL;;HASHEMI POUYA;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;ZHANG JINGYUN;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>US;;CA;;AU</t>
+          <t>CA;;US;;AU</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;GOOGLE INC;;SMELYANSKIY VADIM;;구글 엘엘씨;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;BABBUSH RYAN;;NIU YUEZHEN;;바엔즈 라미;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM;;ラミ・バレントス;;セルジオ・バイショ・カストリージョ;;NEVEN HELMUT;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;ライアン・バブシュ;;BOIXO CASTRILLO SERGIO;;BARENDS RAMI;;ユエゼン・ニウ;;ハルトムート・ネーヴェン</t>
+          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;WO;;EP</t>
+          <t>US;;EP;;WO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>TEZAK NIKOLAS ANTON;;PETERSON ERIC CHRISTOPHER;;DAVIS ERIK JOSEPH;;RUST MICHAEL;;REAGOR MATTHEW J;;CURTIS MICHAEL J;;JONES GLENN;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM;;DA SILVA MARCUS PALMER;;OSBORN CHRISTOPHER BUTLER;;DESAI ANAND;;SMITH ROBERT STANLEY;;HEIDEL STEVEN;;MCKIERNAN KERI ANN;;RIGETTI CHAD TYLER;;LYNCH ADAM DAVID;;ALAM MUHAMMAD SOHAIB;;WILSON CHRISTOPHER MOGAN;;CURTIS MICHAEL;;SETE EYOB;;ZENG WILLIAM J;;KARALEKAS PETER JONATHAN;;SETE EYOB A</t>
+          <t>CURTIS MICHAEL;;REAGOR MATTHEW J;;KARALEKAS PETER JONATHAN;;SETE EYOB A;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;JOHNSON BLAKE ROBERT;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;ALAM MUHAMMAD SOHAIB;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;OSBORN CHRISTOPHER BUTLER;;RUST MICHAEL;;RIGETTI CHAD TYLER;;JONES GLENN;;SETE EYOB;;DESAI ANAND;;CURTIS MICHAEL J;;LYNCH ADAM DAVID;;DAVIS ERIK JOSEPH</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>亨利·H·阿达姆松;;王桂磊;;朱慧珑;;朱正勇;;ZHANG YANBO;;ZHU HUILONG;;张严波;;HENRY H ADAMSON;;RADAMSON HENRY H;;ZHU ZHENGYONG;;WANG GUILEI</t>
+          <t>朱正勇;;朱慧珑;;RADAMSON HENRY H;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;EP</t>
+          <t>CN;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;AMIN MOHAMMAD H S;;MACREADY WILLIAM G;;ROLFE JASON;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;BOOTHBY KELLY T R;;KING ANDREW DOUGLAS;;XUE YANBO;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY</t>
+          <t>BOOTHBY THOMAS J;;XUE YANBO;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>마줌다 아룬;;アルン、マジュムダール;;MAJUMDAR ARUN</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>US;;CA;;WO;;EP</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>SUKACHEV DENIS D;;WANG SHENGTAO;;LUKIN MIKHAIL D;;PICHLER HANNES;;LUKIN MIKHAIL;;BHASKAR MIHIR;;EVANS RUFFIN;;ZHOU LEO;;ZHOU LEO XIANGYU;;SIPAHIGIL ALP;;BHASKAR MIHIR KESHAV;;CHOI SOONWON;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN;;NGUYEN CHRISTIAN THIEU;;EVANS RUFFIN E;;SUKACHEV DENIS</t>
+          <t>PICHLER HANNES;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;CHOI SOONWON;;LUNKIN MIKHAIL;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;ZHOU LEO;;WANG SHENGTAO;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;LUKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>KR;;US;;CA;;WO</t>
+          <t>CA;;US;;KR;;WO</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DIENEL THOMAS;;WOLKOW ROBERT A;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;WALUS CONRAD;;LIVADARU LUCIAN;;VINE WYATT;;WALUS KONRAD;;RETALLICK JACOB;;HUFF TALEANA;;WOLKOW ROBERT</t>
+          <t>CROSHAW JEREMIAH;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>US;;TW;;WO;;EP</t>
+          <t>TW;;EP;;US;;WO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
+          <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>US;;CA;;WO;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR;;MASILAMANI ASHOK;;GOULD MATTHEW;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR</t>
+          <t>MASILAMANI ASHOK;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>US;;WO;;KR;;AU;;CA;;EP</t>
+          <t>WO;;KR;;CA;;EP;;US;;AU</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;BHATIA SWAPNIL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>US;;CA;;WO</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>US;;KR;;WO;;CN</t>
+          <t>CN;;US;;KR;;WO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CHO JIN SUN;;SOHN IL KWON;;KIM SANG SIG;;CHO JIN-SUN;;LIM DOO HYEOK;;LIM DOO-HYEOK;;CHO KYOUNG-AH;;CHO KYOUNG AH;;WOO SOL-A;;PARK YOUNG-SOO;;WOO SOL A;;HEO JUN;;PARK YOUNG SOO;;KIM SANG-SIK</t>
+          <t>KIM SANG-SIK;;CHO JIN SUN;;LIM DOO-HYEOK;;HEO JUN;;WOO SOL-A;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO JIN-SUN;;SOHN IL KWON;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG SIG;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;TW;;EP</t>
+          <t>CN;;WO;;KR;;TW;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN</t>
+          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;EP</t>
+          <t>CN;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;R·格拉斯;;GAMBLE IV JOHN KING;;B·H·阮;;WIEBE NATHAN O;;K·施特劳斯;;CHEN WEIDA;;GRANADE CHRISTOPHER EVAN;;W·陈;;STRAUSS KARIN;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRASS ROBERT;;GAMBLE JOHN KING</t>
+          <t>K·施特劳斯;;GAMBLE JOHN KING;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;B·H·阮;;W·陈;;NGUYEN BICHLIEN HOANG</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>MREJEN MICHAEL;;NAGLER ACHIYA;;MALKIEL ITZIK;;WOLF LIOR;;SUCHOWSKI HAIM;;ARIELI URI</t>
+          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>JOHNSON PETER D;;CAO YUDONG;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;DALLAIRE-DEMERS PIERRE-LUC</t>
+          <t>CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>GB;;WO;;EP;;SG;;TW;;CA</t>
+          <t>WO;;CA;;TW;;EP;;GB;;SG</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER;;MATTHEW JAMES HAYES</t>
+          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>US;;CN;;JP;;KR;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2974,12 +2974,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S25" t="b">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS;;GUILLOU DAVID</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>CAVANAGH PETER;;VARGO EMMA;;MCFARLAND KIRSTY;;BYRNES STEVEN;;ROSENBERGER ERIN;;DUBAY RYAN;;MAGYAR ANDREW;;HUANG HAIYAO;;FRANK IAN WARD;;DUBAY RYAN A;;KOTZ KENNETH;;SPRACHMAN MELISSA;;FRANK IAN;;MARKOVIC STACEY;;MCFARLAND KIRSTY A;;MAGYAR ANDREW P;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;KOTZ KENNETH T;;BYRNES STEVEN J;;FAVALORA GREGG E</t>
+          <t>ROSENBERGER ERIN;;MCFARLAND KIRSTY;;FRANK IAN WARD;;FAVALORA GREGG E;;KOTZ KENNETH;;FRANK IAN;;MCFARLAND KIRSTY A;;MAGYAR ANDREW;;BYRNES STEVEN J;;BYRNES STEVEN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;CAVANAGH PETER;;KOTZ KENNETH T;;MAGYAR ANDREW P;;HUANG HAIYAO;;DUBAY RYAN A;;DUBAY RYAN</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;AMIN MOHAMMAD H S;;ROLFE JASON;;LANTING TREVOR MICHAEL;;BOOTHBY THOMAS J;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY</t>
+          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CHEN CHANG;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;FAUVART MAARTEN;;CIUBOTARU FLORIN;;CAI QING;;STAKENBORG TIM;;COVENS KRIS</t>
+          <t>CAI QING;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;COVENS KRIS</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>XU JUN;;LIANG RENRONG;;LIU YU;;ZHAO LINYUAN</t>
+          <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>SIU MAN-HUNG;;JIANG ZHUOLIN;;FONG KIN CHUNG</t>
+          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
         </is>
       </c>
       <c r="S34" t="b">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>LEE HYUNG DONG;;HEO KEUN;;CHOI YONG-SOO;;LEE HYUNG-DONG;;CHOI YONG SOO</t>
+          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;CHOI YONG SOO</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+          <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
         </is>
       </c>
       <c r="S38" t="b">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>LEE HONG-SUB;;HERSAM MARK C;;SANGWAN VINOD K</t>
+          <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;DIEZ STEFAN;;REUTHER CORDULA;;KORTEN TILL;;TAKATSUKI HIDEYO</t>
+          <t>MANSSON ALF;;KORTEN TILL;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
+          <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
         </is>
       </c>
       <c r="S43" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>WU QING;;XIA QIANGFEI;;YANG JIANHUA;;MCLEAN MARK</t>
+          <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>REN DELIANG;;WANG KAIYANG;;YAN XIAOBING</t>
+          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>CHEN CHANGSHENG;;WU SHUO;;CHENG RUNHONG;;ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU</t>
+          <t>ZHOU WENLI;;GAO JUNXIONG;;ZHU YU;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;DICKINSON BENJAMIN T;;KONDASH COREY R;;REICH GREGORY W;;SLINKER KEITH</t>
+          <t>REICH GREGORY W;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;SLINKER KEITH;;DICKINSON BENJAMIN T;;KONDASH COREY R</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="S48" t="b">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>WANG GANG;;VASTAREY NIKHIL SURESH;;KOUL RAMAN;;BHAT SUMRITA;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;KAPOOR ANMOL SINGH</t>
+          <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ZHANG XIANGCHENG;;WU JIAN</t>
+          <t>WU JIAN;;ZHANG XIANGCHENG</t>
         </is>
       </c>
       <c r="S58" t="b">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
+          <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
         </is>
       </c>
       <c r="S59" t="b">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;EP</t>
+          <t>CN;;WO;;KR;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR</t>
+          <t>BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;フォスナー ショーン;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー</t>
+          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>钟豪;;顾德恩;;蒋亚东;;LI DONGYANG;;CHEN YICHENG;;李东阳;;李伟;;LI WEI;;GU DE'EN;;ZHONG HAO;;陈奕丞;;GU DEEN;;JIANG YADONG</t>
+          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>정영민;;신현동;;파쿼 아마드;;SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN</t>
+          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>US;;CN;;JP;;KR;;EP</t>
+          <t>CN;;KR;;EP;;JP;;US</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7085,12 +7085,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;フォスナー ショーン;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;ブラウン シモン アンソニー</t>
+          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;幸研;;张辉;;李源;;张晋;;LI YUAN;;ZHANG JIN;;XING YAN</t>
+          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7287,12 +7287,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>微软技术许可有限责任公司;;MICROSOFT TECHNOLOGY LICENSING LLC</t>
+          <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;A·X·C·科尔;;R·格拉斯;;B·H·阮;;CHEN WEIDA;;W·陈;;STRAUSS KARIN;;K·施特劳斯;;GRASS ROBERT</t>
+          <t>K·施特劳斯;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;B·H·阮;;W·陈;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>CN;;JP;;KR;;CA;;EP</t>
+          <t>CN;;KR;;CA;;EP;;JP</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
+          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>ZHANG HUI;;幸研;;张辉;;李源;;张晋;;LI YUAN;;ZHANG JIN;;XING YAN</t>
+          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>JP;;KR;;CN;;EP</t>
+          <t>CN;;KR;;EP;;JP</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>GUHA JOYDEEP;;バヘディ・バヘド;;グーハ・ジョイディープ;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;ダウガティ・ジョン;;GOTTSCHO RICHARD ALAN</t>
+          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>정용호;;CHUNG YONG HO;;CHOI JEONG WOO;;최정우</t>
+          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>하키우;;YOON TAE HYUN;;윤태현;;HA KIEU MY;;TRINH XUAN TUNG;;김진배;;KIM JIN BAE;;트린수안텅</t>
+          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>정영민;;신현동;;파쿼 아마드;;SHIN HYUN DONG;;FAROOQ AHMAD;;JEONG YOUNG MIN</t>
+          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>하키우;;YOON TAE HYUN;;윤태현;;HA KIEU MY;;TRINH XUAN TUNG;;김진배;;KIM JIN BAE;;트린수안텅</t>
+          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>钟豪;;顾德恩;;蒋亚东;;LI DONGYANG;;CHEN YICHENG;;李东阳;;李伟;;LI WEI;;GU DE'EN;;ZHONG HAO;;陈奕丞;;GU DEEN;;JIANG YADONG</t>
+          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>KR;;CA;;EP;;AU</t>
+          <t>CA;;EP;;KR;;AU</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
+          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
         </is>
       </c>
       <c r="S78" t="b">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>CN;;US;;TW</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>US;;TW;;CN</t>
+          <t>CN;;US;;TW</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;GERBEN DOORNBOS;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;VAN DAL MARCUS JOHANNES HENRICUS</t>
+          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>新海 剛;;SHINKAI GOU</t>
+          <t>SHINKAI GOU;;新海 剛</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8800,12 +8800,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9002,12 +9002,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>COSTA JOSE DIOGO;;CIUBOTARU FLORIN;;ADELMANN HANNS CHRISTOPH</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S86" t="b">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -9608,12 +9608,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>THE UNIV OF CANTERBURY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;SG;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;GOOGLE LLC;;BARENDS RAMI;;グーグル エルエルシー</t>
+          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10020,12 +10020,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>DUNST MICHAEL J;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10325,12 +10325,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -10424,12 +10424,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S99" t="b">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -10527,12 +10527,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10733,12 +10733,12 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S102" t="b">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10832,12 +10832,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;JP;;KR;;AU;;CA;;EP</t>
+          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;GOOGLE INC;;GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>NEVEN HARTMUT;;NIU YUEZHEN;;SMELYANSKIY VADIM;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;CASTRILLO SERGIO BOIXO;;BOIXO CASTRILLO SERGIO;;ハルトムート・ネーフェン;;ユエゼン・ニウ</t>
+          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -11034,12 +11034,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>US;;WO;;CN;;RU;;JP;;ZA;;KR;;AU;;EP;;CA;;IL;;TW</t>
+          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -11137,12 +11137,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S106" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CN;;US;;WO;;DE;;JP;;GB</t>
+          <t>WO;;JP;;US;;GB;;DE;;CN</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NANNICINI GIACOMO;;GAMBETTA JAY;;BISHOP LEV;;GREENBERG DON;;M·斯蒂芬;;PRZYBYLSKI KEVIN J;;TEMME PAUL KRISTAN;;STEFFEN MATTHIAS;;PHAN ANNA T;;O·蒂亚尔;;OLIVER DIAL;;REZNICEK ALEXANDER;;PHAN ANNA;;LIU PENG;;マクルーア ザ サード、ダグラス、テンプルトン;;ステファン、マティアス;;ダイアル、オリバー;;OLIVADESE SALVATORE;;MCCLURE III DOUGLAS T;;D·T·麦克鲁尔三世;;MISGEN MARVIN M;;JAY GAMBETTA;;OLIVADESE SALVATORE BERNARDO;;GAMBETTA JAY M;;ガンベッタ、ジェイ;;KUCZYNSKI JOSEPH;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL;;DIAL OLIVER;;PRISCO JOSEPH F;;NEUMAN-HORN DEBRA A;;LEE CHOONGHYUN;;PISTOIA MARCO;;DOUGLAS TEMPLETON MCCLURE III;;J·加姆贝塔;;ANDO TAKASHI;;CORCOLES-GONZALEZ ANTONIO;;HEKMATSHOARTABARI BAHMAN;;MATTHIAS STEFFEN;;BISHOP LEV SAMUEL;;HASHEMI POUYA;;CHEN RICHARD;;MCCLURE III DOUGLAS TEMPLETON;;ZHANG JINGYUN;;FARO SERTAGE ISMAEL;;JAVADIABHARI ALI</t>
+          <t>HASHEMI POUYA;;ZHANG JINGYUN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;マクルーア ザ サード、ダグラス、テンプルトン;;LIU PENG;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;ダイアル、オリバー;;STEFFEN MATTHIAS;;JAY GAMBETTA;;GAMBETTA JAY;;M·斯蒂芬;;MISGEN MARVIN M;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;MATTHIAS STEFFEN;;ステファン、マティアス;;TEMME PAUL;;REZNICEK ALEXANDER;;PHAN ANNA;;BISHOP LEV SAMUEL;;DOUGLAS TEMPLETON MCCLURE III;;PRISCO JOSEPH F;;KUCZYNSKI JOSEPH;;LEE CHOONGHYUN;;GAMBETTA JAY M;;O·蒂亚尔;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;HEKMATSHOARTABARI BAHMAN;;GREENBERG DON;;PISTOIA MARCO;;MCCLURE III DOUGLAS TEMPLETON;;CHEN RICHARD;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;MCCLURE III DOUGLAS T;;OLIVER DIAL</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CA;;US;;AU</t>
+          <t>AU;;US;;CA</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;SMELYANSKIY VADIM;;BARENDS RAMI;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BOIXO CASTRILLO SERGIO;;ライアン・バブシュ;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ラミ・バレントス;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;BARENDS RAMI;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;エドワード・ヘンリー・ファーリ;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;BABBUSH RYAN;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;ユエゼン・ニウ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;NEVEN HELMUT;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ハルトムート・ネーフェン;;ライアン・バブシュ</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;EP;;WO</t>
+          <t>WO;;US;;EP</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CURTIS MICHAEL;;REAGOR MATTHEW J;;KARALEKAS PETER JONATHAN;;SETE EYOB A;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;JOHNSON BLAKE ROBERT;;DA SILVA MARCUS PALMER;;MCKIERNAN KERI ANN;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;ALAM MUHAMMAD SOHAIB;;SMITH ROBERT STANLEY;;PETERSON ERIC CHRISTOPHER;;ZENG WILLIAM;;OSBORN CHRISTOPHER BUTLER;;RUST MICHAEL;;RIGETTI CHAD TYLER;;JONES GLENN;;SETE EYOB;;DESAI ANAND;;CURTIS MICHAEL J;;LYNCH ADAM DAVID;;DAVIS ERIK JOSEPH</t>
+          <t>OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;ZENG WILLIAM;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;HEIDEL STEVEN;;RIGETTI CHAD TYLER;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL J;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;SETE EYOB A;;LYNCH ADAM DAVID;;JOHNSON BLAKE ROBERT;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;JONES GLENN;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>朱正勇;;朱慧珑;;RADAMSON HENRY H;;亨利·H·阿达姆松;;HENRY H ADAMSON;;WANG GUILEI;;ZHU HUILONG;;张严波;;ZHU ZHENGYONG;;ZHANG YANBO;;王桂磊</t>
+          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CN;;US;;WO;;EP</t>
+          <t>WO;;US;;CN;;EP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;XUE YANBO;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;BOOTHBY KELLY T R;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
+          <t>ANDRIYASH EVGENY;;BOOTHBY KELLY T R;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H;;MACREADY WILLIAM G;;XUE YANBO</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CA;;US;;EP;;WO</t>
+          <t>WO;;US;;CA;;EP</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;CHOI SOONWON;;LUNKIN MIKHAIL;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;ZHOU LEO;;WANG SHENGTAO;;SUKACHEV DENIS;;SIPAHIGIL ALP;;LUKIN MIKHAIL D;;LUKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;SUKACHEV DENIS D</t>
+          <t>SIPAHIGIL ALP;;BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;CHOI SOONWON;;WANG SHENGTAO;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D;;ZHOU LEO;;SUKACHEV DENIS;;LUKIN MIKHAIL D;;EVANS RUFFIN;;PICHLER HANNES;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CA;;US;;KR;;WO</t>
+          <t>WO;;US;;KR;;CA</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>CROSHAW JEREMIAH;;WALUS CONRAD;;WOLKOW ROBERT;;HUFF TALEANA;;WALUS KONRAD;;WOLKOW ROBERT A;;DIENEL THOMAS;;RETALLICK JACOB;;LIVADARU LUCIAN;;RASHIDI MOHAMMAD;;VINE WYATT</t>
+          <t>CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;LIVADARU LUCIAN;;RETALLICK JACOB</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TW;;EP;;US;;WO</t>
+          <t>WO;;TW;;US;;EP</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA</t>
+          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>WO;;US;;CA;;EP</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>MASILAMANI ASHOK;;GOULD MATTHEW V;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR;;GAHROOSI AMIR BAHADOR;;GOULD MATTHEW</t>
+          <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GOULD MATTHEW;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GAHROOSI AMIR</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;KR;;CA;;EP;;US;;AU</t>
+          <t>WO;;AU;;US;;CA;;EP;;KR</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CA;;US;;WO</t>
+          <t>WO;;US;;CA</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CN;;US;;KR;;WO</t>
+          <t>WO;;KR;;US;;CN</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>KIM SANG-SIK;;CHO JIN SUN;;LIM DOO-HYEOK;;HEO JUN;;WOO SOL-A;;PARK YOUNG-SOO;;CHO KYOUNG-AH;;CHO JIN-SUN;;SOHN IL KWON;;WOO SOL A;;LIM DOO HYEOK;;KIM SANG SIG;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
+          <t>CHO JIN SUN;;CHO KYOUNG AH;;HEO JUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO-HYEOK;;LIM DOO HYEOK;;KIM SANG SIG;;CHO JIN-SUN;;WOO SOL-A;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO;;PARK YOUNG SOO</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;TW;;EP;;JP;;US</t>
+          <t>WO;;TW;;JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
+          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CN;;US;;EP;;WO</t>
+          <t>WO;;US;;CN;;EP</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>K·施特劳斯;;GAMBLE JOHN KING;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;STRAUSS KARIN;;GRASS ROBERT;;B·H·阮;;W·陈;;NGUYEN BICHLIEN HOANG</t>
+          <t>A·X·C·科尔;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;R·格拉斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE IV JOHN KING;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;K·施特劳斯</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>NAGLER ACHIYA;;MREJEN MICHAEL;;SUCHOWSKI HAIM;;MALKIEL ITZIK;;WOLF LIOR;;ARIELI URI</t>
+          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CA;;US</t>
+          <t>US;;CA</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>CAO YUDONG;;DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;JOHNSON PETER D</t>
+          <t>ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;JOHNSON PETER D</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>WO;;CA;;TW;;EP;;GB;;SG</t>
+          <t>WO;;TW;;GB;;CA;;EP;;SG</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP;;US</t>
+          <t>JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2974,12 +2974,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC;;DODO OMNIDATA INC</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S25" t="b">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS;;GUILLOU DAVID</t>
+          <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>WO;;EP;;FR</t>
+          <t>WO;;FR;;EP</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>EP;;FR</t>
+          <t>FR;;EP</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+          <t>LANDIS STÉPHAN;;LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>ROSENBERGER ERIN;;MCFARLAND KIRSTY;;FRANK IAN WARD;;FAVALORA GREGG E;;KOTZ KENNETH;;FRANK IAN;;MCFARLAND KIRSTY A;;MAGYAR ANDREW;;BYRNES STEVEN J;;BYRNES STEVEN;;SPRACHMAN MELISSA;;MARKOVIC STACEY;;VARGO EMMA;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;CAVANAGH PETER;;KOTZ KENNETH T;;MAGYAR ANDREW P;;HUANG HAIYAO;;DUBAY RYAN A;;DUBAY RYAN</t>
+          <t>MCFARLAND KIRSTY;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;CAVANAGH PETER;;DUBAY RYAN A;;VARGO EMMA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;SPRACHMAN MELISSA M;;FRANK IAN;;HUANG HAIYAO;;FAVALORA GREGG;;MAGYAR ANDREW P;;BYRNES STEVEN;;MARKOVIC STACEY;;KOTZ KENNETH;;BYRNES STEVEN J;;KOTZ KENNETH T;;DUBAY RYAN;;FRANK IAN WARD;;FAVALORA GREGG E</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>US;;WO</t>
+          <t>WO;;US</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;YARKONI SHEIR;;AMIN MOHAMMAD H;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY A;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;LANTING TREVOR MICHAEL;;ROLFE JASON</t>
+          <t>ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>US;;KR;;EP</t>
+          <t>KR;;US;;EP</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CAI QING;;ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN;;COVENS KRIS</t>
+          <t>CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>XU JUN;;LIU YU;;LIANG RENRONG;;ZHAO LINYUAN</t>
+          <t>XU JUN;;LIU YU;;ZHAO LINYUAN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+          <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
         </is>
       </c>
       <c r="S34" t="b">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;CHOI YONG SOO</t>
+          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="S37" t="b">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO;;POOSER RAPHAEL C</t>
+          <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
         </is>
       </c>
       <c r="S38" t="b">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>CHODAVARAPU VAMSY;;AGGARWAL PRIYANKA</t>
+          <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
         </is>
       </c>
       <c r="S39" t="b">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>SANGWAN VINOD K;;HERSAM MARK C;;LEE HONG-SUB</t>
+          <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+          <t>DANIEL RAMEZ;;RIZIK LUNA</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;KORTEN TILL;;REUTHER CORDULA;;DIEZ STEFAN;;TAKATSUKI HIDEYO</t>
+          <t>MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>WANG WEI;;WANG ZEHONG;;CHEN YIXIANG;;YU DAN</t>
+          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
         </is>
       </c>
       <c r="S43" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>WU QING;;XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA</t>
+          <t>WU QING;;MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>YAN XIAOBING;;WANG KAIYANG;;REN DELIANG</t>
+          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>ZHOU WENLI;;GAO JUNXIONG;;ZHU YU;;WU SHUO;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO</t>
+          <t>GAO JUNXIONG;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU;;WU SHUO</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>REICH GREGORY W;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;BAUR JEFFREY W;;SLINKER KEITH;;DICKINSON BENJAMIN T;;KONDASH COREY R</t>
+          <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;KONDASH COREY R;;REICH GREGORY W;;BAUR JEFFREY W;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>US;;KR</t>
+          <t>KR;;US</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5580,12 +5580,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>AHN DO YEOL;;안도열</t>
+          <t>안도열;;AHN DO YEOL</t>
         </is>
       </c>
       <c r="S51" t="b">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>MAHMOUDI MORTEZA;;FAROKHZAD OMID;;CORBO CLAUDIA</t>
+          <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>CA;;WO</t>
+          <t>WO;;CA</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>BHAT SUMRITA;;KAPOOR ANMOL SINGH;;VASTAREY NIKHIL SURESH;;WANG GANG;;KOUL RAMAN;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
+          <t>KOUL RAMAN;;WANG GANG;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;VASTAREY NIKHIL SURESH</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CN;;US;;JP</t>
+          <t>JP;;US;;CN</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KIM CHIHO;;RAMPRASAD RAMPI;;CHANDRASEKARAN ANAND</t>
+          <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;GABRYS RYAN;;YAZDI S M HOSSEIN TABATABAEI</t>
+          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
         </is>
       </c>
       <c r="S57" t="b">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>NIKONOV DMITRI E;;YOUNG IAN A;;MANIPATRUNI SASIKANTH</t>
+          <t>NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH;;YOUNG IAN A</t>
         </is>
       </c>
       <c r="S59" t="b">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;EP;;JP;;US</t>
+          <t>WO;;JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
+          <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
+          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
+          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
+          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
+          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CN;;KR;;EP;;JP;;US</t>
+          <t>JP;;US;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;BOSE SAURABH KUMAR;;フォスナー ショーン;;FOSTNER SHAWN</t>
+          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
+          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>K·施特劳斯;;CHEN WEIDA;;R·格拉斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;KOHLL ALEXANDER XAVIER CHRISTOF;;STRAUSS KARIN;;B·H·阮;;W·陈;;GRASS ROBERT</t>
+          <t>A·X·C·科尔;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;K·施特劳斯</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>CN;;KR;;CA;;EP;;JP</t>
+          <t>JP;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>李源;;张辉;;张晋;;XING YAN;;LI YUAN;;ZHANG HUI;;幸研;;ZHANG JIN</t>
+          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>CN;;KR;;EP;;JP</t>
+          <t>JP;;KR;;CN;;EP</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>バヘディ・バヘド;;ダウガティ・ジョン;;DAUGHERTY JOHN;;ゴットショ・リチャード・アラン;;VAHEDI VAHID;;グーハ・ジョイディープ;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN</t>
+          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7700,7 +7700,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>CHUNG YONG HO;;최정우;;정용호;;CHOI JEONG WOO</t>
+          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
+          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -7996,12 +7996,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
+          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>SHIN HYUN DONG;;신현동;;JEONG YOUNG MIN;;FAROOQ AHMAD;;정영민;;파쿼 아마드</t>
+          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>김진배;;윤태현;;HA KIEU MY;;트린수안텅;;하키우;;TRINH XUAN TUNG;;KIM JIN BAE;;YOON TAE HYUN</t>
+          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CN;;US</t>
+          <t>US;;CN</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8202,12 +8202,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+          <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>LI DONGYANG;;GU DEEN;;顾德恩;;钟豪;;ZHONG HAO;;CHEN YICHENG;;LI WEI;;李伟;;GU DE'EN;;JIANG YADONG;;蒋亚东;;陈奕丞;;李东阳</t>
+          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>CA;;EP;;KR;;AU</t>
+          <t>AU;;KR;;CA;;EP</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
+          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL P;;PARK HYUNJUN</t>
+          <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
         </is>
       </c>
       <c r="S78" t="b">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>CN;;US;;TW</t>
+          <t>TW;;US;;CN</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
+          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>CN;;US;;TW</t>
+          <t>TW;;US;;CN</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
+          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;MANFRINI MAURICIO;;GERBEN DOORNBOS</t>
+          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8800,12 +8800,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9002,12 +9002,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
+          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
         </is>
       </c>
       <c r="S86" t="b">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC</t>
+          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -9608,12 +9608,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;SG;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9711,12 +9711,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;구글 엘엘씨;;ラミ・バレントス;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
+          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;BARENDS RAMI;;ラミ・バレントス</t>
+          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10020,12 +10020,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S</t>
+          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10325,12 +10325,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -10424,12 +10424,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S99" t="b">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -10527,12 +10527,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10733,12 +10733,12 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S102" t="b">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10832,12 +10832,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>CN;;WO;;KR;;CA;;EP;;JP;;US;;AU</t>
+          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>GOOGLE INC;;NIU YUEZHEN;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;GOOGLE LLC;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO</t>
+          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;ユエゼン・ニウ;;ハルトムート・ネーフェン;;CASTRILLO SERGIO BOIXO</t>
+          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -11034,12 +11034,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>CN;;ZA;;WO;;RU;;KR;;IL;;CA;;TW;;EP;;JP;;US;;AU</t>
+          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -11137,12 +11137,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY</t>
+          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
         </is>
       </c>
       <c r="S106" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN</t>
+          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>WO;;JP;;US;;GB;;DE;;CN</t>
+          <t>WO;;US;;DE;;GB;;CN;;JP</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;IBM UK;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司</t>
+          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK;;国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>HASHEMI POUYA;;ZHANG JINGYUN;;DIAL OLIVER;;D·T·麦克鲁尔三世;;OLIVADESE SALVATORE;;CORCOLES-GONZALEZ ANTONIO;;マクルーア ザ サード、ダグラス、テンプルトン;;LIU PENG;;BISHOP LEV;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;ダイアル、オリバー;;STEFFEN MATTHIAS;;JAY GAMBETTA;;GAMBETTA JAY;;M·斯蒂芬;;MISGEN MARVIN M;;MARTIN FERNANDEZ FRANCISCO JOSE;;TEMME PAUL KRISTAN;;NANNICINI GIACOMO;;ガンベッタ、ジェイ;;JAVADIABHARI ALI;;MATTHIAS STEFFEN;;ステファン、マティアス;;TEMME PAUL;;REZNICEK ALEXANDER;;PHAN ANNA;;BISHOP LEV SAMUEL;;DOUGLAS TEMPLETON MCCLURE III;;PRISCO JOSEPH F;;KUCZYNSKI JOSEPH;;LEE CHOONGHYUN;;GAMBETTA JAY M;;O·蒂亚尔;;OLIVADESE SALVATORE BERNARDO;;NEUMAN-HORN DEBRA A;;HEKMATSHOARTABARI BAHMAN;;GREENBERG DON;;PISTOIA MARCO;;MCCLURE III DOUGLAS TEMPLETON;;CHEN RICHARD;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;J·加姆贝塔;;MCCLURE III DOUGLAS T;;OLIVER DIAL</t>
+          <t>BISHOP LEV;;NANNICINI GIACOMO;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVADESE SALVATORE;;PRZYBYLSKI KEVIN J;;LIU PENG;;ZHANG JINGYUN;;FARO SERTAGE ISMAEL;;D·T·麦克鲁尔三世;;ANDO TAKASHI;;GREENBERG DON;;GAMBETTA JAY;;MISGEN MARVIN M;;O·蒂亚尔;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;DOUGLAS TEMPLETON MCCLURE III;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;REZNICEK ALEXANDER;;OLIVER DIAL;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;JAVADIABHARI ALI;;MARTIN FERNANDEZ FRANCISCO JOSE;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;NEUMAN-HORN DEBRA A;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;ダイアル、オリバー;;M·斯蒂芬;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MATTHIAS STEFFEN</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>AU;;US;;CA</t>
+          <t>CA;;US;;AU</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシー;;NIU YUEZHEN;;GOOGLE INC;;구글 엘엘씨;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;NIU YUEZHEN;;FARHI EDWARD HENRY;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;바엔즈 라미;;ユエゼン・ニウ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;NEVEN HELMUT;;ハルトムート・ネーヴェン;;BARENDS RAMI;;ハルトムート・ネーフェン;;ライアン・バブシュ</t>
+          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;NEVEN HELMUT;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ライアン・バブシュ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;ハルトムート・ネーフェン;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>WO;;US;;EP</t>
+          <t>US;;WO;;EP</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>OSBORN CHRISTOPHER BUTLER;;ZENG WILLIAM J;;ZENG WILLIAM;;MCKIERNAN KERI ANN;;DAVIS ERIK JOSEPH;;HEIDEL STEVEN;;RIGETTI CHAD TYLER;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL J;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;DESAI ANAND;;SETE EYOB A;;LYNCH ADAM DAVID;;JOHNSON BLAKE ROBERT;;ALAM MUHAMMAD SOHAIB;;KARALEKAS PETER JONATHAN;;JONES GLENN;;SMITH ROBERT STANLEY;;CURTIS MICHAEL;;PETERSON ERIC CHRISTOPHER</t>
+          <t>WILSON CHRISTOPHER MOGAN;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;CURTIS MICHAEL J;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;SETE EYOB A;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;JONES GLENN;;RUST MICHAEL;;SMITH ROBERT STANLEY;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;SETE EYOB;;RIGETTI CHAD TYLER;;KARALEKAS PETER JONATHAN;;DESAI ANAND;;LYNCH ADAM DAVID</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>ZHANG YANBO;;朱慧珑;;王桂磊;;HENRY H ADAMSON;;朱正勇;;张严波;;ZHU HUILONG;;RADAMSON HENRY H;;WANG GUILEI;;ZHU ZHENGYONG;;亨利·H·阿达姆松</t>
+          <t>朱正勇;;张严波;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>WO;;US;;CN;;EP</t>
+          <t>WO;;CN;;US;;EP</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>YARKONI SHEIR;;D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC</t>
+          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;BOOTHBY KELLY T R;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H;;MACREADY WILLIAM G;;XUE YANBO</t>
+          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;XUE YANBO;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>AU;;US</t>
+          <t>US;;AU</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC;;킨디 인코포레이티드</t>
+          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>MAJUMDAR ARUN;;アルン、マジュムダール;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>SIPAHIGIL ALP;;BHASKAR MIHIR;;NGUYEN CHRISTIAN THIEU;;ZHOU LEO XIANGYU;;CHOI SOONWON;;WANG SHENGTAO;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN E;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D;;ZHOU LEO;;SUKACHEV DENIS;;LUKIN MIKHAIL D;;EVANS RUFFIN;;PICHLER HANNES;;LUNKIN MIKHAIL;;LUKIN MIKHAIL</t>
+          <t>PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;WANG SHENGTAO;;LUKIN MIKHAIL D;;BHASKAR MIHIR;;SUKACHEV DENIS;;EVANS RUFFIN;;LUNKIN MIKHAIL;;SUKACHEV DENIS D;;NGUYEN CHRISTIAN;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;ZHOU LEO;;CHOI SOONWON;;SIPAHIGIL ALP;;LUKIN MIKHAIL</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;CA</t>
+          <t>CA;;WO;;US;;KR</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>CROSHAW JEREMIAH;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;WALUS KONRAD;;VINE WYATT;;DIENEL THOMAS;;WALUS CONRAD;;HUFF TALEANA;;LIVADARU LUCIAN;;RETALLICK JACOB</t>
+          <t>LIVADARU LUCIAN;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;VINE WYATT;;RETALLICK JACOB;;CROSHAW JEREMIAH;;HUFF TALEANA;;WALUS CONRAD</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>WO;;TW;;US;;EP</t>
+          <t>TW;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
+          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>WO;;US;;CA;;EP</t>
+          <t>CA;;US;;WO;;EP</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>US;;IB</t>
+          <t>IB;;US</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;GOULD MATTHEW;;MASILAMANI ASHOK;;GAHROOSI AMIR BAHADOR;;GAHROOSI AMIR</t>
+          <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;AU;;US;;CA;;EP;;KR</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;BHATIA SWAPNIL;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>WO;;US;;CA</t>
+          <t>CA;;US;;WO</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>WO;;KR;;US;;CN</t>
+          <t>WO;;CN;;US;;KR</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CHO JIN SUN;;CHO KYOUNG AH;;HEO JUN;;SOHN IL KWON;;KIM SANG-SIK;;LIM DOO-HYEOK;;LIM DOO HYEOK;;KIM SANG SIG;;CHO JIN-SUN;;WOO SOL-A;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO;;PARK YOUNG SOO</t>
+          <t>LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO JIN-SUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;HEO JUN;;PARK YOUNG SOO;;CHO KYOUNG-AH;;KIM SANG-SIK;;SOHN IL KWON</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>WO;;TW;;JP;;US;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;TW;;CN;;JP</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
+          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>WO;;US;;CN;;EP</t>
+          <t>US;;CN;;WO;;EP</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>A·X·C·科尔;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;R·格拉斯;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE IV JOHN KING;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;GAMBLE JOHN KING;;NGUYEN BICHLIEN HOANG;;K·施特劳斯</t>
+          <t>W·陈;;GAMBLE JOHN KING;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;CHEN WEIDA;;A·X·C·科尔;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;B·H·阮;;GRASS ROBERT</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;WOLF LIOR;;ARIELI URI;;MALKIEL ITZIK;;NAGLER ACHIYA;;MREJEN MICHAEL</t>
+          <t>SUCHOWSKI HAIM;;NAGLER ACHIYA;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>US;;CA</t>
+          <t>CA;;US</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
+          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>ANSCHUETZ ERIC R;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC;;CAO YUDONG;;JOHNSON PETER D</t>
+          <t>DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;CAO YUDONG</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>WO;;TW;;GB;;CA;;EP;;SG</t>
+          <t>WO;;EP;;GB;;CA;;TW;;SG</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;SANCHES-KUIPER RAQUEL MARIA</t>
+          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>US;;KR;;EP;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+          <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ</t>
         </is>
       </c>
       <c r="S25" t="b">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>GUILLOU DAVID;;GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI</t>
+          <t>SINHA RAJARISHI;;GUILLOU DAVID;;GUILLOU DAVID FRANCOIS</t>
         </is>
       </c>
       <c r="S26" t="b">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>WO;;FR;;EP</t>
+          <t>FR;;WO;;EP</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;LANDIS STEPHAN;;CONSTANCIAS CHRISTOPHE</t>
+          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>MCFARLAND KIRSTY;;MCFARLAND KIRSTY A;;SPRACHMAN MELISSA;;CAVANAGH PETER;;DUBAY RYAN A;;VARGO EMMA;;MAGYAR ANDREW;;ROSENBERGER ERIN;;SPRACHMAN MELISSA M;;FRANK IAN;;HUANG HAIYAO;;FAVALORA GREGG;;MAGYAR ANDREW P;;BYRNES STEVEN;;MARKOVIC STACEY;;KOTZ KENNETH;;BYRNES STEVEN J;;KOTZ KENNETH T;;DUBAY RYAN;;FRANK IAN WARD;;FAVALORA GREGG E</t>
+          <t>MCFARLAND KIRSTY A;;BYRNES STEVEN;;KOTZ KENNETH;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;SPRACHMAN MELISSA;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;CAVANAGH PETER;;BYRNES STEVEN J;;VARGO EMMA;;DUBAY RYAN A;;FAVALORA GREGG E;;MARKOVIC STACEY;;FRANK IAN WARD;;MAGYAR ANDREW;;FRANK IAN;;ROSENBERGER ERIN;;HUANG HAIYAO;;KOTZ KENNETH T;;DUBAY RYAN</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3382,12 +3382,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>IRIDIA INC;;DODO OMNIDATA INC</t>
+          <t>DODO OMNIDATA INC;;IRIDIA INC</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ANDRIYASH EVGENY;;ROLFE JASON;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;AMIN MOHAMMAD H S;;AMIN MOHAMMAD H</t>
+          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;YARKONI SHEIR</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>KR;;US;;EP</t>
+          <t>US;;KR;;EP</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>CAI QING;;COVENS KRIS;;FAUVART MAARTEN;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CHEN CHANG;;CIUBOTARU FLORIN;;STAKENBORG TIM</t>
+          <t>COVENS KRIS;;CIUBOTARU FLORIN;;CHEN CHANG;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>XU JUN;;LIU YU;;ZHAO LINYUAN;;LIANG RENRONG</t>
+          <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;JIANG ZHUOLIN;;SIU MAN-HUNG</t>
+          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
         </is>
       </c>
       <c r="S34" t="b">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>HEO KEUN;;LEE HYUNG-DONG;;CHOI YONG SOO;;CHOI YONG-SOO;;LEE HYUNG DONG</t>
+          <t>CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
+          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
         </is>
       </c>
       <c r="S38" t="b">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>SANGWAN VINOD K;;LEE HONG-SUB;;HERSAM MARK C</t>
+          <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DANIEL RAMEZ;;RIZIK LUNA</t>
+          <t>RIZIK LUNA;;DANIEL RAMEZ</t>
         </is>
       </c>
       <c r="S41" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN;;REUTHER CORDULA;;TAKATSUKI HIDEYO</t>
+          <t>REUTHER CORDULA;;TAKATSUKI HIDEYO;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>YU DAN;;CHEN YIXIANG;;WANG WEI;;WANG ZEHONG</t>
+          <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
         </is>
       </c>
       <c r="S43" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>WU QING;;MCLEAN MARK;;XIA QIANGFEI;;YANG JIANHUA</t>
+          <t>XIA QIANGFEI;;WU QING;;MCLEAN MARK;;YANG JIANHUA</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>YAN XIAOBING;;REN DELIANG;;WANG KAIYANG</t>
+          <t>WANG KAIYANG;;REN DELIANG;;YAN XIAOBING</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>GAO JUNXIONG;;CHENG RUNHONG;;CHEN CHANGSHENG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU;;WU SHUO</t>
+          <t>CHENG RUNHONG;;WANG YUNBO;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;ZHOU WENLI;;GAO JUNXIONG</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>SLINKER KEITH;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;KONDASH COREY R;;REICH GREGORY W;;BAUR JEFFREY W;;DICKINSON BENJAMIN T</t>
+          <t>KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;REICH GREGORY W;;BAUR JEFFREY W</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Zhengyong Zhu;;Huilong Zhu</t>
+          <t>Huilong Zhu;;Zhengyong Zhu</t>
         </is>
       </c>
       <c r="S48" t="b">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>KR;;US</t>
+          <t>US;;KR</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
+          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>WO;;CA</t>
+          <t>CA;;WO</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>KOUL RAMAN;;WANG GANG;;KAPOOR ANMOL SINGH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;VASTAREY NIKHIL SURESH</t>
+          <t>KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>JP;;US;;CN</t>
+          <t>CN;;US;;JP</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
+          <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
+          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
         </is>
       </c>
       <c r="S57" t="b">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH;;YOUNG IAN A</t>
+          <t>YOUNG IAN A;;NIKONOV DMITRI E;;MANIPATRUNI SASIKANTH</t>
         </is>
       </c>
       <c r="S59" t="b">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>WO;;JP;;US;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
+          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6883,12 +6883,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
+          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
+          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>JP;;US;;EP;;KR;;CN</t>
+          <t>US;;KR;;EP;;CN;;JP</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>フォスナー ショーン;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ボーズ サウラブ クマー;;ブラウン シモン アンソニー</t>
+          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
+          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>A·X·C·科尔;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;GRASS ROBERT;;KOHLL ALEXANDER XAVIER CHRISTOF;;W·陈;;B·H·阮;;CHEN WEIDA;;STRAUSS KARIN;;K·施特劳斯</t>
+          <t>W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;A·X·C·科尔;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;B·H·阮;;GRASS ROBERT;;NGUYEN BICHLIEN HOANG</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>JP;;CA;;EP;;KR;;CN</t>
+          <t>KR;;EP;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
+          <t>CASSIDY MAJA;;ポール・エフ・プレドキ;;マジャ・キャシディ;;PREDKI PAUL F</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>东南大学;;UNIV SOUTHEAST</t>
+          <t>UNIV SOUTHEAST;;东南大学</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>LI YUAN;;张晋;;XING YAN;;ZHANG JIN;;李源;;ZHANG HUI;;张辉;;幸研</t>
+          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>JP;;KR;;CN;;EP</t>
+          <t>KR;;CN;;JP;;EP</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
+          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>グーハ・ジョイディープ;;DAUGHERTY JOHN;;ダウガティ・ジョン;;GUHA JOYDEEP;;バヘディ・バヘド;;GOTTSCHO RICHARD ALAN;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
+          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7695,12 +7695,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
+          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>최정우;;CHOI JEONG WOO;;정용호;;CHUNG YONG HO</t>
+          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>한양대학교 산학협력단;;IUCF HYU</t>
+          <t>IUCF HYU;;한양대학교 산학협력단</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
+          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -7996,12 +7996,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV;;경희대학교 산학협력단</t>
+          <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>정영민;;SHIN HYUN DONG;;신현동;;파쿼 아마드;;JEONG YOUNG MIN;;FAROOQ AHMAD</t>
+          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>한양대학교 산학협력단;;IUCF HYU</t>
+          <t>IUCF HYU;;한양대학교 산학협력단</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>TRINH XUAN TUNG;;HA KIEU MY;;윤태현;;트린수안텅;;KIM JIN BAE;;YOON TAE HYUN;;하키우;;김진배</t>
+          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>US;;CN</t>
+          <t>CN;;US</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>蒋亚东;;LI DONGYANG;;LI WEI;;陈奕丞;;GU DEEN;;ZHONG HAO;;CHEN YICHENG;;顾德恩;;李伟;;钟豪;;GU DE'EN;;JIANG YADONG;;李东阳</t>
+          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>AU;;KR;;CA;;EP</t>
+          <t>CA;;KR;;AU;;EP</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -8301,12 +8301,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+          <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>ROQUET NATHANIEL;;BHATIA SWAPNIL P;;PARK HYUNJUN;;LEAKE DEVIN</t>
+          <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S78" t="b">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8400,12 +8400,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>TW;;US;;CN</t>
+          <t>TW;;CN;;US</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8499,12 +8499,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>TAIWAN SEMICONDUCTOR MFG CO LTD;;TAIWAN SEMICONDUCTOR MFG</t>
+          <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DOORNBOS GERBEN;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>JP;;US</t>
+          <t>US;;JP</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>HITACHI LTD;;株式会社日立製作所</t>
+          <t>株式会社日立製作所;;HITACHI LTD</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8800,12 +8800,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9002,12 +9002,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S85" t="b">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>IMEC VZW;;UNIV LEUVEN KATH;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
+          <t>UNIV LEUVEN KATH;;IMEC VZW;;KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;CIUBOTARU FLORIN</t>
+          <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
         </is>
       </c>
       <c r="S86" t="b">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9608,12 +9608,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>BROWN SIMON ANTHONY;;FOSTNER SHAWN;;BOSE SAURABH KUMAR</t>
+          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;SG;;KR;;CN</t>
+          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9711,12 +9711,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE INC;;구글 엘엘씨;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>바엔즈 라미;;ラミ・バレントス;;BARENDS RAMI</t>
+          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10020,12 +10020,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>TIPTON THOMAS ANDREW;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;BATTAGLINI JOSEPH S;;DUNST MICHAEL J</t>
+          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10325,12 +10325,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -10424,12 +10424,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S99" t="b">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -10527,12 +10527,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S100" t="b">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10630,12 +10630,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S101" t="b">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10733,12 +10733,12 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S102" t="b">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10832,12 +10832,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>WO;;AU;;JP;;US;;CA;;EP;;KR;;CN</t>
+          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>GOOGLE LLC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;ハルトムート・ネーフェン</t>
+          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -11034,12 +11034,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S105" t="b">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>ZA;;IL;;WO;;AU;;TW;;JP;;US;;EP;;CA;;RU;;KR;;CN</t>
+          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -11137,12 +11137,12 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
+          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S106" t="b">

--- a/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
+++ b/tests/integration/out/ai-and-nanotech-applicants_aliased.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
+          <t>MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER;;ASKER MICHAEL ALBERT</t>
         </is>
       </c>
       <c r="S2" t="b">
@@ -713,7 +713,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>WO;;US;;DE;;GB;;CN;;JP</t>
+          <t>DE;;US;;CN;;WO;;GB;;JP</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -740,12 +740,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>IBM (CHINA) INVEST COMPANY LTD;;IBM;;IBM UK;;国际商业机器公司;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;国际商业机器公司;;IBM UK</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>BISHOP LEV;;NANNICINI GIACOMO;;マクルーア ザ サード、ダグラス、テンプルトン;;OLIVADESE SALVATORE;;PRZYBYLSKI KEVIN J;;LIU PENG;;ZHANG JINGYUN;;FARO SERTAGE ISMAEL;;D·T·麦克鲁尔三世;;ANDO TAKASHI;;GREENBERG DON;;GAMBETTA JAY;;MISGEN MARVIN M;;O·蒂亚尔;;KUCZYNSKI JOSEPH;;GAMBETTA JAY M;;MCCLURE III DOUGLAS TEMPLETON;;TEMME PAUL;;DIAL OLIVER;;PHAN ANNA;;OLIVADESE SALVATORE BERNARDO;;DOUGLAS TEMPLETON MCCLURE III;;LEE CHOONGHYUN;;ガンベッタ、ジェイ;;MCCLURE III DOUGLAS T;;PHAN ANNA T;;HEKMATSHOARTABARI BAHMAN;;ステファン、マティアス;;REZNICEK ALEXANDER;;OLIVER DIAL;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;JAVADIABHARI ALI;;MARTIN FERNANDEZ FRANCISCO JOSE;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;NEUMAN-HORN DEBRA A;;CORCOLES-GONZALEZ ANTONIO;;BISHOP LEV SAMUEL;;ダイアル、オリバー;;M·斯蒂芬;;STEFFEN MATTHIAS;;JAY GAMBETTA;;J·加姆贝塔;;MATTHIAS STEFFEN</t>
+          <t>OLIVADESE SALVATORE;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;MISGEN MARVIN M;;M·斯蒂芬;;MATTHIAS STEFFEN;;JAY GAMBETTA;;ダイアル、オリバー;;ステファン、マティアス;;LEE CHOONGHYUN;;J·加姆贝塔;;ガンベッタ、ジェイ;;PHAN ANNA;;ANDO TAKASHI;;FARO SERTAGE ISMAEL;;BISHOP LEV;;DIAL OLIVER;;GAMBETTA JAY;;PRZYBYLSKI KEVIN J;;PHAN ANNA T;;OLIVER DIAL;;TEMME PAUL KRISTAN;;O·蒂亚尔;;マクルーア ザ サード、ダグラス、テンプルトン;;CORCOLES-GONZALEZ ANTONIO;;MARTIN FERNANDEZ FRANCISCO JOSE;;HEKMATSHOARTABARI BAHMAN;;DOUGLAS TEMPLETON MCCLURE III;;OLIVADESE SALVATORE BERNARDO;;REZNICEK ALEXANDER;;KUCZYNSKI JOSEPH;;ZHANG JINGYUN;;STEFFEN MATTHIAS;;TEMME PAUL;;BISHOP LEV SAMUEL;;HASHEMI POUYA;;D·T·麦克鲁尔三世;;NEUMAN-HORN DEBRA A;;GREENBERG DON;;LIU PENG;;MCCLURE III DOUGLAS TEMPLETON;;PISTOIA MARCO;;CHEN RICHARD;;JAVADIABHARI ALI;;NANNICINI GIACOMO</t>
         </is>
       </c>
       <c r="S3" t="b">
@@ -816,7 +816,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>CA;;US;;AU</t>
+          <t>CA;;AU;;US</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -843,12 +843,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;グーグル エルエルシー;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;SMELYANSKIY VADIM;;구글 엘엘씨;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;ヴァディム・スメリャンスキー;;ハルトムート・ネーヴェン;;NEVEN HELMUT;;BOIXO CASTRILLO SERGIO;;ユエゼン・ニウ;;NEVEN HARTMUT;;SMELYANSKIY VADIM;;ライアン・バブシュ;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;FARHI EDWARD HENRY;;BARENDS RAMI;;바엔즈 라미;;ハルトムート・ネーフェン;;エドワード・ヘンリー・ファーリ;;BABBUSH RYAN</t>
+          <t>BABBUSH RYAN;;NEVEN HARTMUT;;NIU YUEZHEN;;ラミ・バレントス;;ライアン・バブシュ;;ハルトムート・ネーフェン;;BARENDS RAMI;;바엔즈 라미;;BOIXO CASTRILLO SERGIO;;NEVEN HELMUT;;SMELYANSKIY VADIM;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ;;FARHI EDWARD HENRY</t>
         </is>
       </c>
       <c r="S4" t="b">
@@ -919,7 +919,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>US;;WO;;EP</t>
+          <t>EP;;US;;WO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>WILSON CHRISTOPHER MOGAN;;DA SILVA MARCUS PALMER;;PETERSON ERIC CHRISTOPHER;;CURTIS MICHAEL J;;OSBORN CHRISTOPHER BUTLER;;JOHNSON BLAKE ROBERT;;ZENG WILLIAM J;;ZENG WILLIAM;;DAVIS ERIK JOSEPH;;MCKIERNAN KERI ANN;;CURTIS MICHAEL;;SETE EYOB A;;HEIDEL STEVEN;;TEZAK NIKOLAS ANTON;;JONES GLENN;;RUST MICHAEL;;SMITH ROBERT STANLEY;;REAGOR MATTHEW J;;ALAM MUHAMMAD SOHAIB;;SETE EYOB;;RIGETTI CHAD TYLER;;KARALEKAS PETER JONATHAN;;DESAI ANAND;;LYNCH ADAM DAVID</t>
+          <t>MCKIERNAN KERI ANN;;REAGOR MATTHEW J;;ZENG WILLIAM J;;WILSON CHRISTOPHER MOGAN;;OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;RUST MICHAEL;;JOHNSON BLAKE ROBERT;;LYNCH ADAM DAVID;;KARALEKAS PETER JONATHAN;;ZENG WILLIAM;;DESAI ANAND;;PETERSON ERIC CHRISTOPHER;;SETE EYOB A;;ALAM MUHAMMAD SOHAIB;;CURTIS MICHAEL J;;DAVIS ERIK JOSEPH;;DA SILVA MARCUS PALMER;;SETE EYOB;;CURTIS MICHAEL;;JONES GLENN;;HEIDEL STEVEN;;SMITH ROBERT STANLEY;;RIGETTI CHAD TYLER</t>
         </is>
       </c>
       <c r="S5" t="b">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+          <t>INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS;;中国科学院微电子研究所</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>朱正勇;;张严波;;RADAMSON HENRY H;;WANG GUILEI;;ZHANG YANBO;;ZHU HUILONG;;王桂磊;;亨利·H·阿达姆松;;ZHU ZHENGYONG;;朱慧珑;;HENRY H ADAMSON</t>
+          <t>王桂磊;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;ZHU ZHENGYONG;;朱慧珑;;ZHU HUILONG;;张严波;;RADAMSON HENRY H;;HENRY H ADAMSON;;亨利·H·阿达姆松</t>
         </is>
       </c>
       <c r="S6" t="b">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;EP</t>
+          <t>US;;CN;;EP;;WO</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR;;D WAVE SYSTEMS INC</t>
+          <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;ANDRIYASH EVGENY;;XUE YANBO;;BOOTHBY KELLY T R;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;ROLFE JASON;;XUE YANBO;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;MACREADY WILLIAM G;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;BOOTHBY KELLY T R</t>
         </is>
       </c>
       <c r="S7" t="b">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>US;;AU</t>
+          <t>AU;;US</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드</t>
+          <t>キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;킨디 인코포레이티드;;KYNDI INC</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>アルン、マジュムダール;;MAJUMDAR ARUN;;마줌다 아룬</t>
+          <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
         </is>
       </c>
       <c r="S8" t="b">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>EP;;CA;;US;;WO</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>PICHLER HANNES;;NGUYEN CHRISTIAN THIEU;;WANG SHENGTAO;;LUKIN MIKHAIL D;;BHASKAR MIHIR;;SUKACHEV DENIS;;EVANS RUFFIN;;LUNKIN MIKHAIL;;SUKACHEV DENIS D;;NGUYEN CHRISTIAN;;EVANS RUFFIN E;;BHASKAR MIHIR KESHAV;;ZHOU LEO XIANGYU;;ZHOU LEO;;CHOI SOONWON;;SIPAHIGIL ALP;;LUKIN MIKHAIL</t>
+          <t>LUKIN MIKHAIL D;;EVANS RUFFIN;;LUNKIN MIKHAIL;;BHASKAR MIHIR KESHAV;;ZHOU LEO;;BHASKAR MIHIR;;CHOI SOONWON;;NGUYEN CHRISTIAN THIEU;;LUKIN MIKHAIL;;SUKACHEV DENIS D;;ZHOU LEO XIANGYU;;SUKACHEV DENIS;;NGUYEN CHRISTIAN;;WANG SHENGTAO;;EVANS RUFFIN E;;SIPAHIGIL ALP;;PICHLER HANNES</t>
         </is>
       </c>
       <c r="S9" t="b">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CA;;WO;;US;;KR</t>
+          <t>CA;;US;;WO;;KR</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>LIVADARU LUCIAN;;WALUS KONRAD;;DIENEL THOMAS;;WOLKOW ROBERT;;RASHIDI MOHAMMAD;;WOLKOW ROBERT A;;VINE WYATT;;RETALLICK JACOB;;CROSHAW JEREMIAH;;HUFF TALEANA;;WALUS CONRAD</t>
+          <t>WOLKOW ROBERT A;;HUFF TALEANA;;LIVADARU LUCIAN;;VINE WYATT;;RETALLICK JACOB;;WALUS KONRAD;;RASHIDI MOHAMMAD;;WALUS CONRAD;;CROSHAW JEREMIAH;;WOLKOW ROBERT;;DIENEL THOMAS</t>
         </is>
       </c>
       <c r="S10" t="b">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TW;;US;;WO;;EP</t>
+          <t>EP;;TW;;US;;WO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;SIGNAEVSKI MAXIM M;;YAROSLAVSKY IGOR</t>
+          <t>SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR;;YAROSLAVSKY IGOR YEHUDA</t>
         </is>
       </c>
       <c r="S11" t="b">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CA;;US;;WO;;EP</t>
+          <t>CA;;US;;EP;;WO</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>IB;;US</t>
+          <t>US;;IB</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;MASILAMANI ASHOK;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA</t>
+          <t>MASILAMANI ASHOK PRABHU;;GOULD MATTHEW V;;MASILAMANI ASHOK;;GAHROOSI AMIR;;KHOMAMI ABADI MOJTABA;;GOULD MATTHEW;;GAHROOSI AMIR BAHADOR</t>
         </is>
       </c>
       <c r="S12" t="b">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA</t>
+          <t>EP;;US;;WO;;KR;;AU;;CA</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;ROQUET NATHANIEL;;LEAKE DEVIN;;BHATIA SWAPNIL</t>
+          <t>LEAKE DEVIN;;BHATIA SWAPNIL P;;BHATIA SWAPNIL;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S13" t="b">
@@ -1857,12 +1857,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S14" t="b">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR</t>
+          <t>CN;;US;;WO;;KR</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>LIM DOO-HYEOK;;WOO SOL-A;;CHO JIN SUN;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO JIN-SUN;;LIM DOO HYEOK;;PARK YOUNG-SOO;;HEO JUN;;PARK YOUNG SOO;;CHO KYOUNG-AH;;KIM SANG-SIK;;SOHN IL KWON</t>
+          <t>LIM DOO HYEOK;;CHO JIN-SUN;;SOHN IL KWON;;HEO JUN;;KIM SANG-SIK;;LIM DOO-HYEOK;;PARK YOUNG SOO;;CHO JIN SUN;;WOO SOL-A;;CHO KYOUNG AH;;KIM SANG SIG;;WOO SOL A;;CHO KYOUNG-AH;;PARK YOUNG-SOO</t>
         </is>
       </c>
       <c r="S17" t="b">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;TW;;CN;;JP</t>
+          <t>US;;EP;;CN;;WO;;KR;;JP;;TW</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
+          <t>GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;DAUGHERTY JOHN</t>
         </is>
       </c>
       <c r="S18" t="b">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>US;;CN;;WO;;EP</t>
+          <t>EP;;US;;WO;;CN</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>W·陈;;GAMBLE JOHN KING;;K·施特劳斯;;KOHLL ALEXANDER XAVIER CHRISTOF;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;CHEN WEIDA;;A·X·C·科尔;;GAMBLE IV JOHN KING;;STRAUSS KARIN;;R·格拉斯;;NGUYEN BICHLIEN HOANG;;B·H·阮;;GRASS ROBERT</t>
+          <t>W·陈;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;GAMBLE JOHN KING;;GRANADE CHRISTOPHER EVAN;;WIEBE NATHAN O;;K·施特劳斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;GRASS ROBERT;;R·格拉斯;;B·H·阮;;GAMBLE IV JOHN KING</t>
         </is>
       </c>
       <c r="S19" t="b">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>US;;IL</t>
+          <t>IL;;US</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>SUCHOWSKI HAIM;;NAGLER ACHIYA;;ARIELI URI;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR</t>
+          <t>WOLF LIOR;;MALKIEL ITZIK;;MREJEN MICHAEL;;NAGLER ACHIYA;;ARIELI URI;;SUCHOWSKI HAIM</t>
         </is>
       </c>
       <c r="S20" t="b">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>WO;;US</t>
+          <t>US;;WO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+          <t>NABAVI SEYEDFAKHREDDIN;;ZHANG LIHONG</t>
         </is>
       </c>
       <c r="S22" t="b">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>DALLAIRE-DEMERS PIERRE-LUC;;ANSCHUETZ ERIC R;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;JOHNSON PETER D;;CAO YUDONG</t>
+          <t>DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;GONTHIER JEROME FLORIAN;;KATABARWA AMARA;;ANSCHUETZ ERIC R;;CAO YUDONG</t>
         </is>
       </c>
       <c r="S23" t="b">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>WO;;EP;;GB;;CA;;TW;;SG</t>
+          <t>SG;;EP;;WO;;GB;;CA;;TW</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;RAQUEL MARIA SANCHES-KUIPER</t>
+          <t>MATTHEW JAMES HAYES;;SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;RAQUEL MARIA SANCHES-KUIPER</t>
         </is>
       </c>
       <c r="S24" t="b">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>US;;KR;;EP;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;KR;;JP;;CA</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2974,12 +2974,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC;;IRIDIA INC</t>
+          <t>DODO OMNIDATA INC;;IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F;;マジャ・キャシディ</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S25" t="b">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>FR;;WO;;EP</t>
+          <t>FR;;EP;;WO</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN</t>
+          <t>CONSTANCIAS CHRISTOPHE;;LANDIS STÉPHAN;;LANDIS STEPHAN</t>
         </is>
       </c>
       <c r="S27" t="b">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>MCFARLAND KIRSTY A;;BYRNES STEVEN;;KOTZ KENNETH;;SPRACHMAN MELISSA M;;FAVALORA GREGG;;SPRACHMAN MELISSA;;MAGYAR ANDREW P;;MCFARLAND KIRSTY;;CAVANAGH PETER;;BYRNES STEVEN J;;VARGO EMMA;;DUBAY RYAN A;;FAVALORA GREGG E;;MARKOVIC STACEY;;FRANK IAN WARD;;MAGYAR ANDREW;;FRANK IAN;;ROSENBERGER ERIN;;HUANG HAIYAO;;KOTZ KENNETH T;;DUBAY RYAN</t>
+          <t>MCFARLAND KIRSTY A;;KOTZ KENNETH T;;FAVALORA GREGG;;BYRNES STEVEN J;;VARGO EMMA;;BYRNES STEVEN;;HUANG HAIYAO;;MARKOVIC STACEY;;MCFARLAND KIRSTY;;FAVALORA GREGG E;;DUBAY RYAN A;;SPRACHMAN MELISSA M;;MAGYAR ANDREW P;;MAGYAR ANDREW;;SPRACHMAN MELISSA;;ROSENBERGER ERIN;;CAVANAGH PETER;;FRANK IAN;;KOTZ KENNETH;;DUBAY RYAN;;FRANK IAN WARD</t>
         </is>
       </c>
       <c r="S28" t="b">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+          <t>PREDKI PAUL F;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S29" t="b">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>BOOTHBY THOMAS J;;AMIN MOHAMMAD H S;;ANDRIYASH EVGENY A;;AMIN MOHAMMAD H;;ROLFE JASON;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;ANDRIYASH EVGENY;;YARKONI SHEIR</t>
+          <t>YARKONI SHEIR;;AMIN MOHAMMAD H;;AMIN MOHAMMAD H S;;ROLFE JASON;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL</t>
         </is>
       </c>
       <c r="S30" t="b">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>US;;KR;;EP</t>
+          <t>US;;EP;;KR</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>COVENS KRIS;;CIUBOTARU FLORIN;;CHEN CHANG;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO;;STAKENBORG TIM;;FAUVART MAARTEN</t>
+          <t>FAUVART MAARTEN;;CHEN CHANG;;COVENS KRIS;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH;;STAKENBORG TIM;;CIUBOTARU FLORIN;;CAI QING</t>
         </is>
       </c>
       <c r="S31" t="b">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
+          <t>ZHAO LINYUAN;;LIU YU;;XU JUN;;LIANG RENRONG</t>
         </is>
       </c>
       <c r="S32" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+          <t>JIANG ZHUOLIN;;SIU MAN-HUNG;;FONG KIN CHUNG</t>
         </is>
       </c>
       <c r="S34" t="b">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>CHOI YONG SOO;;LEE HYUNG DONG;;CHOI YONG-SOO;;HEO KEUN;;LEE HYUNG-DONG</t>
+          <t>LEE HYUNG-DONG;;CHOI YONG-SOO;;LEE HYUNG DONG;;HEO KEUN;;CHOI YONG SOO</t>
         </is>
       </c>
       <c r="S36" t="b">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J;;POOSER RAPHAEL C</t>
+          <t>LAWRIE BENJAMIN J;;POOSER RAPHAEL C;;MAKSYMOVYCH PETRO</t>
         </is>
       </c>
       <c r="S38" t="b">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
+          <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
         </is>
       </c>
       <c r="S40" t="b">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>REUTHER CORDULA;;TAKATSUKI HIDEYO;;MANSSON ALF;;KORTEN TILL;;DIEZ STEFAN</t>
+          <t>KORTEN TILL;;MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;DIEZ STEFAN</t>
         </is>
       </c>
       <c r="S42" t="b">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>CHEN YIXIANG;;WANG ZEHONG;;WANG WEI;;YU DAN</t>
+          <t>WANG WEI;;YU DAN;;CHEN YIXIANG;;WANG ZEHONG</t>
         </is>
       </c>
       <c r="S43" t="b">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>XIA QIANGFEI;;WU QING;;MCLEAN MARK;;YANG JIANHUA</t>
+          <t>YANG JIANHUA;;MCLEAN MARK;;XIA QIANGFEI;;WU QING</t>
         </is>
       </c>
       <c r="S44" t="b">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>WANG KAIYANG;;REN DELIANG;;YAN XIAOBING</t>
+          <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
         </is>
       </c>
       <c r="S45" t="b">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>CHENG RUNHONG;;WANG YUNBO;;WU SHUO;;ZHU YU;;CHEN CHANGSHENG;;ZHOU WENLI;;GAO JUNXIONG</t>
+          <t>CHENG RUNHONG;;WU SHUO;;CHEN CHANGSHENG;;GAO JUNXIONG;;WANG YUNBO;;ZHOU WENLI;;ZHU YU</t>
         </is>
       </c>
       <c r="S46" t="b">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T;;PANKONIEN ALEXANDER M;;MAGAR KAMAN THAPA;;REICH GREGORY W;;BAUR JEFFREY W</t>
+          <t>REICH GREGORY W;;MAGAR KAMAN THAPA;;PANKONIEN ALEXANDER M;;BAUR JEFFREY W;;KONDASH COREY R;;SLINKER KEITH;;DICKINSON BENJAMIN T</t>
         </is>
       </c>
       <c r="S47" t="b">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Huilong Zhu;;Zhengyong Zhu</t>
+          <t>Zhengyong Zhu;;Huilong Zhu</t>
         </is>
       </c>
       <c r="S48" t="b">
@@ -5580,7 +5580,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>UNIV SEOUL IND COOP FOUND;;서울시립대학교 산학협력단</t>
+          <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+          <t>CORBO CLAUDIA;;MAHMOUDI MORTEZA;;FAROKHZAD OMID</t>
         </is>
       </c>
       <c r="S52" t="b">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>KOUL RAMAN;;WANG GANG (A K A JOSEPH);;SALAHANDISH RAZIEH;;BHAT SUMRITA;;VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG</t>
+          <t>VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH);;BHAT SUMRITA;;KAPOOR ANMOL SINGH;;KOUL RAMAN;;WANG GANG</t>
         </is>
       </c>
       <c r="S53" t="b">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CN;;US;;JP</t>
+          <t>JP;;CN;;US</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>RAMPRASAD RAMPI;;KIM CHIHO;;CHANDRASEKARAN ANAND</t>
+          <t>CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI;;KIM CHIHO</t>
         </is>
       </c>
       <c r="S56" t="b">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN;;MILENKOVIC OLGICA</t>
+          <t>MILENKOVIC OLGICA;;YAZDI S M HOSSEIN TABATABAEI;;GABRYS RYAN</t>
         </is>
       </c>
       <c r="S57" t="b">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;CN;;JP</t>
+          <t>US;;EP;;CN;;WO;;KR;;JP</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6578,12 +6578,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ザ ユニバーシティー オブ カンタベリー;;BOSE SAURABH KUMAR;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;ザ ユニバーシティー オブ カンタベリー;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
+          <t>フォスナー ショーン;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S61" t="b">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
+          <t>CHEN YICHENG;;JIANG YADONG;;LI DONGYANG;;钟豪;;GU DE'EN;;李东阳;;蒋亚东;;GU DEEN;;顾德恩;;LI WEI;;陈奕丞;;ZHONG HAO;;李伟</t>
         </is>
       </c>
       <c r="S62" t="b">
@@ -6780,12 +6780,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>YU XING;;JIANG WEINAN</t>
+          <t>JIANG WEINAN;;YU XING</t>
         </is>
       </c>
       <c r="S63" t="b">
@@ -6883,12 +6883,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
+          <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
         </is>
       </c>
       <c r="S64" t="b">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
+          <t>SHIN HYUN DONG;;JEONG YOUNG MIN;;FAROOQ AHMAD;;신현동;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S65" t="b">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>US;;KR;;EP;;CN;;JP</t>
+          <t>US;;EP;;CN;;KR;;JP</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>FOSTNER SHAWN;;BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー</t>
+          <t>フォスナー ショーン;;BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー</t>
         </is>
       </c>
       <c r="S66" t="b">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
+          <t>李源;;XING YAN;;LI YUAN;;张晋;;幸研;;ZHANG HUI;;ZHANG JIN;;张辉</t>
         </is>
       </c>
       <c r="S67" t="b">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;A·X·C·科尔;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;B·H·阮;;GRASS ROBERT;;NGUYEN BICHLIEN HOANG</t>
+          <t>W·陈;;CHEN WEIDA;;KOHLL ALEXANDER XAVIER CHRISTOF;;K·施特劳斯;;A·X·C·科尔;;NGUYEN BICHLIEN HOANG;;R·格拉斯;;GRASS ROBERT;;STRAUSS KARIN;;B·H·阮</t>
         </is>
       </c>
       <c r="S68" t="b">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>KR;;EP;;CA;;CN;;JP</t>
+          <t>EP;;CN;;KR;;JP;;CA</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>CASSIDY MAJA;;ポール・エフ・プレドキ;;マジャ・キャシディ;;PREDKI PAUL F</t>
+          <t>マジャ・キャシディ;;PREDKI PAUL F;;ポール・エフ・プレドキ;;CASSIDY MAJA</t>
         </is>
       </c>
       <c r="S69" t="b">
@@ -7493,12 +7493,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>UNIV SOUTHEAST;;东南大学</t>
+          <t>东南大学;;UNIV SOUTHEAST</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>张辉;;ZHANG JIN;;XING YAN;;幸研;;李源;;ZHANG HUI;;张晋;;LI YUAN</t>
+          <t>李源;;XING YAN;;LI YUAN;;张晋;;幸研;;ZHANG HUI;;ZHANG JIN;;张辉</t>
         </is>
       </c>
       <c r="S70" t="b">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>KR;;CN;;JP;;EP</t>
+          <t>JP;;CN;;EP;;KR</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>LAM RES CORP;;ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+          <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン</t>
+          <t>GUHA JOYDEEP;;ゴットショ・リチャード・アラン;;バヘディ・バヘド;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;DAUGHERTY JOHN</t>
         </is>
       </c>
       <c r="S71" t="b">
@@ -7695,12 +7695,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+          <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>정용호;;CHOI JEONG WOO;;CHUNG YONG HO;;최정우</t>
+          <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
         </is>
       </c>
       <c r="S72" t="b">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>SHINKAI GOU;;新海 剛</t>
+          <t>新海 剛;;SHINKAI GOU</t>
         </is>
       </c>
       <c r="S73" t="b">
@@ -7897,12 +7897,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
+          <t>김진배;;KIM JIN BAE;;YOON TAE HYUN;;HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;하키우;;트린수안텅</t>
         </is>
       </c>
       <c r="S74" t="b">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>FAROOQ AHMAD;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;신현동;;파쿼 아마드</t>
+          <t>SHIN HYUN DONG;;JEONG YOUNG MIN;;FAROOQ AHMAD;;신현동;;정영민;;파쿼 아마드</t>
         </is>
       </c>
       <c r="S75" t="b">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>IUCF HYU;;한양대학교 산학협력단</t>
+          <t>한양대학교 산학협력단;;IUCF HYU</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>윤태현;;트린수안텅;;김진배;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;하키우</t>
+          <t>김진배;;KIM JIN BAE;;YOON TAE HYUN;;HA KIEU MY;;윤태현;;TRINH XUAN TUNG;;하키우;;트린수안텅</t>
         </is>
       </c>
       <c r="S76" t="b">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>李伟;;蒋亚东;;GU DE'EN;;顾德恩;;李东阳;;LI DONGYANG;;JIANG YADONG;;GU DEEN;;钟豪;;陈奕丞;;LI WEI;;CHEN YICHENG;;ZHONG HAO</t>
+          <t>CHEN YICHENG;;JIANG YADONG;;LI DONGYANG;;钟豪;;GU DE'EN;;李东阳;;蒋亚东;;GU DEEN;;顾德恩;;LI WEI;;陈奕丞;;ZHONG HAO;;李伟</t>
         </is>
       </c>
       <c r="S77" t="b">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>CA;;KR;;AU;;EP</t>
+          <t>CA;;AU;;EP;;KR</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
+          <t>PARK HYUNJUN;;BHATIA SWAPNIL P;;LEAKE DEVIN;;ROQUET NATHANIEL</t>
         </is>
       </c>
       <c r="S78" t="b">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;VAN DAL MARCUS JOHANNES HENRICUS</t>
         </is>
       </c>
       <c r="S79" t="b">
@@ -8504,7 +8504,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>MANFRINI MAURICIO;;MAURICIO MANFRINI;;VAN DAL MARCUS JOHANNES HENRICUS;;DOORNBOS GERBEN;;MARCUS JOHANNES HENRICUS VAN DAL;;GERBEN DOORNBOS</t>
+          <t>MANFRINI MAURICIO;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MAURICIO MANFRINI;;MARCUS JOHANNES HENRICUS VAN DAL;;VAN DAL MARCUS JOHANNES HENRICUS</t>
         </is>
       </c>
       <c r="S80" t="b">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>US;;JP</t>
+          <t>JP;;US</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>SHINKAI GOU;;新海 剛</t>
+          <t>新海 剛;;SHINKAI GOU</t>
         </is>
       </c>
       <c r="S81" t="b">
@@ -8697,12 +8697,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
+          <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>YU XING;;JIANG WEINAN</t>
+          <t>JIANG WEINAN;;YU XING</t>
         </is>
       </c>
       <c r="S82" t="b">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8800,12 +8800,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S83" t="b">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8903,12 +8903,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S84" t="b">
@@ -9200,12 +9200,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S87" t="b">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S88" t="b">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S89" t="b">
@@ -9505,12 +9505,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+          <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
         </is>
       </c>
       <c r="S90" t="b">
@@ -9608,12 +9608,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+          <t>BROWN SIMON ANTHONY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
         </is>
       </c>
       <c r="S91" t="b">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>WO;;CN;;US;;KR;;EP;;AU;;CA;;SG;;JP</t>
+          <t>SG;;EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -9711,12 +9711,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;グーグル エルエルシー;;구글 엘엘씨;;BARENDS RAMI;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>ラミ・バレントス;;グーグル エルエルシー;;GOOGLE LLC;;BARENDS RAMI;;구글 엘엘씨;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>ラミ・バレントス;;바엔즈 라미;;BARENDS RAMI</t>
+          <t>BARENDS RAMI;;바엔즈 라미;;ラミ・バレントス</t>
         </is>
       </c>
       <c r="S92" t="b">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S93" t="b">
@@ -9917,12 +9917,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S94" t="b">
@@ -10020,12 +10020,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S95" t="b">
@@ -10123,12 +10123,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S96" t="b">
@@ -10226,12 +10226,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;HARTFORD FIRE INSURANCE COMP;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>MOLINSKY BRADLEY DEAN;;TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S</t>
+          <t>CARROLL WILLIAM JOSEPH;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN</t>
         </is>
       </c>
       <c r="S97" t="b">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -10325,12 +10325,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S98" t="b">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -10424,12 +10424,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S99" t="b">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -10706,7 +10706,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -10832,12 +10832,12 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S103" t="b">
@@ -10904,7 +10904,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>WO;;US;;KR;;EP;;AU;;CA;;CN;;JP</t>
+          <t>EP;;US;;CN;;WO;;KR;;JP;;AU;;CA</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -10931,12 +10931,12 @@
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+          <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NEVEN HARTMUT;;NIU YUEZHEN;;GOOGLE LLC;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;GOOGLE INC</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>ユエゼン・ニウ;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;NEVEN HARTMUT;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン</t>
+          <t>NEVEN HARTMUT;;NIU YUEZHEN;;ハルトムート・ネーフェン;;BOIXO CASTRILLO SERGIO;;SMELYANSKIY VADIM;;CASTRILLO SERGIO BOIXO;;セルジオ・バイショ・カストリージョ;;ヴァディム・スメリャンスキー;;ユエゼン・ニウ</t>
         </is>
       </c>
       <c r="S104" t="b">
@@ -11007,7 +11007,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>WO;;RU;;US;;KR;;EP;;JP;;AU;;IL;;CA;;TW;;CN;;ZA</t>
+          <t>EP;;ZA;;US;;CN;;WO;;KR;;JP;;AU;;IL;;RU;;CA;;TW</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LLC;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+          <t>SMIRNOV SERGEY NIKOLAYEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY;;LANDIGRAD LTD LIABILITY CO;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
